--- a/data/nzd0175/nzd0175.xlsx
+++ b/data/nzd0175/nzd0175.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U328"/>
+  <dimension ref="A1:U334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21406,6 +21406,420 @@
         </is>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>325.0528571428572</v>
+      </c>
+      <c r="C329" t="n">
+        <v>309.71</v>
+      </c>
+      <c r="D329" t="n">
+        <v>306.3428571428572</v>
+      </c>
+      <c r="E329" t="n">
+        <v>319.7185714285715</v>
+      </c>
+      <c r="F329" t="n">
+        <v>304.41</v>
+      </c>
+      <c r="G329" t="n">
+        <v>292.8</v>
+      </c>
+      <c r="H329" t="n">
+        <v>305.0528571428572</v>
+      </c>
+      <c r="I329" t="n">
+        <v>312.8</v>
+      </c>
+      <c r="J329" t="n">
+        <v>322.4828571428571</v>
+      </c>
+      <c r="K329" t="n">
+        <v>337.5129411764706</v>
+      </c>
+      <c r="L329" t="n">
+        <v>334.76</v>
+      </c>
+      <c r="M329" t="n">
+        <v>350.6628571428571</v>
+      </c>
+      <c r="N329" t="n">
+        <v>356.0414285714286</v>
+      </c>
+      <c r="O329" t="n">
+        <v>361.4663636363636</v>
+      </c>
+      <c r="P329" t="n">
+        <v>369.2448837209302</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>371.5785714285714</v>
+      </c>
+      <c r="R329" t="n">
+        <v>379.9660869565217</v>
+      </c>
+      <c r="S329" t="n">
+        <v>377.83</v>
+      </c>
+      <c r="T329" t="n">
+        <v>370.9676923076924</v>
+      </c>
+      <c r="U329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>311.6571428571428</v>
+      </c>
+      <c r="C330" t="n">
+        <v>295.6966666666667</v>
+      </c>
+      <c r="D330" t="n">
+        <v>297.1671428571428</v>
+      </c>
+      <c r="E330" t="n">
+        <v>309.3247619047619</v>
+      </c>
+      <c r="F330" t="n">
+        <v>294.52</v>
+      </c>
+      <c r="G330" t="n">
+        <v>287.0166666666667</v>
+      </c>
+      <c r="H330" t="n">
+        <v>295.4771428571428</v>
+      </c>
+      <c r="I330" t="n">
+        <v>305.5166666666667</v>
+      </c>
+      <c r="J330" t="n">
+        <v>306.6671428571428</v>
+      </c>
+      <c r="K330" t="n">
+        <v>313.5747058823529</v>
+      </c>
+      <c r="L330" t="n">
+        <v>322.1266666666667</v>
+      </c>
+      <c r="M330" t="n">
+        <v>339.4771428571428</v>
+      </c>
+      <c r="N330" t="n">
+        <v>350.5685714285714</v>
+      </c>
+      <c r="O330" t="n">
+        <v>351.3454545454546</v>
+      </c>
+      <c r="P330" t="n">
+        <v>360.8309302325582</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>372.1447619047619</v>
+      </c>
+      <c r="R330" t="n">
+        <v>357.2573913043478</v>
+      </c>
+      <c r="S330" t="n">
+        <v>367.6533333333334</v>
+      </c>
+      <c r="T330" t="n">
+        <v>361.8146153846154</v>
+      </c>
+      <c r="U330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>309.7014285714285</v>
+      </c>
+      <c r="C331" t="n">
+        <v>296.2233333333333</v>
+      </c>
+      <c r="D331" t="n">
+        <v>297.6514285714285</v>
+      </c>
+      <c r="E331" t="n">
+        <v>311.6209523809524</v>
+      </c>
+      <c r="F331" t="n">
+        <v>300.76</v>
+      </c>
+      <c r="G331" t="n">
+        <v>285.1833333333333</v>
+      </c>
+      <c r="H331" t="n">
+        <v>302.1514285714285</v>
+      </c>
+      <c r="I331" t="n">
+        <v>305.6033333333333</v>
+      </c>
+      <c r="J331" t="n">
+        <v>302.0214285714285</v>
+      </c>
+      <c r="K331" t="n">
+        <v>317.0488235294118</v>
+      </c>
+      <c r="L331" t="n">
+        <v>326.8033333333333</v>
+      </c>
+      <c r="M331" t="n">
+        <v>342.2614285714285</v>
+      </c>
+      <c r="N331" t="n">
+        <v>354.9657142857143</v>
+      </c>
+      <c r="O331" t="n">
+        <v>359.7263636363636</v>
+      </c>
+      <c r="P331" t="n">
+        <v>367.3116279069768</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>370.3409523809524</v>
+      </c>
+      <c r="R331" t="n">
+        <v>375.4995652173913</v>
+      </c>
+      <c r="S331" t="n">
+        <v>376.5366666666667</v>
+      </c>
+      <c r="T331" t="n">
+        <v>366.3115384615385</v>
+      </c>
+      <c r="U331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>324.0385714285715</v>
+      </c>
+      <c r="C332" t="n">
+        <v>313.13</v>
+      </c>
+      <c r="D332" t="n">
+        <v>311.4285714285714</v>
+      </c>
+      <c r="E332" t="n">
+        <v>319.5257142857143</v>
+      </c>
+      <c r="F332" t="n">
+        <v>308.95</v>
+      </c>
+      <c r="G332" t="n">
+        <v>301.4</v>
+      </c>
+      <c r="H332" t="n">
+        <v>312.9985714285714</v>
+      </c>
+      <c r="I332" t="n">
+        <v>330.08</v>
+      </c>
+      <c r="J332" t="n">
+        <v>324.0685714285714</v>
+      </c>
+      <c r="K332" t="n">
+        <v>339.8941176470589</v>
+      </c>
+      <c r="L332" t="n">
+        <v>345.57</v>
+      </c>
+      <c r="M332" t="n">
+        <v>362.1685714285715</v>
+      </c>
+      <c r="N332" t="n">
+        <v>361.8442857142857</v>
+      </c>
+      <c r="O332" t="n">
+        <v>370.1309090909091</v>
+      </c>
+      <c r="P332" t="n">
+        <v>378.7160465116279</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>377.9857142857143</v>
+      </c>
+      <c r="R332" t="n">
+        <v>381.3030434782609</v>
+      </c>
+      <c r="S332" t="n">
+        <v>383.97</v>
+      </c>
+      <c r="T332" t="n">
+        <v>374.4115384615384</v>
+      </c>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>321.2085714285714</v>
+      </c>
+      <c r="C333" t="n">
+        <v>303.2333333333333</v>
+      </c>
+      <c r="D333" t="n">
+        <v>304.0285714285715</v>
+      </c>
+      <c r="E333" t="n">
+        <v>322.4623809523809</v>
+      </c>
+      <c r="F333" t="n">
+        <v>299.91</v>
+      </c>
+      <c r="G333" t="n">
+        <v>298.8233333333333</v>
+      </c>
+      <c r="H333" t="n">
+        <v>301.2085714285714</v>
+      </c>
+      <c r="I333" t="n">
+        <v>310.6133333333333</v>
+      </c>
+      <c r="J333" t="n">
+        <v>320.8185714285714</v>
+      </c>
+      <c r="K333" t="n">
+        <v>325.4670588235294</v>
+      </c>
+      <c r="L333" t="n">
+        <v>342.1533333333333</v>
+      </c>
+      <c r="M333" t="n">
+        <v>344.5985714285715</v>
+      </c>
+      <c r="N333" t="n">
+        <v>363.2042857142857</v>
+      </c>
+      <c r="O333" t="n">
+        <v>371.6781818181818</v>
+      </c>
+      <c r="P333" t="n">
+        <v>381.5937209302326</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>381.822380952381</v>
+      </c>
+      <c r="R333" t="n">
+        <v>390.835652173913</v>
+      </c>
+      <c r="S333" t="n">
+        <v>384.3266666666667</v>
+      </c>
+      <c r="T333" t="n">
+        <v>368.1046153846154</v>
+      </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>316.6928571428572</v>
+      </c>
+      <c r="C334" t="n">
+        <v>297.1833333333333</v>
+      </c>
+      <c r="D334" t="n">
+        <v>298.9728571428572</v>
+      </c>
+      <c r="E334" t="n">
+        <v>316.2952380952381</v>
+      </c>
+      <c r="F334" t="n">
+        <v>296.64</v>
+      </c>
+      <c r="G334" t="n">
+        <v>288.9233333333333</v>
+      </c>
+      <c r="H334" t="n">
+        <v>294.0728571428572</v>
+      </c>
+      <c r="I334" t="n">
+        <v>301.2833333333333</v>
+      </c>
+      <c r="J334" t="n">
+        <v>308.6828571428572</v>
+      </c>
+      <c r="K334" t="n">
+        <v>314.8776470588235</v>
+      </c>
+      <c r="L334" t="n">
+        <v>319.2033333333333</v>
+      </c>
+      <c r="M334" t="n">
+        <v>332.5128571428572</v>
+      </c>
+      <c r="N334" t="n">
+        <v>352.2014285714285</v>
+      </c>
+      <c r="O334" t="n">
+        <v>356.3409090909091</v>
+      </c>
+      <c r="P334" t="n">
+        <v>364.4230232558139</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>368.5652380952381</v>
+      </c>
+      <c r="R334" t="n">
+        <v>371.0269565217391</v>
+      </c>
+      <c r="S334" t="n">
+        <v>367.5966666666666</v>
+      </c>
+      <c r="T334" t="n">
+        <v>360.2769230769231</v>
+      </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21417,7 +21831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B338"/>
+  <dimension ref="A1:B344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24805,6 +25219,66 @@
       </c>
       <c r="B338" t="n">
         <v>-0.37</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -24973,28 +25447,28 @@
         <v>0.08459999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3187374253959073</v>
+        <v>0.343719567608989</v>
       </c>
       <c r="J2" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K2" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05275490008615735</v>
+        <v>0.06269941299578163</v>
       </c>
       <c r="M2" t="n">
-        <v>7.155630121560806</v>
+        <v>7.148003483781118</v>
       </c>
       <c r="N2" t="n">
-        <v>92.56420981190325</v>
+        <v>91.94933387282202</v>
       </c>
       <c r="O2" t="n">
-        <v>9.621029560909959</v>
+        <v>9.589021528436675</v>
       </c>
       <c r="P2" t="n">
-        <v>304.269714506577</v>
+        <v>304.0190273854138</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -25050,28 +25524,28 @@
         <v>0.0902</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08056328486335458</v>
+        <v>-0.06559087467823659</v>
       </c>
       <c r="J3" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K3" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003408982474696565</v>
+        <v>0.002339453124484026</v>
       </c>
       <c r="M3" t="n">
-        <v>7.167160724575766</v>
+        <v>7.13823962004873</v>
       </c>
       <c r="N3" t="n">
-        <v>96.9779840492664</v>
+        <v>96.12318737068</v>
       </c>
       <c r="O3" t="n">
-        <v>9.847740047811294</v>
+        <v>9.804243334938194</v>
       </c>
       <c r="P3" t="n">
-        <v>301.1115429534995</v>
+        <v>300.9615386182456</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -25127,28 +25601,28 @@
         <v>0.0835</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002718602551198212</v>
+        <v>0.002617194977749696</v>
       </c>
       <c r="J4" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K4" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L4" t="n">
-        <v>3.848750611545881e-06</v>
+        <v>3.71118826947292e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>7.310360882468611</v>
+        <v>7.253567419148382</v>
       </c>
       <c r="N4" t="n">
-        <v>98.6761803423651</v>
+        <v>97.13173570114257</v>
       </c>
       <c r="O4" t="n">
-        <v>9.933588492703183</v>
+        <v>9.855543399586985</v>
       </c>
       <c r="P4" t="n">
-        <v>302.5576785739115</v>
+        <v>302.5586028281328</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -25204,28 +25678,28 @@
         <v>0.1239</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02643190720994309</v>
+        <v>-0.02772193719536451</v>
       </c>
       <c r="J5" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K5" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0005958194946783513</v>
+        <v>0.0006789601733758754</v>
       </c>
       <c r="M5" t="n">
-        <v>5.841136224877927</v>
+        <v>5.804403217473679</v>
       </c>
       <c r="N5" t="n">
-        <v>59.87612014353298</v>
+        <v>59.08371931183925</v>
       </c>
       <c r="O5" t="n">
-        <v>7.737966150322253</v>
+        <v>7.686593479028226</v>
       </c>
       <c r="P5" t="n">
-        <v>317.4931525403204</v>
+        <v>317.5059743232326</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -25281,28 +25755,28 @@
         <v>0.1203</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09714036409557611</v>
+        <v>0.09190345873822869</v>
       </c>
       <c r="J6" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K6" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006707593934501932</v>
+        <v>0.006224934700288509</v>
       </c>
       <c r="M6" t="n">
-        <v>6.472886989374189</v>
+        <v>6.425860719879853</v>
       </c>
       <c r="N6" t="n">
-        <v>71.06884123594722</v>
+        <v>70.09979990250625</v>
       </c>
       <c r="O6" t="n">
-        <v>8.430233759270688</v>
+        <v>8.372562325985173</v>
       </c>
       <c r="P6" t="n">
-        <v>299.6851625045741</v>
+        <v>299.7384235462372</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -25358,28 +25832,28 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.186730804043178</v>
+        <v>0.1751742862109154</v>
       </c>
       <c r="J7" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K7" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01540814905171972</v>
+        <v>0.01404959017827823</v>
       </c>
       <c r="M7" t="n">
-        <v>8.076389506345928</v>
+        <v>8.030480150846621</v>
       </c>
       <c r="N7" t="n">
-        <v>109.3305932376808</v>
+        <v>107.9615183602913</v>
       </c>
       <c r="O7" t="n">
-        <v>10.45612706682932</v>
+        <v>10.39045323170704</v>
       </c>
       <c r="P7" t="n">
-        <v>290.4365033341178</v>
+        <v>290.5571744185984</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -25435,28 +25909,28 @@
         <v>0.0789</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4272066948073047</v>
+        <v>0.4295620511199281</v>
       </c>
       <c r="J8" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K8" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06428316063994766</v>
+        <v>0.06721539084631989</v>
       </c>
       <c r="M8" t="n">
-        <v>8.783482110576042</v>
+        <v>8.706131395556643</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8047114730268</v>
+        <v>130.9175566569795</v>
       </c>
       <c r="O8" t="n">
-        <v>11.52409265291748</v>
+        <v>11.44192102126996</v>
       </c>
       <c r="P8" t="n">
-        <v>290.3726732448548</v>
+        <v>290.3486282715471</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -25512,28 +25986,28 @@
         <v>0.0837</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3505322516548872</v>
+        <v>0.3614149133080189</v>
       </c>
       <c r="J9" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K9" t="n">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04994651180630016</v>
+        <v>0.05428336870698758</v>
       </c>
       <c r="M9" t="n">
-        <v>8.605687542933673</v>
+        <v>8.578786274899016</v>
       </c>
       <c r="N9" t="n">
-        <v>115.8959097147467</v>
+        <v>115.4484882868693</v>
       </c>
       <c r="O9" t="n">
-        <v>10.7654962595668</v>
+        <v>10.74469582104907</v>
       </c>
       <c r="P9" t="n">
-        <v>299.3768780310222</v>
+        <v>299.2652135162538</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -25589,28 +26063,28 @@
         <v>0.0801</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2079878296091112</v>
+        <v>0.2052020131548544</v>
       </c>
       <c r="J10" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K10" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01930352429094095</v>
+        <v>0.01933851336515457</v>
       </c>
       <c r="M10" t="n">
-        <v>8.394816021807781</v>
+        <v>8.393314621224462</v>
       </c>
       <c r="N10" t="n">
-        <v>109.6107411141876</v>
+        <v>108.911422230368</v>
       </c>
       <c r="O10" t="n">
-        <v>10.46951484617065</v>
+        <v>10.4360635409319</v>
       </c>
       <c r="P10" t="n">
-        <v>309.535221616045</v>
+        <v>309.5635883679445</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -25666,28 +26140,28 @@
         <v>0.0977</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2952173873148277</v>
+        <v>0.3010757624383237</v>
       </c>
       <c r="J11" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K11" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04158336820257691</v>
+        <v>0.04404090360599655</v>
       </c>
       <c r="M11" t="n">
-        <v>7.71121637272021</v>
+        <v>7.751515263843784</v>
       </c>
       <c r="N11" t="n">
-        <v>101.1116826509737</v>
+        <v>101.384574945503</v>
       </c>
       <c r="O11" t="n">
-        <v>10.05543050550168</v>
+        <v>10.06899076101984</v>
       </c>
       <c r="P11" t="n">
-        <v>315.7903945817065</v>
+        <v>315.7310850356778</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -25743,28 +26217,28 @@
         <v>0.0864</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2229887779669714</v>
+        <v>0.2303552559099624</v>
       </c>
       <c r="J12" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K12" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01965085114767084</v>
+        <v>0.02151154688458767</v>
       </c>
       <c r="M12" t="n">
-        <v>8.845132544364992</v>
+        <v>8.848903824245793</v>
       </c>
       <c r="N12" t="n">
-        <v>125.6333776150551</v>
+        <v>125.1067968992134</v>
       </c>
       <c r="O12" t="n">
-        <v>11.20862960468652</v>
+        <v>11.18511497031717</v>
       </c>
       <c r="P12" t="n">
-        <v>324.3060979708533</v>
+        <v>324.2314460483003</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -25820,28 +26294,28 @@
         <v>0.07820000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>0.172528117696657</v>
+        <v>0.1982907365396365</v>
       </c>
       <c r="J13" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K13" t="n">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01439121978280244</v>
+        <v>0.0192760284172383</v>
       </c>
       <c r="M13" t="n">
-        <v>7.873613703872565</v>
+        <v>7.883755269554084</v>
       </c>
       <c r="N13" t="n">
-        <v>103.5003726618271</v>
+        <v>103.9185519104898</v>
       </c>
       <c r="O13" t="n">
-        <v>10.17351329000101</v>
+        <v>10.19404492389992</v>
       </c>
       <c r="P13" t="n">
-        <v>334.6297680408488</v>
+        <v>334.3689709395172</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -25897,28 +26371,28 @@
         <v>0.1707</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1805043069011304</v>
+        <v>0.1891119795759658</v>
       </c>
       <c r="J14" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K14" t="n">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0161155649005934</v>
+        <v>0.01831190429603535</v>
       </c>
       <c r="M14" t="n">
-        <v>7.543588998645822</v>
+        <v>7.466621045426078</v>
       </c>
       <c r="N14" t="n">
-        <v>99.80573113836914</v>
+        <v>98.30204423739877</v>
       </c>
       <c r="O14" t="n">
-        <v>9.990281834781696</v>
+        <v>9.914738737727726</v>
       </c>
       <c r="P14" t="n">
-        <v>349.7410714265764</v>
+        <v>349.6525247753113</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -25974,28 +26448,28 @@
         <v>0.1304</v>
       </c>
       <c r="I15" t="n">
-        <v>0.249781901918849</v>
+        <v>0.2570179268319007</v>
       </c>
       <c r="J15" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K15" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03002632377595915</v>
+        <v>0.03274113856715455</v>
       </c>
       <c r="M15" t="n">
-        <v>7.810915510850418</v>
+        <v>7.767021284234294</v>
       </c>
       <c r="N15" t="n">
-        <v>103.071184792353</v>
+        <v>102.0605518283213</v>
       </c>
       <c r="O15" t="n">
-        <v>10.15239798236619</v>
+        <v>10.10250225579392</v>
       </c>
       <c r="P15" t="n">
-        <v>353.6671958138459</v>
+        <v>353.5937404319059</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -26045,28 +26519,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.3558478978144521</v>
+        <v>0.3573498540740738</v>
       </c>
       <c r="J16" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K16" t="n">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06570287403671493</v>
+        <v>0.06812134217043075</v>
       </c>
       <c r="M16" t="n">
-        <v>7.549568726410525</v>
+        <v>7.524007263846122</v>
       </c>
       <c r="N16" t="n">
-        <v>93.47341633538906</v>
+        <v>92.66363994314926</v>
       </c>
       <c r="O16" t="n">
-        <v>9.668165096614199</v>
+        <v>9.626195507216195</v>
       </c>
       <c r="P16" t="n">
-        <v>360.9502022958113</v>
+        <v>360.9346885293284</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -26122,28 +26596,28 @@
         <v>0.1261</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4291960299106683</v>
+        <v>0.4339960907556653</v>
       </c>
       <c r="J17" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K17" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1001907760841394</v>
+        <v>0.1055510343704326</v>
       </c>
       <c r="M17" t="n">
-        <v>7.037591213834227</v>
+        <v>6.966842807139305</v>
       </c>
       <c r="N17" t="n">
-        <v>84.60032019766167</v>
+        <v>83.32975553887319</v>
       </c>
       <c r="O17" t="n">
-        <v>9.197843236197368</v>
+        <v>9.128513325776174</v>
       </c>
       <c r="P17" t="n">
-        <v>361.6169072383665</v>
+        <v>361.567797111584</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -26199,28 +26673,28 @@
         <v>0.1377</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3454247782066684</v>
+        <v>0.352418677451301</v>
       </c>
       <c r="J18" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K18" t="n">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05289540292387618</v>
+        <v>0.05610103945114941</v>
       </c>
       <c r="M18" t="n">
-        <v>8.104983172752101</v>
+        <v>8.115114569819106</v>
       </c>
       <c r="N18" t="n">
-        <v>108.4447785403651</v>
+        <v>108.460099619637</v>
       </c>
       <c r="O18" t="n">
-        <v>10.41368227575458</v>
+        <v>10.41441787233627</v>
       </c>
       <c r="P18" t="n">
-        <v>365.5200592010264</v>
+        <v>365.4483614753912</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -26276,28 +26750,28 @@
         <v>0.1899</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3992313425495824</v>
+        <v>0.4128749542321308</v>
       </c>
       <c r="J19" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K19" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06916256492238715</v>
+        <v>0.07573213489768682</v>
       </c>
       <c r="M19" t="n">
-        <v>8.575668907039921</v>
+        <v>8.529656608369978</v>
       </c>
       <c r="N19" t="n">
-        <v>106.443298968108</v>
+        <v>105.4213797978485</v>
       </c>
       <c r="O19" t="n">
-        <v>10.31713618055456</v>
+        <v>10.26749140724493</v>
       </c>
       <c r="P19" t="n">
-        <v>362.7822404473056</v>
+        <v>362.6401639562865</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -26353,28 +26827,28 @@
         <v>0.1811</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3017373787381659</v>
+        <v>0.3274429408943473</v>
       </c>
       <c r="J20" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K20" t="n">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04578477985037588</v>
+        <v>0.05491145572636824</v>
       </c>
       <c r="M20" t="n">
-        <v>7.388435631337187</v>
+        <v>7.365617198764794</v>
       </c>
       <c r="N20" t="n">
-        <v>96.55946312020193</v>
+        <v>95.85261109661033</v>
       </c>
       <c r="O20" t="n">
-        <v>9.826467479221712</v>
+        <v>9.790434673527541</v>
       </c>
       <c r="P20" t="n">
-        <v>352.8898165308941</v>
+        <v>352.6260415014524</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -26411,7 +26885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U328"/>
+  <dimension ref="A1:U334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58115,6 +58589,648 @@
         </is>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-36.79224785222448,175.7283792813525</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-36.79257310807575,175.72755646434658</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-36.79299098873078,175.72680377053098</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-36.79361065378572,175.72613704542874</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-36.79430038567997,175.7255812167732</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>-36.7949275984913,175.72511802298598</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>-36.79563687018034,175.7249018028769</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>-36.796334990414834,175.72465380331317</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>-36.797037814585046,175.7244268328147</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>-36.79776512303088,175.72426872339173</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>-36.79845304728675,175.72397672026182</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>-36.79918119211465,175.72388820685157</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>-36.79988831251759,175.72370065765722</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>-36.80061090749347,175.72366558071676</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>-36.80132644016746,175.72365788297913</t>
+        </is>
+      </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>-36.80203736329424,175.72371730654842</t>
+        </is>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>-36.80274082808685,175.72385107346037</t>
+        </is>
+      </c>
+      <c r="S329" t="inlineStr">
+        <is>
+          <t>-36.803433062966704,175.72396248326714</t>
+        </is>
+      </c>
+      <c r="T329" t="inlineStr">
+        <is>
+          <t>-36.80413756397911,175.72411554876228</t>
+        </is>
+      </c>
+      <c r="U329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-36.79215302278992,175.72828649637583</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-36.79247390596344,175.72745940172666</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-36.79292742645375,175.72673807259338</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-36.79355708486148,175.72604156545222</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-36.794268044243914,175.7254779987096</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>-36.794908686175475,175.72505766415668</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>-36.79560626339525,175.72480152510823</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>-36.7963122513767,175.7245772791209</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>-36.79698958968308,175.7242601368613</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>-36.7977002757374,175.72401299785344</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>-36.7984222313684,175.72384049717022</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>-36.799154793610086,175.7237672874504</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>-36.799879924209364,175.72364024725033</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>-36.800603062272,175.7235526306235</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>-36.80132532372922,175.72356364239306</t>
+        </is>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>-36.80203705309092,175.72372363717668</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>-36.80276531980729,175.7235985219237</t>
+        </is>
+      </c>
+      <c r="S330" t="inlineStr">
+        <is>
+          <t>-36.80345363297812,175.7238513907967</t>
+        </is>
+      </c>
+      <c r="T330" t="inlineStr">
+        <is>
+          <t>-36.804160110119845,175.72401692253447</t>
+        </is>
+      </c>
+      <c r="U330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-36.79213917811026,175.72827295020426</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-36.79247763430327,175.72746304965116</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-36.792930781212995,175.72674154006702</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-36.79356891926418,175.72606265878622</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-36.79428844977158,175.7255431231406</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>-36.79490269091019,175.72503853023971</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>-36.79562759637486,175.7248714188397</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>-36.79631252195594,175.724578189706</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>-36.7969754240348,175.7242111715621</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>-36.79770968695626,175.72405011086533</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>-36.79843363896853,175.7238909248624</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>-36.799161364590695,175.72379738602731</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>-36.79988666376096,175.72368878372356</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>-36.80060955874038,175.72364616218704</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>-36.80132618365249,175.72363622952457</t>
+        </is>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>-36.80203804135735,175.72370346861476</t>
+        </is>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>-36.80274564534959,175.72380139968797</t>
+        </is>
+      </c>
+      <c r="S331" t="inlineStr">
+        <is>
+          <t>-36.8034356771762,175.72394836473867</t>
+        </is>
+      </c>
+      <c r="T331" t="inlineStr">
+        <is>
+          <t>-36.80414903317048,175.72406537778457</t>
+        </is>
+      </c>
+      <c r="U331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-36.79224067201,175.72837225592755</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-36.79259731866308,175.72758015283608</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-36.793026218622025,175.7268401841946</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-36.79360965981504,175.72613527379653</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-36.794315231970195,175.72562859900583</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>-36.79495572164537,175.72520777853043</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>-36.79566226694157,175.72498501119148</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>-36.79638893948835,175.7248353601943</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>-36.797042649694134,175.72444354608615</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>-36.79777157346896,175.72429416086243</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>-36.79847941550288,175.72409328273878</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>-36.79920834569334,175.7240125855842</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>-36.79989720658625,175.72376471067736</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>-36.800617623728726,175.72376227769718</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>-36.80132769679601,175.7237639648481</t>
+        </is>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>-36.802033852941946,175.72378894540307</t>
+        </is>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>-36.8027393861396,175.72386594222658</t>
+        </is>
+      </c>
+      <c r="S332" t="inlineStr">
+        <is>
+          <t>-36.80342065218682,175.7240295098749</t>
+        </is>
+      </c>
+      <c r="T332" t="inlineStr">
+        <is>
+          <t>-36.804129080970675,175.72415265687465</t>
+        </is>
+      </c>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-36.79222063819777,175.72835265400957</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-36.792527258966174,175.72751160402234</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-36.792974957146825,175.7267872002795</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-36.793624795162934,175.72616225072952</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-36.794285670174645,175.72553425202224</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-36.79494729560701,175.72518088664958</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-36.795624582728784,175.7248615451511</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>-36.796328163505315,175.72463082853977</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>-36.79703273989584,175.7244092914103</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>-36.797732491504114,175.72414004051643</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>-36.798471081435586,175.72405644136828</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>-36.79916688029743,175.7238226509216</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>-36.799899291060086,175.72377972261302</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>-36.80061882307326,175.7237795453787</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>-36.80132807858543,175.7237961962734</t>
+        </is>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>-36.80203175088434,175.72383184352213</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>-36.802729104885266,175.72397195771882</t>
+        </is>
+      </c>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>-36.803419931255476,175.72403340338502</t>
+        </is>
+      </c>
+      <c r="T333" t="inlineStr">
+        <is>
+          <t>-36.80414461640684,175.72408469854463</t>
+        </is>
+      </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-36.792188671062114,175.72832137605886</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-36.79248443026417,175.7274696990335</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-36.79293993505397,175.7267510014642</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-36.793593010188474,175.72610559786995</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-36.7942749768953,175.7255001243139</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>-36.79491492124797,175.72507756343333</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>-36.795601774879735,175.72478681930426</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>-36.79629903461245,175.72453280054816</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>-36.79699573596493,175.72428138226545</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>-36.79770380534424,175.72402691680287</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>-36.79841510059074,175.72380897537673</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>-36.79913835769558,175.72369200242096</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>-36.7998824269107,175.72365827102752</t>
+        </is>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>-36.80060693451154,175.7236083802633</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>-36.80132580036926,175.72360387567392</t>
+        </is>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>-36.8020390142277,175.72368361418756</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>-36.80275046915671,175.7237516582128</t>
+        </is>
+      </c>
+      <c r="S334" t="inlineStr">
+        <is>
+          <t>-36.80345374751768,175.72385077220108</t>
+        </is>
+      </c>
+      <c r="T334" t="inlineStr">
+        <is>
+          <t>-36.80416389780304,175.7240003535873</t>
+        </is>
+      </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0175/nzd0175.xlsx
+++ b/data/nzd0175/nzd0175.xlsx
@@ -25292,7 +25292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25383,35 +25383,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -25470,27 +25475,28 @@
       <c r="P2" t="n">
         <v>304.0190273854138</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.7261278788255 -36.78994675108566, 175.73249945749103 -36.796458490985565)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.7261278788255</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.78994675108566</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.732499457491</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.79645849098556</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.7293136681583</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.79320262103561</v>
       </c>
     </row>
@@ -25547,27 +25553,28 @@
       <c r="P3" t="n">
         <v>300.9615386182456</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.72541133341008 -36.79038061160686, 175.73178289961976 -36.79689236424156)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.7254113334101</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.79038061160686</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.7317828996198</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.79689236424156</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.7285971165149</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.7936364879242</v>
       </c>
     </row>
@@ -25624,27 +25631,28 @@
       <c r="P4" t="n">
         <v>302.5586028281328</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.72461042090023 -36.79086885912278, 175.73119705275548 -36.79724112243122)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.7246104209002</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.79086885912278</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.7311970527555</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.79724112243122</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.7279037368278</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.794054990777</v>
       </c>
     </row>
@@ -25701,27 +25709,28 @@
       <c r="P5" t="n">
         <v>317.5059743232326</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.72320009530898 -36.7919628101241, 175.73165397913417 -36.79670565785909)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.723200095309</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.7919628101241</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.7316539791342</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.79670565785909</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.7274270372216</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.79433423399159</v>
       </c>
     </row>
@@ -25778,27 +25787,28 @@
       <c r="P6" t="n">
         <v>299.7384235462372</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.7224042462259 -36.79330488719549, 175.73201158736856 -36.79631498626719)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.7224042462259</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.79330488719549</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.7320115873686</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.79631498626719</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.7272079167972</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.79480993673134</v>
       </c>
     </row>
@@ -25855,27 +25865,28 @@
       <c r="P7" t="n">
         <v>290.5571744185984</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.7220621968265 -36.79397006105255, 175.73166958606785 -36.796980166633034)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.7220621968265</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.79397006105255</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.7316695860679</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.79698016663303</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.7268658914472</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.79547511384279</v>
       </c>
     </row>
@@ -25932,27 +25943,28 @@
       <c r="P8" t="n">
         <v>290.3486282715471</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.72170729806092 -36.79466178868455, 175.7313473278655 -36.79760394059559)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.7217072980609</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.79466178868455</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.7313473278655</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.79760394059559</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.7265273129632</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.79613286464007</v>
       </c>
     </row>
@@ -26009,27 +26021,28 @@
       <c r="P9" t="n">
         <v>299.2652135162538</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.72136732900964 -36.79535836241044, 175.7310393124278 -36.79823220882736)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.7213673290096</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.79535836241044</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.7310393124278</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.79823220882736</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.7262033207187</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.7967952856189</v>
       </c>
     </row>
@@ -26086,27 +26099,28 @@
       <c r="P10" t="n">
         <v>309.5635883679445</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.7210279364787 -36.79605445946715, 175.7307304728352 -36.7988612287052)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.7210279364787</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.79605445946715</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.7307304728352</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.7988612287052</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.725879204657</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.79745784408617</v>
       </c>
     </row>
@@ -26163,27 +26177,28 @@
       <c r="P11" t="n">
         <v>315.7310850356778</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.72066320307908 -36.79685076747281, 175.73049753593494 -36.79934442827977)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.7206632030791</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.79685076747281</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.7304975359349</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.79934442827977</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.725580369507</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.79809759787629</v>
       </c>
     </row>
@@ -26240,27 +26255,28 @@
       <c r="P12" t="n">
         <v>324.2314460483003</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (175.72036709377645 -36.797636428019736, 175.7302938035441 -36.79988187450064)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>175.7203670937764</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.79763642801974</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175.7302938035441</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.79988187450064</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>175.7253304486603</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.79875915126019</v>
       </c>
     </row>
@@ -26317,27 +26333,28 @@
       <c r="P13" t="n">
         <v>334.3689709395172</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (175.72009752010592 -36.79835356067433, 175.73004942159537 -36.80052608744329)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>175.7200975201059</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.79835356067433</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>175.7300494215954</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.80052608744329</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>175.7250734708506</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.79943982405881</v>
       </c>
     </row>
@@ -26394,27 +26411,28 @@
       <c r="P14" t="n">
         <v>349.6525247753113</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (175.71977063023377 -36.79934253873708, 175.7299330183847 -36.80075353263774)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>175.7197706302338</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.79934253873708</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>175.7299330183847</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.80075353263774</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>175.7248518243092</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.80004803568741</v>
       </c>
     </row>
@@ -26471,27 +26489,28 @@
       <c r="P15" t="n">
         <v>353.5937404319059</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (175.71963159950622 -36.800330649700555, 175.72990650622086 -36.80104421585094)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>175.7196315995062</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-36.80033064970056</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>175.7299065062209</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-36.80104421585094</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>175.7247690528635</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-36.80068743277575</v>
       </c>
     </row>
@@ -26542,27 +26561,28 @@
       <c r="P16" t="n">
         <v>360.9346885293284</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (175.71952214938997 -36.80127737499461, 175.72983436713446 -36.80139944775285)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>175.71952214939</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-36.80127737499461</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>175.7298343671345</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-36.80139944775285</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>175.7246782582622</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-36.80133841137373</v>
       </c>
     </row>
@@ -26619,27 +26639,28 @@
       <c r="P17" t="n">
         <v>361.567797111584</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (175.71956263643315 -36.802240870691485, 175.72985689355642 -36.801736361850466)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>175.7195626364332</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-36.80224087069148</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>175.7298568935564</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-36.80173636185047</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>175.7247097649948</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-36.80198861627098</v>
       </c>
     </row>
@@ -26696,27 +26717,28 @@
       <c r="P18" t="n">
         <v>365.4483614753912</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (175.71962530892006 -36.803150558243395, 175.72986437540217 -36.80215751310405)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>175.7196253089201</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-36.8031505582434</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>175.7298643754022</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-36.80215751310405</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>175.7247448421611</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-36.80265403567373</v>
       </c>
     </row>
@@ -26773,27 +26795,28 @@
       <c r="P19" t="n">
         <v>362.6401639562865</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (175.7198378992341 -36.80419669949176, 175.72988769154537 -36.802335779709345)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>175.7198378992341</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-36.80419669949176</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>175.7298876915454</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-36.80233577970935</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>175.7248627953898</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-36.80326623960055</v>
       </c>
     </row>
@@ -26850,27 +26873,28 @@
       <c r="P20" t="n">
         <v>352.6260415014524</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (175.72011824774037 -36.805051279242775, 175.73003766029709 -36.80278358600206)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>175.7201182477404</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-36.80505127924278</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>175.7300376602971</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-36.80278358600206</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>175.7250779540187</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-36.80391743262241</v>
       </c>
     </row>

--- a/data/nzd0175/nzd0175.xlsx
+++ b/data/nzd0175/nzd0175.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U334"/>
+  <dimension ref="A1:U338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21820,6 +21820,282 @@
         </is>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>326.7242857142857</v>
+      </c>
+      <c r="C335" t="n">
+        <v>314.1466666666666</v>
+      </c>
+      <c r="D335" t="n">
+        <v>309.8442857142857</v>
+      </c>
+      <c r="E335" t="n">
+        <v>323.6061904761905</v>
+      </c>
+      <c r="F335" t="n">
+        <v>302.38</v>
+      </c>
+      <c r="G335" t="n">
+        <v>298.3666666666667</v>
+      </c>
+      <c r="H335" t="n">
+        <v>303.3342857142857</v>
+      </c>
+      <c r="I335" t="n">
+        <v>310.7266666666667</v>
+      </c>
+      <c r="J335" t="n">
+        <v>317.6642857142857</v>
+      </c>
+      <c r="K335" t="n">
+        <v>327.5570588235294</v>
+      </c>
+      <c r="L335" t="n">
+        <v>329.2566666666667</v>
+      </c>
+      <c r="M335" t="n">
+        <v>344.3542857142857</v>
+      </c>
+      <c r="N335" t="n">
+        <v>355.6271428571428</v>
+      </c>
+      <c r="O335" t="n">
+        <v>361.9363636363637</v>
+      </c>
+      <c r="P335" t="n">
+        <v>369.6081395348837</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>368.9461904761905</v>
+      </c>
+      <c r="R335" t="n">
+        <v>380.3526086956522</v>
+      </c>
+      <c r="S335" t="n">
+        <v>377.2333333333333</v>
+      </c>
+      <c r="T335" t="n">
+        <v>364.2138461538461</v>
+      </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>328.7285714285715</v>
+      </c>
+      <c r="C336" t="n">
+        <v>305.6866666666667</v>
+      </c>
+      <c r="D336" t="n">
+        <v>306.2885714285715</v>
+      </c>
+      <c r="E336" t="n">
+        <v>321.0890476190476</v>
+      </c>
+      <c r="F336" t="n">
+        <v>300.46</v>
+      </c>
+      <c r="G336" t="n">
+        <v>293.3866666666667</v>
+      </c>
+      <c r="H336" t="n">
+        <v>298.8685714285714</v>
+      </c>
+      <c r="I336" t="n">
+        <v>306.0166666666667</v>
+      </c>
+      <c r="J336" t="n">
+        <v>312.0985714285715</v>
+      </c>
+      <c r="K336" t="n">
+        <v>321.2611764705882</v>
+      </c>
+      <c r="L336" t="n">
+        <v>326.2866666666667</v>
+      </c>
+      <c r="M336" t="n">
+        <v>341.1085714285715</v>
+      </c>
+      <c r="N336" t="n">
+        <v>359.7142857142857</v>
+      </c>
+      <c r="O336" t="n">
+        <v>369.5836363636364</v>
+      </c>
+      <c r="P336" t="n">
+        <v>377.9283720930233</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>377.4890476190476</v>
+      </c>
+      <c r="R336" t="n">
+        <v>372.2204347826087</v>
+      </c>
+      <c r="S336" t="n">
+        <v>382.6333333333333</v>
+      </c>
+      <c r="T336" t="n">
+        <v>365.2384615384616</v>
+      </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>321.8185714285714</v>
+      </c>
+      <c r="C337" t="n">
+        <v>300.6333333333333</v>
+      </c>
+      <c r="D337" t="n">
+        <v>303.1585714285715</v>
+      </c>
+      <c r="E337" t="n">
+        <v>315.262380952381</v>
+      </c>
+      <c r="F337" t="n">
+        <v>296.56</v>
+      </c>
+      <c r="G337" t="n">
+        <v>292.4533333333333</v>
+      </c>
+      <c r="H337" t="n">
+        <v>295.2185714285715</v>
+      </c>
+      <c r="I337" t="n">
+        <v>303.7033333333333</v>
+      </c>
+      <c r="J337" t="n">
+        <v>311.6785714285714</v>
+      </c>
+      <c r="K337" t="n">
+        <v>315.6170588235294</v>
+      </c>
+      <c r="L337" t="n">
+        <v>323.9933333333333</v>
+      </c>
+      <c r="M337" t="n">
+        <v>335.5785714285714</v>
+      </c>
+      <c r="N337" t="n">
+        <v>352.1242857142857</v>
+      </c>
+      <c r="O337" t="n">
+        <v>354.2081818181818</v>
+      </c>
+      <c r="P337" t="n">
+        <v>367.7737209302326</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>368.5323809523809</v>
+      </c>
+      <c r="R337" t="n">
+        <v>370.405652173913</v>
+      </c>
+      <c r="S337" t="n">
+        <v>375.8666666666667</v>
+      </c>
+      <c r="T337" t="n">
+        <v>361.7546153846154</v>
+      </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>314.5614285714286</v>
+      </c>
+      <c r="C338" t="n">
+        <v>295.23</v>
+      </c>
+      <c r="D338" t="n">
+        <v>295.4514285714285</v>
+      </c>
+      <c r="E338" t="n">
+        <v>309.0042857142857</v>
+      </c>
+      <c r="F338" t="n">
+        <v>292.37</v>
+      </c>
+      <c r="G338" t="n">
+        <v>286.17</v>
+      </c>
+      <c r="H338" t="n">
+        <v>289.4014285714285</v>
+      </c>
+      <c r="I338" t="n">
+        <v>297.79</v>
+      </c>
+      <c r="J338" t="n">
+        <v>305.4614285714285</v>
+      </c>
+      <c r="K338" t="n">
+        <v>312.7676470588235</v>
+      </c>
+      <c r="L338" t="n">
+        <v>319.3</v>
+      </c>
+      <c r="M338" t="n">
+        <v>324.8114285714286</v>
+      </c>
+      <c r="N338" t="n">
+        <v>351.0557142857143</v>
+      </c>
+      <c r="O338" t="n">
+        <v>343.6763636363636</v>
+      </c>
+      <c r="P338" t="n">
+        <v>360.3144186046512</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>355.1942857142857</v>
+      </c>
+      <c r="R338" t="n">
+        <v>363.9252173913044</v>
+      </c>
+      <c r="S338" t="n">
+        <v>358.16</v>
+      </c>
+      <c r="T338" t="n">
+        <v>357.9146153846153</v>
+      </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21831,7 +22107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B344"/>
+  <dimension ref="A1:B348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25279,6 +25555,46 @@
       </c>
       <c r="B344" t="n">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -25452,28 +25768,28 @@
         <v>0.08459999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.343719567608989</v>
+        <v>0.3726152894595864</v>
       </c>
       <c r="J2" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K2" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06269941299578163</v>
+        <v>0.07362125325976698</v>
       </c>
       <c r="M2" t="n">
-        <v>7.148003483781118</v>
+        <v>7.188969414410127</v>
       </c>
       <c r="N2" t="n">
-        <v>91.94933387282202</v>
+        <v>92.46529441005438</v>
       </c>
       <c r="O2" t="n">
-        <v>9.589021528436675</v>
+        <v>9.615887603859271</v>
       </c>
       <c r="P2" t="n">
-        <v>304.0190273854138</v>
+        <v>303.7262242200521</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25530,28 +25846,28 @@
         <v>0.0902</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06559087467823659</v>
+        <v>-0.05260144391947741</v>
       </c>
       <c r="J3" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K3" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002339453124484026</v>
+        <v>0.001536181558160932</v>
       </c>
       <c r="M3" t="n">
-        <v>7.13823962004873</v>
+        <v>7.126084688853369</v>
       </c>
       <c r="N3" t="n">
-        <v>96.12318737068</v>
+        <v>95.73599807123107</v>
       </c>
       <c r="O3" t="n">
-        <v>9.804243334938194</v>
+        <v>9.784477404094256</v>
       </c>
       <c r="P3" t="n">
-        <v>300.9615386182456</v>
+        <v>300.8304206355076</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25608,28 +25924,28 @@
         <v>0.0835</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002617194977749696</v>
+        <v>0.005464336347968911</v>
       </c>
       <c r="J4" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K4" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L4" t="n">
-        <v>3.71118826947292e-06</v>
+        <v>1.659188144575996e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>7.253567419148382</v>
+        <v>7.215885640615306</v>
       </c>
       <c r="N4" t="n">
-        <v>97.13173570114257</v>
+        <v>96.17262119483397</v>
       </c>
       <c r="O4" t="n">
-        <v>9.855543399586985</v>
+        <v>9.806764053184617</v>
       </c>
       <c r="P4" t="n">
-        <v>302.5586028281328</v>
+        <v>302.5301399658505</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25686,28 +26002,28 @@
         <v>0.1239</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02772193719536451</v>
+        <v>-0.02661387606296032</v>
       </c>
       <c r="J5" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K5" t="n">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006789601733758754</v>
+        <v>0.0006388390217477724</v>
       </c>
       <c r="M5" t="n">
-        <v>5.804403217473679</v>
+        <v>5.794824764703784</v>
       </c>
       <c r="N5" t="n">
-        <v>59.08371931183925</v>
+        <v>58.71196061604379</v>
       </c>
       <c r="O5" t="n">
-        <v>7.686593479028226</v>
+        <v>7.662373040778149</v>
       </c>
       <c r="P5" t="n">
-        <v>317.5059743232326</v>
+        <v>317.4950250214766</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25764,28 +26080,28 @@
         <v>0.1203</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09190345873822869</v>
+        <v>0.08081428183394816</v>
       </c>
       <c r="J6" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K6" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006224934700288509</v>
+        <v>0.004925947353846549</v>
       </c>
       <c r="M6" t="n">
-        <v>6.425860719879853</v>
+        <v>6.39169361198967</v>
       </c>
       <c r="N6" t="n">
-        <v>70.09979990250625</v>
+        <v>69.57083943789033</v>
       </c>
       <c r="O6" t="n">
-        <v>8.372562325985173</v>
+        <v>8.340913585326868</v>
       </c>
       <c r="P6" t="n">
-        <v>299.7384235462372</v>
+        <v>299.8528062221147</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25842,28 +26158,28 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1751742862109154</v>
+        <v>0.1684823248530734</v>
       </c>
       <c r="J7" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K7" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01404959017827823</v>
+        <v>0.01332967254776429</v>
       </c>
       <c r="M7" t="n">
-        <v>8.030480150846621</v>
+        <v>7.974258754518082</v>
       </c>
       <c r="N7" t="n">
-        <v>107.9615183602913</v>
+        <v>106.8249516172166</v>
       </c>
       <c r="O7" t="n">
-        <v>10.39045323170704</v>
+        <v>10.33561568641252</v>
       </c>
       <c r="P7" t="n">
-        <v>290.5571744185984</v>
+        <v>290.6283722295868</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25920,28 +26236,28 @@
         <v>0.0789</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4295620511199281</v>
+        <v>0.4171128284232352</v>
       </c>
       <c r="J8" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K8" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06721539084631989</v>
+        <v>0.06501220212663505</v>
       </c>
       <c r="M8" t="n">
-        <v>8.706131395556643</v>
+        <v>8.660356092525218</v>
       </c>
       <c r="N8" t="n">
-        <v>130.9175566569795</v>
+        <v>129.802243264112</v>
       </c>
       <c r="O8" t="n">
-        <v>11.44192102126996</v>
+        <v>11.39307874387393</v>
       </c>
       <c r="P8" t="n">
-        <v>290.3486282715471</v>
+        <v>290.4778796933082</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25998,28 +26314,28 @@
         <v>0.0837</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3614149133080189</v>
+        <v>0.3507815840526837</v>
       </c>
       <c r="J9" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K9" t="n">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05428336870698758</v>
+        <v>0.05246961751717161</v>
       </c>
       <c r="M9" t="n">
-        <v>8.578786274899016</v>
+        <v>8.523641905471747</v>
       </c>
       <c r="N9" t="n">
-        <v>115.4484882868693</v>
+        <v>114.4146070570352</v>
       </c>
       <c r="O9" t="n">
-        <v>10.74469582104907</v>
+        <v>10.69647638510155</v>
       </c>
       <c r="P9" t="n">
-        <v>299.2652135162538</v>
+        <v>299.3758323403096</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26076,28 +26392,28 @@
         <v>0.0801</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2052020131548544</v>
+        <v>0.1969851979809921</v>
       </c>
       <c r="J10" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K10" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01933851336515457</v>
+        <v>0.01828062431016919</v>
       </c>
       <c r="M10" t="n">
-        <v>8.393314621224462</v>
+        <v>8.340911639216502</v>
       </c>
       <c r="N10" t="n">
-        <v>108.911422230368</v>
+        <v>107.8472046100655</v>
       </c>
       <c r="O10" t="n">
-        <v>10.4360635409319</v>
+        <v>10.38495087181762</v>
       </c>
       <c r="P10" t="n">
-        <v>309.5635883679445</v>
+        <v>309.6489453523285</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26154,28 +26470,28 @@
         <v>0.0977</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3010757624383237</v>
+        <v>0.2897766761878988</v>
       </c>
       <c r="J11" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K11" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04404090360599655</v>
+        <v>0.04180987814967452</v>
       </c>
       <c r="M11" t="n">
-        <v>7.751515263843784</v>
+        <v>7.725771734913078</v>
       </c>
       <c r="N11" t="n">
-        <v>101.384574945503</v>
+        <v>100.6724906776582</v>
       </c>
       <c r="O11" t="n">
-        <v>10.06899076101984</v>
+        <v>10.03356819270484</v>
       </c>
       <c r="P11" t="n">
-        <v>315.7310850356778</v>
+        <v>315.8474353628838</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26232,28 +26548,28 @@
         <v>0.0864</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2303552559099624</v>
+        <v>0.2157279449696694</v>
       </c>
       <c r="J12" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K12" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02151154688458767</v>
+        <v>0.01936858545535114</v>
       </c>
       <c r="M12" t="n">
-        <v>8.848903824245793</v>
+        <v>8.800738925287234</v>
       </c>
       <c r="N12" t="n">
-        <v>125.1067968992134</v>
+        <v>123.9756177040788</v>
       </c>
       <c r="O12" t="n">
-        <v>11.18511497031717</v>
+        <v>11.1344338744311</v>
       </c>
       <c r="P12" t="n">
-        <v>324.2314460483003</v>
+        <v>324.3813217788246</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26310,28 +26626,28 @@
         <v>0.07820000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1982907365396365</v>
+        <v>0.1901037806840004</v>
       </c>
       <c r="J13" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K13" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0192760284172383</v>
+        <v>0.01809916527664657</v>
       </c>
       <c r="M13" t="n">
-        <v>7.883755269554084</v>
+        <v>7.862104029086958</v>
       </c>
       <c r="N13" t="n">
-        <v>103.9185519104898</v>
+        <v>103.3680502352535</v>
       </c>
       <c r="O13" t="n">
-        <v>10.19404492389992</v>
+        <v>10.16700792933956</v>
       </c>
       <c r="P13" t="n">
-        <v>334.3689709395172</v>
+        <v>334.4533999673911</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26388,28 +26704,28 @@
         <v>0.1707</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1891119795759658</v>
+        <v>0.1893961389657209</v>
       </c>
       <c r="J14" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K14" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01831190429603535</v>
+        <v>0.01884003273607915</v>
       </c>
       <c r="M14" t="n">
-        <v>7.466621045426078</v>
+        <v>7.407277560264204</v>
       </c>
       <c r="N14" t="n">
-        <v>98.30204423739877</v>
+        <v>97.1412789284488</v>
       </c>
       <c r="O14" t="n">
-        <v>9.914738737727726</v>
+        <v>9.856027543003764</v>
       </c>
       <c r="P14" t="n">
-        <v>349.6525247753113</v>
+        <v>349.6497349719044</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26466,28 +26782,28 @@
         <v>0.1304</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2570179268319007</v>
+        <v>0.2493296580069468</v>
       </c>
       <c r="J15" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K15" t="n">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03274113856715455</v>
+        <v>0.03131731664133197</v>
       </c>
       <c r="M15" t="n">
-        <v>7.767021284234294</v>
+        <v>7.781772170871262</v>
       </c>
       <c r="N15" t="n">
-        <v>102.0605518283213</v>
+        <v>102.0302147457162</v>
       </c>
       <c r="O15" t="n">
-        <v>10.10250225579392</v>
+        <v>10.10100068041361</v>
       </c>
       <c r="P15" t="n">
-        <v>353.5937404319059</v>
+        <v>353.6728749272498</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26538,28 +26854,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.3573498540740738</v>
+        <v>0.3540765489709941</v>
       </c>
       <c r="J16" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K16" t="n">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06812134217043075</v>
+        <v>0.06834126522053297</v>
       </c>
       <c r="M16" t="n">
-        <v>7.524007263846122</v>
+        <v>7.492718124721805</v>
       </c>
       <c r="N16" t="n">
-        <v>92.66363994314926</v>
+        <v>91.93823349034075</v>
       </c>
       <c r="O16" t="n">
-        <v>9.626195507216195</v>
+        <v>9.588442704127754</v>
       </c>
       <c r="P16" t="n">
-        <v>360.9346885293284</v>
+        <v>360.9683309877821</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26616,28 +26932,28 @@
         <v>0.1261</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4339960907556653</v>
+        <v>0.4204928518367071</v>
       </c>
       <c r="J17" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K17" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1055510343704326</v>
+        <v>0.1008566683211767</v>
       </c>
       <c r="M17" t="n">
-        <v>6.966842807139305</v>
+        <v>6.979577816605431</v>
       </c>
       <c r="N17" t="n">
-        <v>83.32975553887319</v>
+        <v>83.41371795677316</v>
       </c>
       <c r="O17" t="n">
-        <v>9.128513325776174</v>
+        <v>9.13311107765438</v>
       </c>
       <c r="P17" t="n">
-        <v>361.567797111584</v>
+        <v>361.7074864664539</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26694,28 +27010,28 @@
         <v>0.1377</v>
       </c>
       <c r="I18" t="n">
-        <v>0.352418677451301</v>
+        <v>0.3448415107772108</v>
       </c>
       <c r="J18" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K18" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05610103945114941</v>
+        <v>0.05502638526661063</v>
       </c>
       <c r="M18" t="n">
-        <v>8.115114569819106</v>
+        <v>8.078009313514062</v>
       </c>
       <c r="N18" t="n">
-        <v>108.460099619637</v>
+        <v>107.5359363722245</v>
       </c>
       <c r="O18" t="n">
-        <v>10.41441787233627</v>
+        <v>10.36995353761166</v>
       </c>
       <c r="P18" t="n">
-        <v>365.4483614753912</v>
+        <v>365.5269018617253</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26772,28 +27088,28 @@
         <v>0.1899</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4128749542321308</v>
+        <v>0.4133790934893657</v>
       </c>
       <c r="J19" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K19" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L19" t="n">
-        <v>0.07573213489768682</v>
+        <v>0.07705444774858061</v>
       </c>
       <c r="M19" t="n">
-        <v>8.529656608369978</v>
+        <v>8.519056575828227</v>
       </c>
       <c r="N19" t="n">
-        <v>105.4213797978485</v>
+        <v>105.1443945449365</v>
       </c>
       <c r="O19" t="n">
-        <v>10.26749140724493</v>
+        <v>10.2539940776722</v>
       </c>
       <c r="P19" t="n">
-        <v>362.6401639562865</v>
+        <v>362.6353574218643</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26850,28 +27166,28 @@
         <v>0.1811</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3274429408943473</v>
+        <v>0.330676787203062</v>
       </c>
       <c r="J20" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K20" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05491145572636824</v>
+        <v>0.05731964589803351</v>
       </c>
       <c r="M20" t="n">
-        <v>7.365617198764794</v>
+        <v>7.302296994449078</v>
       </c>
       <c r="N20" t="n">
-        <v>95.85261109661033</v>
+        <v>94.6660278402568</v>
       </c>
       <c r="O20" t="n">
-        <v>9.790434673527541</v>
+        <v>9.729646850747297</v>
       </c>
       <c r="P20" t="n">
-        <v>352.6260415014524</v>
+        <v>352.5926244426476</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26909,7 +27225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U334"/>
+  <dimension ref="A1:U338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59255,6 +59571,434 @@
         </is>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-36.79225968440789,175.72839085846408</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-36.79260451576644,175.7275871947389</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-36.79301524391851,175.72682884072108</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-36.793630690265026,175.72617275804433</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-36.7942937473544,175.7255600304501</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-36.794945802246374,175.72517612056</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>-36.79563137712961,175.72488380583187</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>-36.79632851733917,175.72463201930537</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>-36.79702312193672,175.7243760455614</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>-36.797738153191105,175.7241623674091</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>-36.798439623274554,175.72391737873915</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>-36.79916630377821,175.72382001015313</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>-36.79988767753841,175.72369608469467</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>-36.80061127181128,175.72367082595187</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>-36.801326488365774,175.72366195163013</t>
+        </is>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>-36.802038805513504,175.72368787365176</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>-36.802740411211865,175.72385537210536</t>
+        </is>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>-36.803434269006864,175.72395596982244</t>
+        </is>
+      </c>
+      <c r="T335" t="inlineStr">
+        <is>
+          <t>-36.80415420026848,175.72404277473018</t>
+        </is>
+      </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-36.79227387291326,175.72840474110774</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-36.79254462641296,175.72752859691283</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-36.79299061268129,175.726803381846</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-36.7936177171123,175.7261496349548</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-36.794287468737444,175.72553999215756</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-36.79492951697227,175.72512414584284</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-36.79561710340351,175.72483704045436</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>-36.796313812410695,175.72458253249656</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>-36.797006151094024,175.724317383521</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>-36.79772109800322,175.72409511024645</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>-36.79843237868593,175.72388535373392</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>-36.79915864382132,175.72378492345538</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>-36.7998939419285,175.72374119933835</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>-36.80061719951813,175.72375617009195</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>-36.80132759229143,175.7237551424917</t>
+        </is>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>-36.80203412505774,175.72378339212764</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>-36.80274918196609,175.7237649313106</t>
+        </is>
+      </c>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>-36.803423353993836,175.72401491830814</t>
+        </is>
+      </c>
+      <c r="T336" t="inlineStr">
+        <is>
+          <t>-36.80415167640596,175.7240538151664</t>
+        </is>
+      </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-36.792224956440286,175.7283568791571</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-36.792508853245074,175.727493595261</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-36.79296893045811,175.72678097109414</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-36.79358768692026,175.72609610979995</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-36.794274715285894,175.72549928938537</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-36.7949264648433,175.72511440493435</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-36.79560543692406,175.7247988173253</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>-36.796306590024685,175.7245582268801</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>-36.797004870438855,175.72431295676637</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>-36.79770580837547,175.7240348157287</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>-36.798426784654055,175.7238606251141</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>-36.799145592875476,175.72372514327338</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>-36.79988230867291,175.72365741951046</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>-36.8006052813257,175.72358457886975</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>-36.80132624496588,175.72364140520293</t>
+        </is>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>-36.80203903222929,175.72368324680878</t>
+        </is>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>-36.80275113924553,175.72374474846515</t>
+        </is>
+      </c>
+      <c r="S337" t="inlineStr">
+        <is>
+          <t>-36.80343703144389,175.72394105075833</t>
+        </is>
+      </c>
+      <c r="T337" t="inlineStr">
+        <is>
+          <t>-36.804160257913416,175.72401627602233</t>
+        </is>
+      </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>-36.792173582489916,175.72830661279613</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>-36.79247060237106,175.72745616938877</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-36.79291554130287,175.72672578812433</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>-36.79355543314962,175.7260386214847</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>-36.794261013484586,175.72545556001097</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>-36.79490591745336,175.7250488277656</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>-36.79558684358871,175.72473789970343</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>-36.7962881281672,175.72449609698083</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>-36.79698591323764,175.72424742876848</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>-36.79769808945185,175.7240043762745</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>-36.79841533638628,175.72381001771646</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>-36.79912018204559,175.72360874879496</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>-36.79988067085985,175.7236456244226</t>
+        </is>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>-36.80059711750494,175.7234670430132</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>-36.80132525519144,175.72355785719836</t>
+        </is>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>-36.80204633973896,175.72353411229798</t>
+        </is>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>-36.80275812849671,175.72367267722566</t>
+        </is>
+      </c>
+      <c r="S338" t="inlineStr">
+        <is>
+          <t>-36.80347282168202,175.7237477578007</t>
+        </is>
+      </c>
+      <c r="T338" t="inlineStr">
+        <is>
+          <t>-36.80416971669566,175.72397489923824</t>
+        </is>
+      </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0175/nzd0175.xlsx
+++ b/data/nzd0175/nzd0175.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U338"/>
+  <dimension ref="A1:U339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22096,6 +22096,75 @@
         </is>
       </c>
     </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>304.9742857142857</v>
+      </c>
+      <c r="C339" t="n">
+        <v>293.52</v>
+      </c>
+      <c r="D339" t="n">
+        <v>294.2542857142857</v>
+      </c>
+      <c r="E339" t="n">
+        <v>307.6728571428571</v>
+      </c>
+      <c r="F339" t="n">
+        <v>294.26</v>
+      </c>
+      <c r="G339" t="n">
+        <v>292.1</v>
+      </c>
+      <c r="H339" t="n">
+        <v>298.0242857142857</v>
+      </c>
+      <c r="I339" t="n">
+        <v>300.89</v>
+      </c>
+      <c r="J339" t="n">
+        <v>308.6542857142857</v>
+      </c>
+      <c r="K339" t="n">
+        <v>314.8123529411765</v>
+      </c>
+      <c r="L339" t="n">
+        <v>325.53</v>
+      </c>
+      <c r="M339" t="n">
+        <v>341.0342857142857</v>
+      </c>
+      <c r="N339" t="n">
+        <v>352.4471428571428</v>
+      </c>
+      <c r="O339" t="n">
+        <v>364.64</v>
+      </c>
+      <c r="P339" t="n">
+        <v>375.4597674418605</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>370.9728571428572</v>
+      </c>
+      <c r="R339" t="n">
+        <v>367.6895652173913</v>
+      </c>
+      <c r="S339" t="n">
+        <v>367.08</v>
+      </c>
+      <c r="T339" t="n">
+        <v>363.4284615384615</v>
+      </c>
+      <c r="U339" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22107,7 +22176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B348"/>
+  <dimension ref="A1:B349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25595,6 +25664,16 @@
       </c>
       <c r="B348" t="n">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -25768,28 +25847,28 @@
         <v>0.08459999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3726152894595864</v>
+        <v>0.3666070479498311</v>
       </c>
       <c r="J2" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K2" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07362125325976698</v>
+        <v>0.0717639880024411</v>
       </c>
       <c r="M2" t="n">
-        <v>7.188969414410127</v>
+        <v>7.192952010607674</v>
       </c>
       <c r="N2" t="n">
-        <v>92.46529441005438</v>
+        <v>92.38211201359569</v>
       </c>
       <c r="O2" t="n">
-        <v>9.615887603859271</v>
+        <v>9.611561372305527</v>
       </c>
       <c r="P2" t="n">
-        <v>303.7262242200521</v>
+        <v>303.7875701689922</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25846,28 +25925,28 @@
         <v>0.0902</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05260144391947741</v>
+        <v>-0.05680242539634536</v>
       </c>
       <c r="J3" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K3" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001536181558160932</v>
+        <v>0.001802010502371387</v>
       </c>
       <c r="M3" t="n">
-        <v>7.126084688853369</v>
+        <v>7.123192445700611</v>
       </c>
       <c r="N3" t="n">
-        <v>95.73599807123107</v>
+        <v>95.51921430311059</v>
       </c>
       <c r="O3" t="n">
-        <v>9.784477404094256</v>
+        <v>9.773393182672566</v>
       </c>
       <c r="P3" t="n">
-        <v>300.8304206355076</v>
+        <v>300.8732769411197</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25924,28 +26003,28 @@
         <v>0.0835</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005464336347968911</v>
+        <v>-0.0003518001709346642</v>
       </c>
       <c r="J4" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K4" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L4" t="n">
-        <v>1.659188144575996e-05</v>
+        <v>6.910115790681459e-08</v>
       </c>
       <c r="M4" t="n">
-        <v>7.215885640615306</v>
+        <v>7.221363902315987</v>
       </c>
       <c r="N4" t="n">
-        <v>96.17262119483397</v>
+        <v>96.08074727250947</v>
       </c>
       <c r="O4" t="n">
-        <v>9.806764053184617</v>
+        <v>9.802078722011442</v>
       </c>
       <c r="P4" t="n">
-        <v>302.5301399658505</v>
+        <v>302.5894655937012</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26002,28 +26081,28 @@
         <v>0.1239</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02661387606296032</v>
+        <v>-0.03270275740694165</v>
       </c>
       <c r="J5" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K5" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006388390217477724</v>
+        <v>0.0009663661702923321</v>
       </c>
       <c r="M5" t="n">
-        <v>5.794824764703784</v>
+        <v>5.806049525511102</v>
       </c>
       <c r="N5" t="n">
-        <v>58.71196061604379</v>
+        <v>58.79343540540336</v>
       </c>
       <c r="O5" t="n">
-        <v>7.662373040778149</v>
+        <v>7.667687748298268</v>
       </c>
       <c r="P5" t="n">
-        <v>317.4950250214766</v>
+        <v>317.5578481434564</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26080,28 +26159,28 @@
         <v>0.1203</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08081428183394816</v>
+        <v>0.07570250079065034</v>
       </c>
       <c r="J6" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K6" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004925947353846549</v>
+        <v>0.004342711403886645</v>
       </c>
       <c r="M6" t="n">
-        <v>6.39169361198967</v>
+        <v>6.393447920074678</v>
       </c>
       <c r="N6" t="n">
-        <v>69.57083943789033</v>
+        <v>69.53274385479781</v>
       </c>
       <c r="O6" t="n">
-        <v>8.340913585326868</v>
+        <v>8.338629614918618</v>
       </c>
       <c r="P6" t="n">
-        <v>299.8528062221147</v>
+        <v>299.9057504220321</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26158,28 +26237,28 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1684823248530734</v>
+        <v>0.1665386558739491</v>
       </c>
       <c r="J7" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K7" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01332967254776429</v>
+        <v>0.01311328182125604</v>
       </c>
       <c r="M7" t="n">
-        <v>7.974258754518082</v>
+        <v>7.955989717531465</v>
       </c>
       <c r="N7" t="n">
-        <v>106.8249516172166</v>
+        <v>106.4895085935473</v>
       </c>
       <c r="O7" t="n">
-        <v>10.33561568641252</v>
+        <v>10.31937539745247</v>
       </c>
       <c r="P7" t="n">
-        <v>290.6283722295868</v>
+        <v>290.6490903371656</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26236,28 +26315,28 @@
         <v>0.0789</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4171128284232352</v>
+        <v>0.4149732042076569</v>
       </c>
       <c r="J8" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K8" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06501220212663505</v>
+        <v>0.06479345021025473</v>
       </c>
       <c r="M8" t="n">
-        <v>8.660356092525218</v>
+        <v>8.641421541686682</v>
       </c>
       <c r="N8" t="n">
-        <v>129.802243264112</v>
+        <v>129.4052042057742</v>
       </c>
       <c r="O8" t="n">
-        <v>11.39307874387393</v>
+        <v>11.37564082615895</v>
       </c>
       <c r="P8" t="n">
-        <v>290.4778796933082</v>
+        <v>290.5001715829143</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26314,28 +26393,28 @@
         <v>0.0837</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3507815840526837</v>
+        <v>0.3457717301988957</v>
       </c>
       <c r="J9" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K9" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05246961751717161</v>
+        <v>0.0513174706840166</v>
       </c>
       <c r="M9" t="n">
-        <v>8.523641905471747</v>
+        <v>8.515963278126863</v>
       </c>
       <c r="N9" t="n">
-        <v>114.4146070570352</v>
+        <v>114.2235509327587</v>
       </c>
       <c r="O9" t="n">
-        <v>10.69647638510155</v>
+        <v>10.68754185642137</v>
       </c>
       <c r="P9" t="n">
-        <v>299.3758323403096</v>
+        <v>299.4281199503455</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26392,28 +26471,28 @@
         <v>0.0801</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1969851979809921</v>
+        <v>0.1929841183785301</v>
       </c>
       <c r="J10" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K10" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01828062431016919</v>
+        <v>0.01765857254898695</v>
       </c>
       <c r="M10" t="n">
-        <v>8.340911639216502</v>
+        <v>8.332593097496098</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8472046100655</v>
+        <v>107.6136388032432</v>
       </c>
       <c r="O10" t="n">
-        <v>10.38495087181762</v>
+        <v>10.37369937887363</v>
       </c>
       <c r="P10" t="n">
-        <v>309.6489453523285</v>
+        <v>309.690625103647</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26470,28 +26549,28 @@
         <v>0.0977</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2897766761878988</v>
+        <v>0.2840257543983568</v>
       </c>
       <c r="J11" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K11" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04180987814967452</v>
+        <v>0.04041556089303477</v>
       </c>
       <c r="M11" t="n">
-        <v>7.725771734913078</v>
+        <v>7.726478662713012</v>
       </c>
       <c r="N11" t="n">
-        <v>100.6724906776582</v>
+        <v>100.574944813245</v>
       </c>
       <c r="O11" t="n">
-        <v>10.03356819270484</v>
+        <v>10.02870603882899</v>
       </c>
       <c r="P11" t="n">
-        <v>315.8474353628838</v>
+        <v>315.9068183061248</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26548,28 +26627,28 @@
         <v>0.0864</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2157279449696694</v>
+        <v>0.2127578170690087</v>
       </c>
       <c r="J12" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K12" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01936858545535114</v>
+        <v>0.01897083382281861</v>
       </c>
       <c r="M12" t="n">
-        <v>8.800738925287234</v>
+        <v>8.785396041931397</v>
       </c>
       <c r="N12" t="n">
-        <v>123.9756177040788</v>
+        <v>123.6221577322674</v>
       </c>
       <c r="O12" t="n">
-        <v>11.1344338744311</v>
+        <v>11.11855016323025</v>
       </c>
       <c r="P12" t="n">
-        <v>324.3813217788246</v>
+        <v>324.4118964529831</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26626,28 +26705,28 @@
         <v>0.07820000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1901037806840004</v>
+        <v>0.1912332529595402</v>
       </c>
       <c r="J13" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K13" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01809916527664657</v>
+        <v>0.01843736630261505</v>
       </c>
       <c r="M13" t="n">
-        <v>7.862104029086958</v>
+        <v>7.840786443834625</v>
       </c>
       <c r="N13" t="n">
-        <v>103.3680502352535</v>
+        <v>103.0235209276173</v>
       </c>
       <c r="O13" t="n">
-        <v>10.16700792933956</v>
+        <v>10.15005029187626</v>
       </c>
       <c r="P13" t="n">
-        <v>334.4533999673911</v>
+        <v>334.4417493517879</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26704,28 +26783,28 @@
         <v>0.1707</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1893961389657209</v>
+        <v>0.1880171420021905</v>
       </c>
       <c r="J14" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K14" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01884003273607915</v>
+        <v>0.01869408055631827</v>
       </c>
       <c r="M14" t="n">
-        <v>7.407277560264204</v>
+        <v>7.390556393279287</v>
       </c>
       <c r="N14" t="n">
-        <v>97.1412789284488</v>
+        <v>96.8319351263487</v>
       </c>
       <c r="O14" t="n">
-        <v>9.856027543003764</v>
+        <v>9.840321901561387</v>
       </c>
       <c r="P14" t="n">
-        <v>349.6497349719044</v>
+        <v>349.6641468957229</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26782,28 +26861,28 @@
         <v>0.1304</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2493296580069468</v>
+        <v>0.2523558158064831</v>
       </c>
       <c r="J15" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K15" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03131731664133197</v>
+        <v>0.03225477317917336</v>
       </c>
       <c r="M15" t="n">
-        <v>7.781772170871262</v>
+        <v>7.768215008299522</v>
       </c>
       <c r="N15" t="n">
-        <v>102.0302147457162</v>
+        <v>101.7512556036901</v>
       </c>
       <c r="O15" t="n">
-        <v>10.10100068041361</v>
+        <v>10.08718273868825</v>
       </c>
       <c r="P15" t="n">
-        <v>353.6728749272498</v>
+        <v>353.6417376854434</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26854,28 +26933,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.3540765489709941</v>
+        <v>0.357649246567397</v>
       </c>
       <c r="J16" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K16" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06834126522053297</v>
+        <v>0.07001317246683758</v>
       </c>
       <c r="M16" t="n">
-        <v>7.492718124721805</v>
+        <v>7.482472765319145</v>
       </c>
       <c r="N16" t="n">
-        <v>91.93823349034075</v>
+        <v>91.71650938105462</v>
       </c>
       <c r="O16" t="n">
-        <v>9.588442704127754</v>
+        <v>9.576873674694401</v>
       </c>
       <c r="P16" t="n">
-        <v>360.9683309877821</v>
+        <v>360.9316819058974</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26932,28 +27011,28 @@
         <v>0.1261</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4204928518367071</v>
+        <v>0.4194557863297429</v>
       </c>
       <c r="J17" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K17" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1008566683211767</v>
+        <v>0.1010096997993852</v>
       </c>
       <c r="M17" t="n">
-        <v>6.979577816605431</v>
+        <v>6.961758417929011</v>
       </c>
       <c r="N17" t="n">
-        <v>83.41371795677316</v>
+        <v>83.1413240985891</v>
       </c>
       <c r="O17" t="n">
-        <v>9.13311107765438</v>
+        <v>9.118186447895717</v>
       </c>
       <c r="P17" t="n">
-        <v>361.7074864664539</v>
+        <v>361.7182575487316</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27010,28 +27089,28 @@
         <v>0.1377</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3448415107772108</v>
+        <v>0.3402785988658439</v>
       </c>
       <c r="J18" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K18" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05502638526661063</v>
+        <v>0.05394212030217593</v>
       </c>
       <c r="M18" t="n">
-        <v>8.078009313514062</v>
+        <v>8.07095491185934</v>
       </c>
       <c r="N18" t="n">
-        <v>107.5359363722245</v>
+        <v>107.3194922981323</v>
       </c>
       <c r="O18" t="n">
-        <v>10.36995353761166</v>
+        <v>10.35951216506512</v>
       </c>
       <c r="P18" t="n">
-        <v>365.5269018617253</v>
+        <v>365.5742399643614</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27088,28 +27167,28 @@
         <v>0.1899</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4133790934893657</v>
+        <v>0.4092494188706192</v>
       </c>
       <c r="J19" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K19" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L19" t="n">
-        <v>0.07705444774858061</v>
+        <v>0.07602656159790422</v>
       </c>
       <c r="M19" t="n">
-        <v>8.519056575828227</v>
+        <v>8.515082228368543</v>
       </c>
       <c r="N19" t="n">
-        <v>105.1443945449365</v>
+        <v>104.9197460844462</v>
       </c>
       <c r="O19" t="n">
-        <v>10.2539940776722</v>
+        <v>10.243034027301</v>
       </c>
       <c r="P19" t="n">
-        <v>362.6353574218643</v>
+        <v>362.6791169437563</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27166,28 +27245,28 @@
         <v>0.1811</v>
       </c>
       <c r="I20" t="n">
-        <v>0.330676787203062</v>
+        <v>0.3321911797489411</v>
       </c>
       <c r="J20" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K20" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05731964589803351</v>
+        <v>0.05817392337130511</v>
       </c>
       <c r="M20" t="n">
-        <v>7.302296994449078</v>
+        <v>7.284720171798834</v>
       </c>
       <c r="N20" t="n">
-        <v>94.6660278402568</v>
+        <v>94.35970959699127</v>
       </c>
       <c r="O20" t="n">
-        <v>9.729646850747297</v>
+        <v>9.713892607857638</v>
       </c>
       <c r="P20" t="n">
-        <v>352.5926244426476</v>
+        <v>352.5767833887862</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27225,7 +27304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U338"/>
+  <dimension ref="A1:U339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59999,6 +60078,113 @@
         </is>
       </c>
     </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>-36.79210571422782,175.72824020787124</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-36.79245849706388,175.72744432518166</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>-36.792907248415695,175.72671721661527</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>-36.793548571059105,175.72602639067895</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>-36.79426719401279,175.72547528519235</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>-36.79492530939426,175.72511071730486</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>-36.7956144048178,175.72482819901728</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>-36.79629780659726,175.7245286678941</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>-36.796995648845424,175.72428108112575</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>-36.79770362846556,175.72402621928438</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>-36.79843053298123,175.72387719472673</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>-36.79915846850529,175.72378412041485</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>-36.79988280351995,175.72366098326705</t>
+        </is>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>-36.800613367514984,175.7237009987364</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>-36.80132726476544,175.7237274928568</t>
+        </is>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>-36.80203769515141,175.7237105340007</t>
+        </is>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>-36.80275406859343,175.72371454188988</t>
+        </is>
+      </c>
+      <c r="S339" t="inlineStr">
+        <is>
+          <t>-36.80345479184898,175.72384513206404</t>
+        </is>
+      </c>
+      <c r="T339" t="inlineStr">
+        <is>
+          <t>-36.80415613485012,175.72403431205294</t>
+        </is>
+      </c>
+      <c r="U339" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0175/nzd0175.xlsx
+++ b/data/nzd0175/nzd0175.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U339"/>
+  <dimension ref="A1:U341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22165,6 +22165,144 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>314.0242857142857</v>
+      </c>
+      <c r="C340" t="n">
+        <v>302.06</v>
+      </c>
+      <c r="D340" t="n">
+        <v>302.8742857142857</v>
+      </c>
+      <c r="E340" t="n">
+        <v>319.4728571428572</v>
+      </c>
+      <c r="F340" t="n">
+        <v>299.04</v>
+      </c>
+      <c r="G340" t="n">
+        <v>293.58</v>
+      </c>
+      <c r="H340" t="n">
+        <v>296.0442857142857</v>
+      </c>
+      <c r="I340" t="n">
+        <v>307.81</v>
+      </c>
+      <c r="J340" t="n">
+        <v>315.0442857142857</v>
+      </c>
+      <c r="K340" t="n">
+        <v>324.1635294117647</v>
+      </c>
+      <c r="L340" t="n">
+        <v>334.09</v>
+      </c>
+      <c r="M340" t="n">
+        <v>349.3142857142857</v>
+      </c>
+      <c r="N340" t="n">
+        <v>363.0371428571429</v>
+      </c>
+      <c r="O340" t="n">
+        <v>352.2881818181818</v>
+      </c>
+      <c r="P340" t="n">
+        <v>377.5967441860465</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>375.0828571428572</v>
+      </c>
+      <c r="R340" t="n">
+        <v>371.0617391304348</v>
+      </c>
+      <c r="S340" t="n">
+        <v>362.7</v>
+      </c>
+      <c r="T340" t="n">
+        <v>364.4692307692308</v>
+      </c>
+      <c r="U340" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>309.3942857142857</v>
+      </c>
+      <c r="C341" t="n">
+        <v>295.4333333333333</v>
+      </c>
+      <c r="D341" t="n">
+        <v>294.8142857142857</v>
+      </c>
+      <c r="E341" t="n">
+        <v>318.7195238095238</v>
+      </c>
+      <c r="F341" t="n">
+        <v>308.51</v>
+      </c>
+      <c r="G341" t="n">
+        <v>306.4833333333333</v>
+      </c>
+      <c r="H341" t="n">
+        <v>311.9442857142857</v>
+      </c>
+      <c r="I341" t="n">
+        <v>322.3333333333333</v>
+      </c>
+      <c r="J341" t="n">
+        <v>323.8542857142857</v>
+      </c>
+      <c r="K341" t="n">
+        <v>333.8529411764706</v>
+      </c>
+      <c r="L341" t="n">
+        <v>334.6533333333333</v>
+      </c>
+      <c r="M341" t="n">
+        <v>347.5442857142857</v>
+      </c>
+      <c r="N341" t="n">
+        <v>359.5971428571428</v>
+      </c>
+      <c r="O341" t="n">
+        <v>363.9709090909091</v>
+      </c>
+      <c r="P341" t="n">
+        <v>373.503488372093</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>371.0795238095238</v>
+      </c>
+      <c r="R341" t="n">
+        <v>387.0378260869565</v>
+      </c>
+      <c r="S341" t="n">
+        <v>384.3966666666667</v>
+      </c>
+      <c r="T341" t="n">
+        <v>375.15</v>
+      </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22176,7 +22314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B349"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25674,6 +25812,26 @@
       </c>
       <c r="B349" t="n">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -25847,28 +26005,28 @@
         <v>0.08459999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3666070479498311</v>
+        <v>0.3643955973823642</v>
       </c>
       <c r="J2" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K2" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0717639880024411</v>
+        <v>0.07192644312053054</v>
       </c>
       <c r="M2" t="n">
-        <v>7.192952010607674</v>
+        <v>7.158031225573517</v>
       </c>
       <c r="N2" t="n">
-        <v>92.38211201359569</v>
+        <v>91.77776932211096</v>
       </c>
       <c r="O2" t="n">
-        <v>9.611561372305527</v>
+        <v>9.580071467484517</v>
       </c>
       <c r="P2" t="n">
-        <v>303.7875701689922</v>
+        <v>303.8102238739533</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25925,28 +26083,28 @@
         <v>0.0902</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05680242539634536</v>
+        <v>-0.05771872049581322</v>
       </c>
       <c r="J3" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K3" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001802010502371387</v>
+        <v>0.001886678596858204</v>
       </c>
       <c r="M3" t="n">
-        <v>7.123192445700611</v>
+        <v>7.096505576401091</v>
       </c>
       <c r="N3" t="n">
-        <v>95.51921430311059</v>
+        <v>94.92259458625107</v>
       </c>
       <c r="O3" t="n">
-        <v>9.773393182672566</v>
+        <v>9.742822721688569</v>
       </c>
       <c r="P3" t="n">
-        <v>300.8732769411197</v>
+        <v>300.8826728464134</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26003,28 +26161,28 @@
         <v>0.0835</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0003518001709346642</v>
+        <v>-0.005437189134157475</v>
       </c>
       <c r="J4" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K4" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L4" t="n">
-        <v>6.910115790681459e-08</v>
+        <v>1.671006492010019e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>7.221363902315987</v>
+        <v>7.20029318758135</v>
       </c>
       <c r="N4" t="n">
-        <v>96.08074727250947</v>
+        <v>95.61795635625772</v>
       </c>
       <c r="O4" t="n">
-        <v>9.802078722011442</v>
+        <v>9.778443452628732</v>
       </c>
       <c r="P4" t="n">
-        <v>302.5894655937012</v>
+        <v>302.6415009229557</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26081,28 +26239,28 @@
         <v>0.1239</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03270275740694165</v>
+        <v>-0.02957273240073351</v>
       </c>
       <c r="J5" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K5" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0009663661702923321</v>
+        <v>0.0008008173364805193</v>
       </c>
       <c r="M5" t="n">
-        <v>5.806049525511102</v>
+        <v>5.782591497838366</v>
       </c>
       <c r="N5" t="n">
-        <v>58.79343540540336</v>
+        <v>58.43356215625467</v>
       </c>
       <c r="O5" t="n">
-        <v>7.667687748298268</v>
+        <v>7.644184858848893</v>
       </c>
       <c r="P5" t="n">
-        <v>317.5578481434564</v>
+        <v>317.5254721872932</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26159,28 +26317,28 @@
         <v>0.1203</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07570250079065034</v>
+        <v>0.07821354141620672</v>
       </c>
       <c r="J6" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K6" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004342711403886645</v>
+        <v>0.004686197526132641</v>
       </c>
       <c r="M6" t="n">
-        <v>6.393447920074678</v>
+        <v>6.383512503767371</v>
       </c>
       <c r="N6" t="n">
-        <v>69.53274385479781</v>
+        <v>69.2385150720813</v>
       </c>
       <c r="O6" t="n">
-        <v>8.338629614918618</v>
+        <v>8.320968397493244</v>
       </c>
       <c r="P6" t="n">
-        <v>299.9057504220321</v>
+        <v>299.8796414791225</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26237,28 +26395,28 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1665386558739491</v>
+        <v>0.1732950387090686</v>
       </c>
       <c r="J7" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K7" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01311328182125604</v>
+        <v>0.01431513104077864</v>
       </c>
       <c r="M7" t="n">
-        <v>7.955989717531465</v>
+        <v>7.949045974876689</v>
       </c>
       <c r="N7" t="n">
-        <v>106.4895085935473</v>
+        <v>106.2214272609317</v>
       </c>
       <c r="O7" t="n">
-        <v>10.31937539745247</v>
+        <v>10.30637798942634</v>
       </c>
       <c r="P7" t="n">
-        <v>290.6490903371656</v>
+        <v>290.5768418791026</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26315,28 +26473,28 @@
         <v>0.0789</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4149732042076569</v>
+        <v>0.4185855148272818</v>
       </c>
       <c r="J8" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K8" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06479345021025473</v>
+        <v>0.06647823290765653</v>
       </c>
       <c r="M8" t="n">
-        <v>8.641421541686682</v>
+        <v>8.638295902698857</v>
       </c>
       <c r="N8" t="n">
-        <v>129.4052042057742</v>
+        <v>129.0168434262213</v>
       </c>
       <c r="O8" t="n">
-        <v>11.37564082615895</v>
+        <v>11.35855815789228</v>
       </c>
       <c r="P8" t="n">
-        <v>290.5001715829143</v>
+        <v>290.4623862874735</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26393,28 +26551,28 @@
         <v>0.0837</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3457717301988957</v>
+        <v>0.3545407664807634</v>
       </c>
       <c r="J9" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K9" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0513174706840166</v>
+        <v>0.05423396940155611</v>
       </c>
       <c r="M9" t="n">
-        <v>8.515963278126863</v>
+        <v>8.51554061345256</v>
       </c>
       <c r="N9" t="n">
-        <v>114.2235509327587</v>
+        <v>114.1083809000293</v>
       </c>
       <c r="O9" t="n">
-        <v>10.68754185642137</v>
+        <v>10.68215244695699</v>
       </c>
       <c r="P9" t="n">
-        <v>299.4281199503455</v>
+        <v>299.33632127778</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26471,28 +26629,28 @@
         <v>0.0801</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1929841183785301</v>
+        <v>0.1991663121613347</v>
       </c>
       <c r="J10" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K10" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01765857254898695</v>
+        <v>0.01899295154738734</v>
       </c>
       <c r="M10" t="n">
-        <v>8.332593097496098</v>
+        <v>8.310164072992436</v>
       </c>
       <c r="N10" t="n">
-        <v>107.6136388032432</v>
+        <v>107.1837902442222</v>
       </c>
       <c r="O10" t="n">
-        <v>10.37369937887363</v>
+        <v>10.35296045796671</v>
       </c>
       <c r="P10" t="n">
-        <v>309.690625103647</v>
+        <v>309.6260332230609</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26549,28 +26707,28 @@
         <v>0.0977</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2840257543983568</v>
+        <v>0.2916778310219718</v>
       </c>
       <c r="J11" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K11" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04041556089303477</v>
+        <v>0.04295331958688664</v>
       </c>
       <c r="M11" t="n">
-        <v>7.726478662713012</v>
+        <v>7.715249019828289</v>
       </c>
       <c r="N11" t="n">
-        <v>100.574944813245</v>
+        <v>100.2746805319414</v>
       </c>
       <c r="O11" t="n">
-        <v>10.02870603882899</v>
+        <v>10.01372460835335</v>
       </c>
       <c r="P11" t="n">
-        <v>315.9068183061248</v>
+        <v>315.8275716627293</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26627,28 +26785,28 @@
         <v>0.0864</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2127578170690087</v>
+        <v>0.2186486792131285</v>
       </c>
       <c r="J12" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K12" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01897083382281861</v>
+        <v>0.02027098806394656</v>
       </c>
       <c r="M12" t="n">
-        <v>8.785396041931397</v>
+        <v>8.756798482846973</v>
       </c>
       <c r="N12" t="n">
-        <v>123.6221577322674</v>
+        <v>122.9234038011593</v>
       </c>
       <c r="O12" t="n">
-        <v>11.11855016323025</v>
+        <v>11.08708274530137</v>
       </c>
       <c r="P12" t="n">
-        <v>324.4118964529831</v>
+        <v>324.3510998761892</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26705,28 +26863,28 @@
         <v>0.07820000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1912332529595402</v>
+        <v>0.2032558646616242</v>
       </c>
       <c r="J13" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K13" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01843736630261505</v>
+        <v>0.02095660466145244</v>
       </c>
       <c r="M13" t="n">
-        <v>7.840786443834625</v>
+        <v>7.846435047503654</v>
       </c>
       <c r="N13" t="n">
-        <v>103.0235209276173</v>
+        <v>102.8723269779958</v>
       </c>
       <c r="O13" t="n">
-        <v>10.15005029187626</v>
+        <v>10.14259961637034</v>
       </c>
       <c r="P13" t="n">
-        <v>334.4417493517879</v>
+        <v>334.3174233079771</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26783,28 +26941,28 @@
         <v>0.1707</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1880171420021905</v>
+        <v>0.1968246352573096</v>
       </c>
       <c r="J14" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K14" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01869408055631827</v>
+        <v>0.02065599720311617</v>
       </c>
       <c r="M14" t="n">
-        <v>7.390556393279287</v>
+        <v>7.37941408679696</v>
       </c>
       <c r="N14" t="n">
-        <v>96.8319351263487</v>
+        <v>96.50930312016028</v>
       </c>
       <c r="O14" t="n">
-        <v>9.840321901561387</v>
+        <v>9.823914857131056</v>
       </c>
       <c r="P14" t="n">
-        <v>349.6641468957229</v>
+        <v>349.5718763335467</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26861,28 +27019,28 @@
         <v>0.1304</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2523558158064831</v>
+        <v>0.2496757597079466</v>
       </c>
       <c r="J15" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K15" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03225477317917336</v>
+        <v>0.03194339069192076</v>
       </c>
       <c r="M15" t="n">
-        <v>7.768215008299522</v>
+        <v>7.757287433033126</v>
       </c>
       <c r="N15" t="n">
-        <v>101.7512556036901</v>
+        <v>101.3202420404326</v>
       </c>
       <c r="O15" t="n">
-        <v>10.08718273868825</v>
+        <v>10.06579564865255</v>
       </c>
       <c r="P15" t="n">
-        <v>353.6417376854434</v>
+        <v>353.6693436295454</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26933,28 +27091,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.357649246567397</v>
+        <v>0.3647021698207552</v>
       </c>
       <c r="J16" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K16" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07001317246683758</v>
+        <v>0.07336553945854063</v>
       </c>
       <c r="M16" t="n">
-        <v>7.482472765319145</v>
+        <v>7.461630114104541</v>
       </c>
       <c r="N16" t="n">
-        <v>91.71650938105462</v>
+        <v>91.30586329659717</v>
       </c>
       <c r="O16" t="n">
-        <v>9.576873674694401</v>
+        <v>9.555410158470288</v>
       </c>
       <c r="P16" t="n">
-        <v>360.9316819058974</v>
+        <v>360.8591537705153</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27011,28 +27169,28 @@
         <v>0.1261</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4194557863297429</v>
+        <v>0.420104965783552</v>
       </c>
       <c r="J17" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K17" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1010096997993852</v>
+        <v>0.1024786557805115</v>
       </c>
       <c r="M17" t="n">
-        <v>6.961758417929011</v>
+        <v>6.928414919900277</v>
       </c>
       <c r="N17" t="n">
-        <v>83.1413240985891</v>
+        <v>82.61381182464751</v>
       </c>
       <c r="O17" t="n">
-        <v>9.118186447895717</v>
+        <v>9.089214037783877</v>
       </c>
       <c r="P17" t="n">
-        <v>361.7182575487316</v>
+        <v>361.711511615714</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27089,28 +27247,28 @@
         <v>0.1377</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3402785988658439</v>
+        <v>0.3465129062487861</v>
       </c>
       <c r="J18" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K18" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05394212030217593</v>
+        <v>0.05627360646421753</v>
       </c>
       <c r="M18" t="n">
-        <v>8.07095491185934</v>
+        <v>8.073684863344887</v>
       </c>
       <c r="N18" t="n">
-        <v>107.3194922981323</v>
+        <v>107.1668160870595</v>
       </c>
       <c r="O18" t="n">
-        <v>10.35951216506512</v>
+        <v>10.35214065239936</v>
       </c>
       <c r="P18" t="n">
-        <v>365.5742399643614</v>
+        <v>365.509335692063</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27167,28 +27325,28 @@
         <v>0.1899</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4092494188706192</v>
+        <v>0.4096286479192732</v>
       </c>
       <c r="J19" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K19" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L19" t="n">
-        <v>0.07602656159790422</v>
+        <v>0.07657243716472573</v>
       </c>
       <c r="M19" t="n">
-        <v>8.515082228368543</v>
+        <v>8.53032801571206</v>
       </c>
       <c r="N19" t="n">
-        <v>104.9197460844462</v>
+        <v>105.0049992451695</v>
       </c>
       <c r="O19" t="n">
-        <v>10.243034027301</v>
+        <v>10.24719470124236</v>
       </c>
       <c r="P19" t="n">
-        <v>362.6791169437563</v>
+        <v>362.6750097719054</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27245,28 +27403,28 @@
         <v>0.1811</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3321911797489411</v>
+        <v>0.3434205274005749</v>
       </c>
       <c r="J20" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K20" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05817392337130511</v>
+        <v>0.06227684613947537</v>
       </c>
       <c r="M20" t="n">
-        <v>7.284720171798834</v>
+        <v>7.291729212982074</v>
       </c>
       <c r="N20" t="n">
-        <v>94.35970959699127</v>
+        <v>94.40878827604877</v>
       </c>
       <c r="O20" t="n">
-        <v>9.713892607857638</v>
+        <v>9.716418490166465</v>
       </c>
       <c r="P20" t="n">
-        <v>352.5767833887862</v>
+        <v>352.4589691490377</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27304,7 +27462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U339"/>
+  <dimension ref="A1:U341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60185,6 +60343,220 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>-36.79216978000757,175.7283028922965</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>-36.79251895279499,175.7275034769905</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>-36.79296696114594,175.72677893561342</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>-36.793609387393445,175.72613478823806</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>-36.79428282517471,175.72552517217238</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>-36.79493014919888,175.72512616360257</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>-36.795608076152234,175.7248074642788</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>-36.79631941131733,175.72460137460567</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>-36.79701513309922,175.72434843103522</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>-36.797728960317464,175.7241261152734</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>-36.798451412990104,175.7239694957629</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>-36.79917800946641,175.7238736285698</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>-36.799899034880106,175.7237778776587</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>-36.80060379303153,175.72356315152882</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>-36.801327548292555,175.72375142808954</t>
+        </is>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>-36.80203544336774,175.72375648829103</t>
+        </is>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>-36.80275043164298,175.72375204504263</t>
+        </is>
+      </c>
+      <c r="S340" t="inlineStr">
+        <is>
+          <t>-36.80346364507271,175.72379731825046</t>
+        </is>
+      </c>
+      <c r="T340" t="inlineStr">
+        <is>
+          <t>-36.80415357119773,175.7240455265507</t>
+        </is>
+      </c>
+      <c r="U340" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>-36.79213700381782,175.72827082279278</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>-36.792472041793474,175.72745757776454</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>-36.792911127666116,175.7267212261992</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>-36.79360550477189,175.72612786793687</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>-36.79431379312354,175.7256240068944</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>-36.79497234479429,175.72526083173997</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>-36.79565889714825,175.7249739706031</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>-36.79636475402115,175.72475396776653</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>-36.797041996301154,175.72444128753583</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>-36.79775520833962,175.72422962459942</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>-36.79845278710025,175.72397557009282</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>-36.79917383223779,175.72385449457664</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>-36.79989376238314,175.7237399062936</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>-36.80061284887484,175.7236935316316</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>-36.801327005208464,175.72370558153037</t>
+        </is>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>-36.802037636711184,175.7237117266506</t>
+        </is>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>-36.80273320098571,175.723929720764</t>
+        </is>
+      </c>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>-36.80341978976427,175.7240341675319</t>
+        </is>
+      </c>
+      <c r="T341" t="inlineStr">
+        <is>
+          <t>-36.80412726196361,175.72416061394026</t>
+        </is>
+      </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0175/nzd0175.xlsx
+++ b/data/nzd0175/nzd0175.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U341"/>
+  <dimension ref="A1:U342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22303,6 +22303,75 @@
         </is>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>322.65</v>
+      </c>
+      <c r="C342" t="n">
+        <v>304.06</v>
+      </c>
+      <c r="D342" t="n">
+        <v>307.09</v>
+      </c>
+      <c r="E342" t="n">
+        <v>328.98</v>
+      </c>
+      <c r="F342" t="n">
+        <v>317.81</v>
+      </c>
+      <c r="G342" t="n">
+        <v>313.51</v>
+      </c>
+      <c r="H342" t="n">
+        <v>317.03</v>
+      </c>
+      <c r="I342" t="n">
+        <v>330.71</v>
+      </c>
+      <c r="J342" t="n">
+        <v>338.11</v>
+      </c>
+      <c r="K342" t="n">
+        <v>338.1176470588235</v>
+      </c>
+      <c r="L342" t="n">
+        <v>341.38</v>
+      </c>
+      <c r="M342" t="n">
+        <v>343.13</v>
+      </c>
+      <c r="N342" t="n">
+        <v>363.34</v>
+      </c>
+      <c r="O342" t="n">
+        <v>363.8936363636364</v>
+      </c>
+      <c r="P342" t="n">
+        <v>369.3060465116279</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>370.04</v>
+      </c>
+      <c r="R342" t="n">
+        <v>388.8556521739131</v>
+      </c>
+      <c r="S342" t="n">
+        <v>387.29</v>
+      </c>
+      <c r="T342" t="n">
+        <v>384.2784615384616</v>
+      </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22314,7 +22383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B351"/>
+  <dimension ref="A1:B352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25832,6 +25901,16 @@
       </c>
       <c r="B351" t="n">
         <v>-0.65</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>-0.84</v>
       </c>
     </row>
   </sheetData>
@@ -26005,28 +26084,28 @@
         <v>0.08459999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3643955973823642</v>
+        <v>0.3709791811017215</v>
       </c>
       <c r="J2" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K2" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07192644312053054</v>
+        <v>0.07463629778112613</v>
       </c>
       <c r="M2" t="n">
-        <v>7.158031225573517</v>
+        <v>7.165930910241452</v>
       </c>
       <c r="N2" t="n">
-        <v>91.77776932211096</v>
+        <v>91.76148576151444</v>
       </c>
       <c r="O2" t="n">
-        <v>9.580071467484517</v>
+        <v>9.579221563442117</v>
       </c>
       <c r="P2" t="n">
-        <v>303.8102238739533</v>
+        <v>303.7426621839592</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26083,28 +26162,28 @@
         <v>0.0902</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05771872049581322</v>
+        <v>-0.05449307343300812</v>
       </c>
       <c r="J3" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K3" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001886678596858204</v>
+        <v>0.001693044163150748</v>
       </c>
       <c r="M3" t="n">
-        <v>7.096505576401091</v>
+        <v>7.086707754690114</v>
       </c>
       <c r="N3" t="n">
-        <v>94.92259458625107</v>
+        <v>94.6635437669906</v>
       </c>
       <c r="O3" t="n">
-        <v>9.742822721688569</v>
+        <v>9.72951919505741</v>
       </c>
       <c r="P3" t="n">
-        <v>300.8826728464134</v>
+        <v>300.8495970612922</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26161,28 +26240,28 @@
         <v>0.0835</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.005437189134157475</v>
+        <v>-0.002334169258243026</v>
       </c>
       <c r="J4" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K4" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L4" t="n">
-        <v>1.671006492010019e-05</v>
+        <v>3.099429769615192e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>7.20029318758135</v>
+        <v>7.190205902147853</v>
       </c>
       <c r="N4" t="n">
-        <v>95.61795635625772</v>
+        <v>95.35740676014503</v>
       </c>
       <c r="O4" t="n">
-        <v>9.778443452628732</v>
+        <v>9.765111712630071</v>
       </c>
       <c r="P4" t="n">
-        <v>302.6415009229557</v>
+        <v>302.6096850176659</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26239,28 +26318,28 @@
         <v>0.1239</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02957273240073351</v>
+        <v>-0.02159017540403734</v>
       </c>
       <c r="J5" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K5" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0008008173364805193</v>
+        <v>0.0004262690170231398</v>
       </c>
       <c r="M5" t="n">
-        <v>5.782591497838366</v>
+        <v>5.803902747598209</v>
       </c>
       <c r="N5" t="n">
-        <v>58.43356215625467</v>
+        <v>58.73562900032292</v>
       </c>
       <c r="O5" t="n">
-        <v>7.644184858848893</v>
+        <v>7.663917340389503</v>
       </c>
       <c r="P5" t="n">
-        <v>317.5254721872932</v>
+        <v>317.4426798072634</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26317,28 +26396,28 @@
         <v>0.1203</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07821354141620672</v>
+        <v>0.08858719522018989</v>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K6" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004686197526132641</v>
+        <v>0.005972003945686977</v>
       </c>
       <c r="M6" t="n">
-        <v>6.383512503767371</v>
+        <v>6.420265021505771</v>
       </c>
       <c r="N6" t="n">
-        <v>69.2385150720813</v>
+        <v>69.84819953812855</v>
       </c>
       <c r="O6" t="n">
-        <v>8.320968397493244</v>
+        <v>8.357523529020337</v>
       </c>
       <c r="P6" t="n">
-        <v>299.8796414791225</v>
+        <v>299.7716381195574</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26395,28 +26474,28 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1732950387090686</v>
+        <v>0.1854995979503601</v>
       </c>
       <c r="J7" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K7" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01431513104077864</v>
+        <v>0.01630568294094792</v>
       </c>
       <c r="M7" t="n">
-        <v>7.949045974876689</v>
+        <v>7.990384308449411</v>
       </c>
       <c r="N7" t="n">
-        <v>106.2214272609317</v>
+        <v>106.9970314835747</v>
       </c>
       <c r="O7" t="n">
-        <v>10.30637798942634</v>
+        <v>10.34393694313605</v>
       </c>
       <c r="P7" t="n">
-        <v>290.5768418791026</v>
+        <v>290.446085409274</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26473,28 +26552,28 @@
         <v>0.0789</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4185855148272818</v>
+        <v>0.4288042229140436</v>
       </c>
       <c r="J8" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K8" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06647823290765653</v>
+        <v>0.06957267576100767</v>
       </c>
       <c r="M8" t="n">
-        <v>8.638295902698857</v>
+        <v>8.665859246130722</v>
       </c>
       <c r="N8" t="n">
-        <v>129.0168434262213</v>
+        <v>129.3963903790162</v>
       </c>
       <c r="O8" t="n">
-        <v>11.35855815789228</v>
+        <v>11.37525342043052</v>
       </c>
       <c r="P8" t="n">
-        <v>290.4623862874735</v>
+        <v>290.3553828704708</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26551,28 +26630,28 @@
         <v>0.0837</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3545407664807634</v>
+        <v>0.3689777200474776</v>
       </c>
       <c r="J9" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K9" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05423396940155611</v>
+        <v>0.05809245637983362</v>
       </c>
       <c r="M9" t="n">
-        <v>8.51554061345256</v>
+        <v>8.572243009010144</v>
       </c>
       <c r="N9" t="n">
-        <v>114.1083809000293</v>
+        <v>115.3229483683513</v>
       </c>
       <c r="O9" t="n">
-        <v>10.68215244695699</v>
+        <v>10.73885228357068</v>
       </c>
       <c r="P9" t="n">
-        <v>299.33632127778</v>
+        <v>299.1848929975876</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26629,28 +26708,28 @@
         <v>0.0801</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1991663121613347</v>
+        <v>0.2142081298289879</v>
       </c>
       <c r="J10" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K10" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01899295154738734</v>
+        <v>0.021703241581008</v>
       </c>
       <c r="M10" t="n">
-        <v>8.310164072992436</v>
+        <v>8.360286353566051</v>
       </c>
       <c r="N10" t="n">
-        <v>107.1837902442222</v>
+        <v>108.5836867054082</v>
       </c>
       <c r="O10" t="n">
-        <v>10.35296045796671</v>
+        <v>10.42034964410543</v>
       </c>
       <c r="P10" t="n">
-        <v>309.6260332230609</v>
+        <v>309.4685533754409</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26707,28 +26786,28 @@
         <v>0.0977</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2916778310219718</v>
+        <v>0.3014155289097789</v>
       </c>
       <c r="J11" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K11" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04295331958688664</v>
+        <v>0.04572851341899897</v>
       </c>
       <c r="M11" t="n">
-        <v>7.715249019828289</v>
+        <v>7.742010664463312</v>
       </c>
       <c r="N11" t="n">
-        <v>100.2746805319414</v>
+        <v>100.6571231989437</v>
       </c>
       <c r="O11" t="n">
-        <v>10.01372460835335</v>
+        <v>10.03280236020543</v>
       </c>
       <c r="P11" t="n">
-        <v>315.8275716627293</v>
+        <v>315.7265134744566</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26785,28 +26864,28 @@
         <v>0.0864</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2186486792131285</v>
+        <v>0.2261215280488026</v>
       </c>
       <c r="J12" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K12" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02027098806394656</v>
+        <v>0.02172354771724194</v>
       </c>
       <c r="M12" t="n">
-        <v>8.756798482846973</v>
+        <v>8.765713277714724</v>
       </c>
       <c r="N12" t="n">
-        <v>122.9234038011593</v>
+        <v>122.939369281393</v>
       </c>
       <c r="O12" t="n">
-        <v>11.08708274530137</v>
+        <v>11.08780272558062</v>
       </c>
       <c r="P12" t="n">
-        <v>324.3510998761892</v>
+        <v>324.2737818569717</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26863,28 +26942,28 @@
         <v>0.07820000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2032558646616242</v>
+        <v>0.2055994348867989</v>
       </c>
       <c r="J13" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K13" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02095660466145244</v>
+        <v>0.02156998243338226</v>
       </c>
       <c r="M13" t="n">
-        <v>7.846435047503654</v>
+        <v>7.831657958433963</v>
       </c>
       <c r="N13" t="n">
-        <v>102.8723269779958</v>
+        <v>102.5656867126401</v>
       </c>
       <c r="O13" t="n">
-        <v>10.14259961637034</v>
+        <v>10.12747188160205</v>
       </c>
       <c r="P13" t="n">
-        <v>334.3174233079771</v>
+        <v>334.293124536506</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26941,28 +27020,28 @@
         <v>0.1707</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1968246352573096</v>
+        <v>0.2024209035182117</v>
       </c>
       <c r="J14" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K14" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02065599720311617</v>
+        <v>0.02191035581961676</v>
       </c>
       <c r="M14" t="n">
-        <v>7.37941408679696</v>
+        <v>7.378871687048663</v>
       </c>
       <c r="N14" t="n">
-        <v>96.50930312016028</v>
+        <v>96.43605417169159</v>
       </c>
       <c r="O14" t="n">
-        <v>9.823914857131056</v>
+        <v>9.820186055859207</v>
       </c>
       <c r="P14" t="n">
-        <v>349.5718763335467</v>
+        <v>349.5130890277873</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27019,28 +27098,28 @@
         <v>0.1304</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2496757597079466</v>
+        <v>0.2521305274466364</v>
       </c>
       <c r="J15" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K15" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03194339069192076</v>
+        <v>0.03275652463876544</v>
       </c>
       <c r="M15" t="n">
-        <v>7.757287433033126</v>
+        <v>7.741666596538669</v>
       </c>
       <c r="N15" t="n">
-        <v>101.3202420404326</v>
+        <v>101.0249541912769</v>
       </c>
       <c r="O15" t="n">
-        <v>10.06579564865255</v>
+        <v>10.05111706186317</v>
       </c>
       <c r="P15" t="n">
-        <v>353.6693436295454</v>
+        <v>353.6439539584282</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27091,28 +27170,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.3647021698207552</v>
+        <v>0.3640405050210963</v>
       </c>
       <c r="J16" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K16" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07336553945854063</v>
+        <v>0.07358009436236146</v>
       </c>
       <c r="M16" t="n">
-        <v>7.461630114104541</v>
+        <v>7.439925586167038</v>
       </c>
       <c r="N16" t="n">
-        <v>91.30586329659717</v>
+        <v>90.99450332673507</v>
       </c>
       <c r="O16" t="n">
-        <v>9.555410158470288</v>
+        <v>9.539103905856937</v>
       </c>
       <c r="P16" t="n">
-        <v>360.8591537705153</v>
+        <v>360.8659777030738</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27169,28 +27248,28 @@
         <v>0.1261</v>
       </c>
       <c r="I17" t="n">
-        <v>0.420104965783552</v>
+        <v>0.4184665995263401</v>
       </c>
       <c r="J17" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K17" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1024786557805115</v>
+        <v>0.1023428339266137</v>
       </c>
       <c r="M17" t="n">
-        <v>6.928414919900277</v>
+        <v>6.91427242760982</v>
       </c>
       <c r="N17" t="n">
-        <v>82.61381182464751</v>
+        <v>82.36016425480646</v>
       </c>
       <c r="O17" t="n">
-        <v>9.089214037783877</v>
+        <v>9.075250093237457</v>
       </c>
       <c r="P17" t="n">
-        <v>361.711511615714</v>
+        <v>361.7286182357401</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27247,28 +27326,28 @@
         <v>0.1377</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3465129062487861</v>
+        <v>0.3560331741365753</v>
       </c>
       <c r="J18" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K18" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05627360646421753</v>
+        <v>0.05924368871073427</v>
       </c>
       <c r="M18" t="n">
-        <v>8.073684863344887</v>
+        <v>8.099881168505094</v>
       </c>
       <c r="N18" t="n">
-        <v>107.1668160870595</v>
+        <v>107.4987667331392</v>
       </c>
       <c r="O18" t="n">
-        <v>10.35214065239936</v>
+        <v>10.36816120308414</v>
       </c>
       <c r="P18" t="n">
-        <v>365.509335692063</v>
+        <v>365.4100516353436</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27325,28 +27404,28 @@
         <v>0.1899</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4096286479192732</v>
+        <v>0.4187256013524164</v>
       </c>
       <c r="J19" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K19" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L19" t="n">
-        <v>0.07657243716472573</v>
+        <v>0.07977308353964385</v>
       </c>
       <c r="M19" t="n">
-        <v>8.53032801571206</v>
+        <v>8.539982284202443</v>
       </c>
       <c r="N19" t="n">
-        <v>105.0049992451695</v>
+        <v>105.3010970193062</v>
       </c>
       <c r="O19" t="n">
-        <v>10.24719470124236</v>
+        <v>10.26163227850746</v>
       </c>
       <c r="P19" t="n">
-        <v>362.6750097719054</v>
+        <v>362.5781168165678</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27403,28 +27482,28 @@
         <v>0.1811</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3434205274005749</v>
+        <v>0.35823830489368</v>
       </c>
       <c r="J20" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K20" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06227684613947537</v>
+        <v>0.06665096869947662</v>
       </c>
       <c r="M20" t="n">
-        <v>7.291729212982074</v>
+        <v>7.34347797030517</v>
       </c>
       <c r="N20" t="n">
-        <v>94.40878827604877</v>
+        <v>95.85078696545206</v>
       </c>
       <c r="O20" t="n">
-        <v>9.716418490166465</v>
+        <v>9.790341514240046</v>
       </c>
       <c r="P20" t="n">
-        <v>352.4589691490377</v>
+        <v>352.3031419977636</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27462,7 +27541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U341"/>
+  <dimension ref="A1:U342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60557,6 +60636,113 @@
         </is>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>-36.79223084219448,175.72836263802404</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>-36.79253311104095,175.72751732988675</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>-36.79299616435885,175.72680912006427</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>-36.793658386432774,175.7262221231978</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>-36.794344205070175,175.72572106746554</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>-36.79499532285067,175.7253341669663</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>-36.79567515250991,175.72502722873446</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>-36.79639090637621,175.72484197946014</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>-36.79708546426088,175.7245915414381</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>-36.797766761136735,175.7242751833024</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>-36.79846919508896,175.72404810263956</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>-36.79916341443834,175.7238067754253</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>-36.79989949906945,175.72378122065282</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>-36.80061278897751,175.72369266926216</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>-36.8013264482828,175.72365856803367</t>
+        </is>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>-36.80203820624202,175.72370010363812</t>
+        </is>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>-36.80273124039272,175.7239499374456</t>
+        </is>
+      </c>
+      <c r="S342" t="inlineStr">
+        <is>
+          <t>-36.80341394145659,175.7240657522652</t>
+        </is>
+      </c>
+      <c r="T342" t="inlineStr">
+        <is>
+          <t>-36.80410477634069,175.7242589748414</t>
+        </is>
+      </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0175/nzd0175.xlsx
+++ b/data/nzd0175/nzd0175.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U342"/>
+  <dimension ref="A1:U345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22372,6 +22372,213 @@
         </is>
       </c>
     </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>314.1157142857143</v>
+      </c>
+      <c r="C343" t="n">
+        <v>291.7766666666666</v>
+      </c>
+      <c r="D343" t="n">
+        <v>294.6957142857143</v>
+      </c>
+      <c r="E343" t="n">
+        <v>311.3704761904762</v>
+      </c>
+      <c r="F343" t="n">
+        <v>297.27</v>
+      </c>
+      <c r="G343" t="n">
+        <v>291.7066666666666</v>
+      </c>
+      <c r="H343" t="n">
+        <v>297.2357142857143</v>
+      </c>
+      <c r="I343" t="n">
+        <v>309.0166666666667</v>
+      </c>
+      <c r="J343" t="n">
+        <v>315.9657142857143</v>
+      </c>
+      <c r="K343" t="n">
+        <v>321.0647058823529</v>
+      </c>
+      <c r="L343" t="n">
+        <v>326.4666666666666</v>
+      </c>
+      <c r="M343" t="n">
+        <v>335.5557142857143</v>
+      </c>
+      <c r="N343" t="n">
+        <v>354.4028571428572</v>
+      </c>
+      <c r="O343" t="n">
+        <v>358.7327272727272</v>
+      </c>
+      <c r="P343" t="n">
+        <v>367.0425581395349</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>367.4704761904762</v>
+      </c>
+      <c r="R343" t="n">
+        <v>370.8078260869565</v>
+      </c>
+      <c r="S343" t="n">
+        <v>374.0633333333333</v>
+      </c>
+      <c r="T343" t="n">
+        <v>363.8984615384616</v>
+      </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>312.8628571428572</v>
+      </c>
+      <c r="C344" t="n">
+        <v>295.4633333333333</v>
+      </c>
+      <c r="D344" t="n">
+        <v>297.5228571428572</v>
+      </c>
+      <c r="E344" t="n">
+        <v>312.5252380952381</v>
+      </c>
+      <c r="F344" t="n">
+        <v>296.49</v>
+      </c>
+      <c r="G344" t="n">
+        <v>291.6933333333333</v>
+      </c>
+      <c r="H344" t="n">
+        <v>296.6528571428572</v>
+      </c>
+      <c r="I344" t="n">
+        <v>302.4333333333333</v>
+      </c>
+      <c r="J344" t="n">
+        <v>311.3428571428572</v>
+      </c>
+      <c r="K344" t="n">
+        <v>319.1382352941176</v>
+      </c>
+      <c r="L344" t="n">
+        <v>322.6233333333333</v>
+      </c>
+      <c r="M344" t="n">
+        <v>337.1128571428572</v>
+      </c>
+      <c r="N344" t="n">
+        <v>349.1914285714286</v>
+      </c>
+      <c r="O344" t="n">
+        <v>358.7</v>
+      </c>
+      <c r="P344" t="n">
+        <v>365.166511627907</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>366.7852380952381</v>
+      </c>
+      <c r="R344" t="n">
+        <v>373.5130434782609</v>
+      </c>
+      <c r="S344" t="n">
+        <v>370.1366666666667</v>
+      </c>
+      <c r="T344" t="n">
+        <v>363.4423076923077</v>
+      </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>310.0671428571428</v>
+      </c>
+      <c r="C345" t="n">
+        <v>296.71</v>
+      </c>
+      <c r="D345" t="n">
+        <v>298.1071428571428</v>
+      </c>
+      <c r="E345" t="n">
+        <v>315.7714285714285</v>
+      </c>
+      <c r="F345" t="n">
+        <v>302.81</v>
+      </c>
+      <c r="G345" t="n">
+        <v>291.98</v>
+      </c>
+      <c r="H345" t="n">
+        <v>302.3971428571429</v>
+      </c>
+      <c r="I345" t="n">
+        <v>306.3</v>
+      </c>
+      <c r="J345" t="n">
+        <v>314.0471428571428</v>
+      </c>
+      <c r="K345" t="n">
+        <v>321.9041176470589</v>
+      </c>
+      <c r="L345" t="n">
+        <v>326.71</v>
+      </c>
+      <c r="M345" t="n">
+        <v>334.7771428571428</v>
+      </c>
+      <c r="N345" t="n">
+        <v>356.0285714285715</v>
+      </c>
+      <c r="O345" t="n">
+        <v>360.5781818181818</v>
+      </c>
+      <c r="P345" t="n">
+        <v>368.7076744186047</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>371.6414285714285</v>
+      </c>
+      <c r="R345" t="n">
+        <v>378.3734782608696</v>
+      </c>
+      <c r="S345" t="n">
+        <v>380.47</v>
+      </c>
+      <c r="T345" t="n">
+        <v>371.1353846153846</v>
+      </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22383,7 +22590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B352"/>
+  <dimension ref="A1:B355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25911,6 +26118,36 @@
       </c>
       <c r="B352" t="n">
         <v>-0.84</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -26084,28 +26321,28 @@
         <v>0.08459999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3709791811017215</v>
+        <v>0.3687823273346565</v>
       </c>
       <c r="J2" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K2" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07463629778112613</v>
+        <v>0.07533041647887606</v>
       </c>
       <c r="M2" t="n">
-        <v>7.165930910241452</v>
+        <v>7.106363046873673</v>
       </c>
       <c r="N2" t="n">
-        <v>91.76148576151444</v>
+        <v>90.83421754472703</v>
       </c>
       <c r="O2" t="n">
-        <v>9.579221563442117</v>
+        <v>9.530698691319909</v>
       </c>
       <c r="P2" t="n">
-        <v>303.7426621839592</v>
+        <v>303.765372764047</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26162,28 +26399,28 @@
         <v>0.0902</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05449307343300812</v>
+        <v>-0.06418380549303208</v>
       </c>
       <c r="J3" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K3" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001693044163150748</v>
+        <v>0.00239204537606752</v>
       </c>
       <c r="M3" t="n">
-        <v>7.086707754690114</v>
+        <v>7.064798594064269</v>
       </c>
       <c r="N3" t="n">
-        <v>94.6635437669906</v>
+        <v>93.94857569363411</v>
       </c>
       <c r="O3" t="n">
-        <v>9.72951919505741</v>
+        <v>9.692707345919102</v>
       </c>
       <c r="P3" t="n">
-        <v>300.8495970612922</v>
+        <v>300.949540088916</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26240,28 +26477,28 @@
         <v>0.0835</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.002334169258243026</v>
+        <v>-0.0138150593315169</v>
       </c>
       <c r="J4" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K4" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L4" t="n">
-        <v>3.099429769615192e-06</v>
+        <v>0.0001104950763505252</v>
       </c>
       <c r="M4" t="n">
-        <v>7.190205902147853</v>
+        <v>7.177743285046886</v>
       </c>
       <c r="N4" t="n">
-        <v>95.35740676014503</v>
+        <v>94.72795160727637</v>
       </c>
       <c r="O4" t="n">
-        <v>9.765111712630071</v>
+        <v>9.73282855121143</v>
       </c>
       <c r="P4" t="n">
-        <v>302.6096850176659</v>
+        <v>302.7281060920852</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26318,28 +26555,28 @@
         <v>0.1239</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02159017540403734</v>
+        <v>-0.02862353502365346</v>
       </c>
       <c r="J5" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K5" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004262690170231398</v>
+        <v>0.0007622976731848086</v>
       </c>
       <c r="M5" t="n">
-        <v>5.803902747598209</v>
+        <v>5.781563105847292</v>
       </c>
       <c r="N5" t="n">
-        <v>58.73562900032292</v>
+        <v>58.31134161582839</v>
       </c>
       <c r="O5" t="n">
-        <v>7.663917340389503</v>
+        <v>7.636186326683522</v>
       </c>
       <c r="P5" t="n">
-        <v>317.4426798072634</v>
+        <v>317.5160509064387</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26396,28 +26633,28 @@
         <v>0.1203</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08858719522018989</v>
+        <v>0.08239674555464643</v>
       </c>
       <c r="J6" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K6" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005972003945686977</v>
+        <v>0.005262944031716343</v>
       </c>
       <c r="M6" t="n">
-        <v>6.420265021505771</v>
+        <v>6.390069859192828</v>
       </c>
       <c r="N6" t="n">
-        <v>69.84819953812855</v>
+        <v>69.32963207975445</v>
       </c>
       <c r="O6" t="n">
-        <v>8.357523529020337</v>
+        <v>8.32644174180991</v>
       </c>
       <c r="P6" t="n">
-        <v>299.7716381195574</v>
+        <v>299.8364501302652</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26474,28 +26711,28 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1854995979503601</v>
+        <v>0.178694080707145</v>
       </c>
       <c r="J7" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K7" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01630568294094792</v>
+        <v>0.01543686549061329</v>
       </c>
       <c r="M7" t="n">
-        <v>7.990384308449411</v>
+        <v>7.940830609857324</v>
       </c>
       <c r="N7" t="n">
-        <v>106.9970314835747</v>
+        <v>106.0452392648158</v>
       </c>
       <c r="O7" t="n">
-        <v>10.34393694313605</v>
+        <v>10.29782691954064</v>
       </c>
       <c r="P7" t="n">
-        <v>290.446085409274</v>
+        <v>290.5194393167307</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26552,28 +26789,28 @@
         <v>0.0789</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4288042229140436</v>
+        <v>0.4235013539547706</v>
       </c>
       <c r="J8" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K8" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06957267576100767</v>
+        <v>0.06921368511865944</v>
       </c>
       <c r="M8" t="n">
-        <v>8.665859246130722</v>
+        <v>8.611027565338359</v>
       </c>
       <c r="N8" t="n">
-        <v>129.3963903790162</v>
+        <v>128.2694868650591</v>
       </c>
       <c r="O8" t="n">
-        <v>11.37525342043052</v>
+        <v>11.32561198633694</v>
       </c>
       <c r="P8" t="n">
-        <v>290.3553828704708</v>
+        <v>290.4112103445438</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26630,28 +26867,28 @@
         <v>0.0837</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3689777200474776</v>
+        <v>0.3634384952929182</v>
       </c>
       <c r="J9" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K9" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05809245637983362</v>
+        <v>0.05748988548447931</v>
       </c>
       <c r="M9" t="n">
-        <v>8.572243009010144</v>
+        <v>8.513744645500658</v>
       </c>
       <c r="N9" t="n">
-        <v>115.3229483683513</v>
+        <v>114.355845526061</v>
       </c>
       <c r="O9" t="n">
-        <v>10.73885228357068</v>
+        <v>10.69372926186468</v>
       </c>
       <c r="P9" t="n">
-        <v>299.1848929975876</v>
+        <v>299.2433566103899</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26708,28 +26945,28 @@
         <v>0.0801</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2142081298289879</v>
+        <v>0.2117971259552404</v>
       </c>
       <c r="J10" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K10" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L10" t="n">
-        <v>0.021703241581008</v>
+        <v>0.02164360683155264</v>
       </c>
       <c r="M10" t="n">
-        <v>8.360286353566051</v>
+        <v>8.297420520355374</v>
       </c>
       <c r="N10" t="n">
-        <v>108.5836867054082</v>
+        <v>107.5860181417355</v>
       </c>
       <c r="O10" t="n">
-        <v>10.42034964410543</v>
+        <v>10.37236801033088</v>
       </c>
       <c r="P10" t="n">
-        <v>309.4685533754409</v>
+        <v>309.4939592888758</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26786,28 +27023,28 @@
         <v>0.0977</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3014155289097789</v>
+        <v>0.2958071687934344</v>
       </c>
       <c r="J11" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K11" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04572851341899897</v>
+        <v>0.04496736215043551</v>
       </c>
       <c r="M11" t="n">
-        <v>7.742010664463312</v>
+        <v>7.690863980363551</v>
       </c>
       <c r="N11" t="n">
-        <v>100.6571231989437</v>
+        <v>99.75040763204555</v>
       </c>
       <c r="O11" t="n">
-        <v>10.03280236020543</v>
+        <v>9.987512584825391</v>
       </c>
       <c r="P11" t="n">
-        <v>315.7265134744566</v>
+        <v>315.7850622750975</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26864,28 +27101,28 @@
         <v>0.0864</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2261215280488026</v>
+        <v>0.2166252085004743</v>
       </c>
       <c r="J12" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K12" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02172354771724194</v>
+        <v>0.02034100961195506</v>
       </c>
       <c r="M12" t="n">
-        <v>8.765713277714724</v>
+        <v>8.725558072742329</v>
       </c>
       <c r="N12" t="n">
-        <v>122.939369281393</v>
+        <v>121.9842648112821</v>
       </c>
       <c r="O12" t="n">
-        <v>11.08780272558062</v>
+        <v>11.04464869569341</v>
       </c>
       <c r="P12" t="n">
-        <v>324.2737818569717</v>
+        <v>324.3726307409595</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26942,28 +27179,28 @@
         <v>0.07820000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2055994348867989</v>
+        <v>0.1981208530084839</v>
       </c>
       <c r="J13" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K13" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02156998243338226</v>
+        <v>0.02044345753704624</v>
       </c>
       <c r="M13" t="n">
-        <v>7.831657958433963</v>
+        <v>7.791732869776683</v>
       </c>
       <c r="N13" t="n">
-        <v>102.5656867126401</v>
+        <v>101.686337419233</v>
       </c>
       <c r="O13" t="n">
-        <v>10.12747188160205</v>
+        <v>10.08396437018859</v>
       </c>
       <c r="P13" t="n">
-        <v>334.293124536506</v>
+        <v>334.3711461848654</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27020,28 +27257,28 @@
         <v>0.1707</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2024209035182117</v>
+        <v>0.1994111426894596</v>
       </c>
       <c r="J14" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K14" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02191035581961676</v>
+        <v>0.02167631370734857</v>
       </c>
       <c r="M14" t="n">
-        <v>7.378871687048663</v>
+        <v>7.332465773350971</v>
       </c>
       <c r="N14" t="n">
-        <v>96.43605417169159</v>
+        <v>95.5977379478532</v>
       </c>
       <c r="O14" t="n">
-        <v>9.820186055859207</v>
+        <v>9.77740957247129</v>
       </c>
       <c r="P14" t="n">
-        <v>349.5130890277873</v>
+        <v>349.5448879661001</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27098,28 +27335,28 @@
         <v>0.1304</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2521305274466364</v>
+        <v>0.2504383738037743</v>
       </c>
       <c r="J15" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K15" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03275652463876544</v>
+        <v>0.03297778138126151</v>
       </c>
       <c r="M15" t="n">
-        <v>7.741666596538669</v>
+        <v>7.676512505804311</v>
       </c>
       <c r="N15" t="n">
-        <v>101.0249541912769</v>
+        <v>100.0265002672937</v>
       </c>
       <c r="O15" t="n">
-        <v>10.05111706186317</v>
+        <v>10.00132492559329</v>
       </c>
       <c r="P15" t="n">
-        <v>353.6439539584282</v>
+        <v>353.6615517108521</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27170,28 +27407,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.3640405050210963</v>
+        <v>0.3575205884780474</v>
       </c>
       <c r="J16" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K16" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07358009436236146</v>
+        <v>0.07241489325218065</v>
       </c>
       <c r="M16" t="n">
-        <v>7.439925586167038</v>
+        <v>7.402543570136994</v>
       </c>
       <c r="N16" t="n">
-        <v>90.99450332673507</v>
+        <v>90.19773813288312</v>
       </c>
       <c r="O16" t="n">
-        <v>9.539103905856937</v>
+        <v>9.497248977092426</v>
       </c>
       <c r="P16" t="n">
-        <v>360.8659777030738</v>
+        <v>360.9336381426532</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27248,28 +27485,28 @@
         <v>0.1261</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4184665995263401</v>
+        <v>0.4109335351928263</v>
       </c>
       <c r="J17" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K17" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1023428339266137</v>
+        <v>0.1006113567080233</v>
       </c>
       <c r="M17" t="n">
-        <v>6.91427242760982</v>
+        <v>6.886046555165044</v>
       </c>
       <c r="N17" t="n">
-        <v>82.36016425480646</v>
+        <v>81.74409649187082</v>
       </c>
       <c r="O17" t="n">
-        <v>9.075250093237457</v>
+        <v>9.041244189372987</v>
       </c>
       <c r="P17" t="n">
-        <v>361.7286182357401</v>
+        <v>361.8077406794099</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27326,28 +27563,28 @@
         <v>0.1377</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3560331741365753</v>
+        <v>0.3551483995208935</v>
       </c>
       <c r="J18" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K18" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05924368871073427</v>
+        <v>0.06007004648552006</v>
       </c>
       <c r="M18" t="n">
-        <v>8.099881168505094</v>
+        <v>8.046615925512345</v>
       </c>
       <c r="N18" t="n">
-        <v>107.4987667331392</v>
+        <v>106.5068717302519</v>
       </c>
       <c r="O18" t="n">
-        <v>10.36816120308414</v>
+        <v>10.32021665132336</v>
       </c>
       <c r="P18" t="n">
-        <v>365.4100516353436</v>
+        <v>365.4192819648537</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27404,28 +27641,28 @@
         <v>0.1899</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4187256013524164</v>
+        <v>0.4214152542677776</v>
       </c>
       <c r="J19" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K19" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L19" t="n">
-        <v>0.07977308353964385</v>
+        <v>0.08206581420275882</v>
       </c>
       <c r="M19" t="n">
-        <v>8.539982284202443</v>
+        <v>8.488801154532705</v>
       </c>
       <c r="N19" t="n">
-        <v>105.3010970193062</v>
+        <v>104.4564892697342</v>
       </c>
       <c r="O19" t="n">
-        <v>10.26163227850746</v>
+        <v>10.22039574917401</v>
       </c>
       <c r="P19" t="n">
-        <v>362.5781168165678</v>
+        <v>362.5492474138476</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27482,28 +27719,28 @@
         <v>0.1811</v>
       </c>
       <c r="I20" t="n">
-        <v>0.35823830489368</v>
+        <v>0.3668649855303386</v>
       </c>
       <c r="J20" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K20" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06665096869947662</v>
+        <v>0.07074654715970607</v>
       </c>
       <c r="M20" t="n">
-        <v>7.34347797030517</v>
+        <v>7.313415637374422</v>
       </c>
       <c r="N20" t="n">
-        <v>95.85078696545206</v>
+        <v>95.20992804935902</v>
       </c>
       <c r="O20" t="n">
-        <v>9.790341514240046</v>
+        <v>9.757557483784506</v>
       </c>
       <c r="P20" t="n">
-        <v>352.3031419977636</v>
+        <v>352.2117932114518</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27541,7 +27778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U342"/>
+  <dimension ref="A1:U345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60743,6 +60980,327 @@
         </is>
       </c>
     </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-36.79217042723862,175.728303525573</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-36.79244615578442,175.72743225009725</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>-36.79291030629422,175.72672037723115</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-36.79356762832787,175.726060357854</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>-36.79427703706919,175.7255066993763</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>-36.79492402313953,175.72510661220804</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>-36.79561188431076,175.7248199410258</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>-36.79632317860964,175.72461405275487</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>-36.79701794269659,175.72435814279547</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>-36.79772056577491,175.72409301140615</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>-36.79843281775215,175.72388729464316</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>-36.79914553893197,175.72372489618405</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>-36.79988580106445,175.72368257080228</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>-36.80060878852626,175.72363507313136</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>-36.80132614795052,175.72363321580545</t>
+        </is>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>-36.80203961401927,175.72367137355215</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>-36.80275070549319,175.72374922118496</t>
+        </is>
+      </c>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>-36.80344067651045,175.72392136486943</t>
+        </is>
+      </c>
+      <c r="T343" t="inlineStr">
+        <is>
+          <t>-36.80415497713286,175.72403937639754</t>
+        </is>
+      </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>-36.79216155815035,175.72829484770688</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>-36.792472254167265,175.72745778555768</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>-36.79292989056897,175.72674061949877</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>-36.793573579887465,175.72607096576462</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>-36.79427448637767,175.72549855882292</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>-36.794923979537664,175.72510647305222</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>-36.79561002132691,175.72481383729328</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>-36.796302624995,175.72454488330862</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>-36.7970038467858,175.72430941837416</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>-36.79771534706722,175.72407243146168</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>-36.79842344286795,175.72384585264078</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>-36.79914921383334,175.7237417291448</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>-36.79987781344247,175.72362504609512</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>-36.80060876315779,175.7236347078926</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>-36.8013258990221,175.72361220312425</t>
+        </is>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>-36.80203998944277,175.7236637118407</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>-36.80274778785964,175.7237793068727</t>
+        </is>
+      </c>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>-36.80344861344654,175.72387849983994</t>
+        </is>
+      </c>
+      <c r="T344" t="inlineStr">
+        <is>
+          <t>-36.80415610074388,175.724034461248</t>
+        </is>
+      </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>-36.79214176703516,175.72827548330827</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>-36.79248107947795,175.72746642051845</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>-36.79293393805122,175.72674480297022</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>-36.79359031051359,175.7261007860316</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>-36.794295153502524,175.72556451819315</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>-36.794924916977564,175.72510946490243</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>-36.79562838174913,175.72487399198292</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>-36.79631469699653,175.72458550940954</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>-36.79701209263477,175.72433792125517</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>-36.79772283969617,175.7241019786072</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>-36.79843341130459,175.72388991846495</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>-36.79914370148036,175.72371647970422</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>-36.799888292811346,175.72370051573768</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>-36.80061021902378,175.7236556685414</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>-36.801326368887985,175.72365186596</t>
+        </is>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>-36.80203732885621,175.72371800935997</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>-36.80274254576012,175.72383336149508</t>
+        </is>
+      </c>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>-36.80342772674015,175.72399130252813</t>
+        </is>
+      </c>
+      <c r="T345" t="inlineStr">
+        <is>
+          <t>-36.80413715091351,175.72411735567977</t>
+        </is>
+      </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0175/nzd0175.xlsx
+++ b/data/nzd0175/nzd0175.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U345"/>
+  <dimension ref="A1:U346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22579,6 +22579,69 @@
         </is>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr"/>
+      <c r="C346" t="inlineStr"/>
+      <c r="D346" t="n">
+        <v>263.1757142857143</v>
+      </c>
+      <c r="E346" t="n">
+        <v>278.7238095238095</v>
+      </c>
+      <c r="F346" t="n">
+        <v>267.66</v>
+      </c>
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="n">
+        <v>273.0657142857143</v>
+      </c>
+      <c r="I346" t="n">
+        <v>289.9733333333334</v>
+      </c>
+      <c r="J346" t="n">
+        <v>316.0857142857143</v>
+      </c>
+      <c r="K346" t="n">
+        <v>324.2535294117647</v>
+      </c>
+      <c r="L346" t="n">
+        <v>331.9933333333333</v>
+      </c>
+      <c r="M346" t="n">
+        <v>344.1557142857143</v>
+      </c>
+      <c r="N346" t="n">
+        <v>351.7328571428571</v>
+      </c>
+      <c r="O346" t="n">
+        <v>359.2727272727273</v>
+      </c>
+      <c r="P346" t="n">
+        <v>374.1853488372093</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>377.1838095238096</v>
+      </c>
+      <c r="R346" t="n">
+        <v>374.1634782608696</v>
+      </c>
+      <c r="S346" t="n">
+        <v>381.5966666666667</v>
+      </c>
+      <c r="T346" t="n">
+        <v>364.3615384615384</v>
+      </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22590,7 +22653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B355"/>
+  <dimension ref="A1:B356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26148,6 +26211,16 @@
       </c>
       <c r="B355" t="n">
         <v>-0.57</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -26324,7 +26397,7 @@
         <v>0.3687823273346565</v>
       </c>
       <c r="J2" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K2" t="n">
         <v>284</v>
@@ -26402,7 +26475,7 @@
         <v>-0.06418380549303208</v>
       </c>
       <c r="J3" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K3" t="n">
         <v>286</v>
@@ -26477,28 +26550,28 @@
         <v>0.0835</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0138150593315169</v>
+        <v>-0.0398499769051666</v>
       </c>
       <c r="J4" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K4" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001104950763505252</v>
+        <v>0.0008767333539314581</v>
       </c>
       <c r="M4" t="n">
-        <v>7.177743285046886</v>
+        <v>7.293244460156558</v>
       </c>
       <c r="N4" t="n">
-        <v>94.72795160727637</v>
+        <v>99.62496406323956</v>
       </c>
       <c r="O4" t="n">
-        <v>9.73282855121143</v>
+        <v>9.981230588621804</v>
       </c>
       <c r="P4" t="n">
-        <v>302.7281060920852</v>
+        <v>302.998367996035</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26555,28 +26628,28 @@
         <v>0.1239</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02862353502365346</v>
+        <v>-0.05308737326041147</v>
       </c>
       <c r="J5" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K5" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0007622976731848086</v>
+        <v>0.002435527716308394</v>
       </c>
       <c r="M5" t="n">
-        <v>5.781563105847292</v>
+        <v>5.889697225214424</v>
       </c>
       <c r="N5" t="n">
-        <v>58.31134161582839</v>
+        <v>62.8923700527039</v>
       </c>
       <c r="O5" t="n">
-        <v>7.636186326683522</v>
+        <v>7.930470985553374</v>
       </c>
       <c r="P5" t="n">
-        <v>317.5160509064387</v>
+        <v>317.7729514518099</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26633,28 +26706,28 @@
         <v>0.1203</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08239674555464643</v>
+        <v>0.0603398101062838</v>
       </c>
       <c r="J6" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K6" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005262944031716343</v>
+        <v>0.00269755512152936</v>
       </c>
       <c r="M6" t="n">
-        <v>6.390069859192828</v>
+        <v>6.472380859543453</v>
       </c>
       <c r="N6" t="n">
-        <v>69.32963207975445</v>
+        <v>72.97647480842977</v>
       </c>
       <c r="O6" t="n">
-        <v>8.32644174180991</v>
+        <v>8.542626926679509</v>
       </c>
       <c r="P6" t="n">
-        <v>299.8364501302652</v>
+        <v>300.068951276627</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26714,7 +26787,7 @@
         <v>0.178694080707145</v>
       </c>
       <c r="J7" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K7" t="n">
         <v>300</v>
@@ -26789,28 +26862,28 @@
         <v>0.0789</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4235013539547706</v>
+        <v>0.4052844360581324</v>
       </c>
       <c r="J8" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K8" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06921368511865944</v>
+        <v>0.06296706247499129</v>
       </c>
       <c r="M8" t="n">
-        <v>8.611027565338359</v>
+        <v>8.667698872831542</v>
       </c>
       <c r="N8" t="n">
-        <v>128.2694868650591</v>
+        <v>130.4527692917334</v>
       </c>
       <c r="O8" t="n">
-        <v>11.32561198633694</v>
+        <v>11.42159223977696</v>
       </c>
       <c r="P8" t="n">
-        <v>290.4112103445438</v>
+        <v>290.6042703082484</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26867,28 +26940,28 @@
         <v>0.0837</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3634384952929182</v>
+        <v>0.351392721670976</v>
       </c>
       <c r="J9" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K9" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05748988548447931</v>
+        <v>0.05379175272004255</v>
       </c>
       <c r="M9" t="n">
-        <v>8.513744645500658</v>
+        <v>8.535584872734313</v>
       </c>
       <c r="N9" t="n">
-        <v>114.355845526061</v>
+        <v>115.1121243148984</v>
       </c>
       <c r="O9" t="n">
-        <v>10.69372926186468</v>
+        <v>10.7290318442485</v>
       </c>
       <c r="P9" t="n">
-        <v>299.2433566103899</v>
+        <v>299.3712066277109</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26945,28 +27018,28 @@
         <v>0.0801</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2117971259552404</v>
+        <v>0.2124602945881567</v>
       </c>
       <c r="J10" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K10" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02164360683155264</v>
+        <v>0.02192003331179337</v>
       </c>
       <c r="M10" t="n">
-        <v>8.297420520355374</v>
+        <v>8.274233008412981</v>
       </c>
       <c r="N10" t="n">
-        <v>107.5860181417355</v>
+        <v>107.2446470572653</v>
       </c>
       <c r="O10" t="n">
-        <v>10.37236801033088</v>
+        <v>10.35589914286854</v>
       </c>
       <c r="P10" t="n">
-        <v>309.4939592888758</v>
+        <v>309.4869329894422</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27023,28 +27096,28 @@
         <v>0.0977</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2958071687934344</v>
+        <v>0.2962752964392847</v>
       </c>
       <c r="J11" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K11" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04496736215043551</v>
+        <v>0.04540315356851399</v>
       </c>
       <c r="M11" t="n">
-        <v>7.690863980363551</v>
+        <v>7.668068773979018</v>
       </c>
       <c r="N11" t="n">
-        <v>99.75040763204555</v>
+        <v>99.42288979053004</v>
       </c>
       <c r="O11" t="n">
-        <v>9.987512584825391</v>
+        <v>9.971102736935872</v>
       </c>
       <c r="P11" t="n">
-        <v>315.7850622750975</v>
+        <v>315.780145301373</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27101,28 +27174,28 @@
         <v>0.0864</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2166252085004743</v>
+        <v>0.2178849335990559</v>
       </c>
       <c r="J12" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K12" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02034100961195506</v>
+        <v>0.02071131974233709</v>
       </c>
       <c r="M12" t="n">
-        <v>8.725558072742329</v>
+        <v>8.703352640996686</v>
       </c>
       <c r="N12" t="n">
-        <v>121.9842648112821</v>
+        <v>121.5940478716375</v>
       </c>
       <c r="O12" t="n">
-        <v>11.04464869569341</v>
+        <v>11.02696911538422</v>
       </c>
       <c r="P12" t="n">
-        <v>324.3726307409595</v>
+        <v>324.3594382114994</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27179,28 +27252,28 @@
         <v>0.07820000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1981208530084839</v>
+        <v>0.2011123348847917</v>
       </c>
       <c r="J13" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K13" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02044345753704624</v>
+        <v>0.0211812693217861</v>
       </c>
       <c r="M13" t="n">
-        <v>7.791732869776683</v>
+        <v>7.780608941597865</v>
       </c>
       <c r="N13" t="n">
-        <v>101.686337419233</v>
+        <v>101.4161321095178</v>
       </c>
       <c r="O13" t="n">
-        <v>10.08396437018859</v>
+        <v>10.07055768612234</v>
       </c>
       <c r="P13" t="n">
-        <v>334.3711461848654</v>
+        <v>334.3397476218847</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27257,28 +27330,28 @@
         <v>0.1707</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1994111426894596</v>
+        <v>0.1974787456173994</v>
       </c>
       <c r="J14" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K14" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02167631370734857</v>
+        <v>0.0214003557202751</v>
       </c>
       <c r="M14" t="n">
-        <v>7.332465773350971</v>
+        <v>7.319856905215646</v>
       </c>
       <c r="N14" t="n">
-        <v>95.5977379478532</v>
+        <v>95.31606624533407</v>
       </c>
       <c r="O14" t="n">
-        <v>9.77740957247129</v>
+        <v>9.762994737545139</v>
       </c>
       <c r="P14" t="n">
-        <v>349.5448879661001</v>
+        <v>349.5654361915273</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27335,28 +27408,28 @@
         <v>0.1304</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2504383738037743</v>
+        <v>0.2498266686445094</v>
       </c>
       <c r="J15" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K15" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03297778138126151</v>
+        <v>0.03303921276203969</v>
       </c>
       <c r="M15" t="n">
-        <v>7.676512505804311</v>
+        <v>7.654524598362438</v>
       </c>
       <c r="N15" t="n">
-        <v>100.0265002672937</v>
+        <v>99.69605173207546</v>
       </c>
       <c r="O15" t="n">
-        <v>10.00132492559329</v>
+        <v>9.984791020951588</v>
       </c>
       <c r="P15" t="n">
-        <v>353.6615517108521</v>
+        <v>353.6679573581325</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27407,28 +27480,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.3575205884780474</v>
+        <v>0.3600245650365789</v>
       </c>
       <c r="J16" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K16" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07241489325218065</v>
+        <v>0.07378256358026503</v>
       </c>
       <c r="M16" t="n">
-        <v>7.402543570136994</v>
+        <v>7.388873071715179</v>
       </c>
       <c r="N16" t="n">
-        <v>90.19773813288312</v>
+        <v>89.9417907194662</v>
       </c>
       <c r="O16" t="n">
-        <v>9.497248977092426</v>
+        <v>9.483764585831208</v>
       </c>
       <c r="P16" t="n">
-        <v>360.9336381426532</v>
+        <v>360.9074822680839</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27485,28 +27558,28 @@
         <v>0.1261</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4109335351928263</v>
+        <v>0.4138361916306205</v>
       </c>
       <c r="J17" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K17" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1006113567080233</v>
+        <v>0.1024186431328384</v>
       </c>
       <c r="M17" t="n">
-        <v>6.886046555165044</v>
+        <v>6.878209495420248</v>
       </c>
       <c r="N17" t="n">
-        <v>81.74409649187082</v>
+        <v>81.54446288307447</v>
       </c>
       <c r="O17" t="n">
-        <v>9.041244189372987</v>
+        <v>9.030197278192459</v>
       </c>
       <c r="P17" t="n">
-        <v>361.8077406794099</v>
+        <v>361.7770495387213</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27563,28 +27636,28 @@
         <v>0.1377</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3551483995208935</v>
+        <v>0.3547835310839764</v>
       </c>
       <c r="J18" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K18" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L18" t="n">
-        <v>0.06007004648552006</v>
+        <v>0.06034196569686012</v>
       </c>
       <c r="M18" t="n">
-        <v>8.046615925512345</v>
+        <v>8.021106085755429</v>
       </c>
       <c r="N18" t="n">
-        <v>106.5068717302519</v>
+        <v>106.1480968158274</v>
       </c>
       <c r="O18" t="n">
-        <v>10.32021665132336</v>
+        <v>10.30281984778087</v>
       </c>
       <c r="P18" t="n">
-        <v>365.4192819648537</v>
+        <v>365.4231345191007</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27641,28 +27714,28 @@
         <v>0.1899</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4214152542677776</v>
+        <v>0.4265487178517355</v>
       </c>
       <c r="J19" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K19" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08206581420275882</v>
+        <v>0.08426519595061199</v>
       </c>
       <c r="M19" t="n">
-        <v>8.488801154532705</v>
+        <v>8.482100314300984</v>
       </c>
       <c r="N19" t="n">
-        <v>104.4564892697342</v>
+        <v>104.3217523963394</v>
       </c>
       <c r="O19" t="n">
-        <v>10.22039574917401</v>
+        <v>10.21380205390428</v>
       </c>
       <c r="P19" t="n">
-        <v>362.5492474138476</v>
+        <v>362.4938962272073</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27719,28 +27792,28 @@
         <v>0.1811</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3668649855303386</v>
+        <v>0.3684838809007988</v>
       </c>
       <c r="J20" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K20" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07074654715970607</v>
+        <v>0.07175174761742398</v>
       </c>
       <c r="M20" t="n">
-        <v>7.313415637374422</v>
+        <v>7.297155263198783</v>
       </c>
       <c r="N20" t="n">
-        <v>95.20992804935902</v>
+        <v>94.91285418885296</v>
       </c>
       <c r="O20" t="n">
-        <v>9.757557483784506</v>
+        <v>9.742322833331533</v>
       </c>
       <c r="P20" t="n">
-        <v>352.2117932114518</v>
+        <v>352.1945516504989</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27778,7 +27851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U345"/>
+  <dimension ref="A1:U346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61301,6 +61374,101 @@
         </is>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr"/>
+      <c r="C346" t="inlineStr"/>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>-36.792691959672375,175.7264946955756</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>-36.79339936934014,175.72576045867194</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>-36.79418020848709,175.7251976718044</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>-36.79553462956671,175.72456683084275</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>-36.79626372391254,175.7244139692823</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>-36.79701830859759,175.72435940758288</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>-36.79772920412237,175.72412707671842</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>-36.798446298695694,175.72394688775566</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>-36.79916583514561,175.72381786356362</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>-36.79988170872547,175.7236530988499</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>-36.800609207105694,175.72364109957147</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>-36.80132709567743,175.72371321871643</t>
+        </is>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>-36.80203429229273,175.72377997923255</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>-36.80274708635099,175.7237865405896</t>
+        </is>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>-36.803425449409055,175.72400360165585</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr">
+        <is>
+          <t>-36.80415383646854,175.72404436614445</t>
+        </is>
+      </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0175/nzd0175.xlsx
+++ b/data/nzd0175/nzd0175.xlsx
@@ -26385,13 +26385,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0608</v>
+        <v>0.0598</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08459999999999999</v>
+        <v>0.1007</v>
       </c>
       <c r="I2" t="n">
         <v>0.3687930327241912</v>
@@ -26463,13 +26463,13 @@
         <v>0.05562167629741766</v>
       </c>
       <c r="F3" t="n">
-        <v>0.075</v>
+        <v>0.095</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0636</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0902</v>
+        <v>0.1498</v>
       </c>
       <c r="I3" t="n">
         <v>-0.06421342893111863</v>
@@ -26541,13 +26541,13 @@
         <v>0.1112433525964881</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0607</v>
+        <v>0.0643</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0835</v>
+        <v>0.1502</v>
       </c>
       <c r="I4" t="n">
         <v>-0.03982589110809141</v>
@@ -26619,13 +26619,13 @@
         <v>0.1661368558783773</v>
       </c>
       <c r="F5" t="n">
-        <v>0.105</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0897</v>
+        <v>0.1369</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1239</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>-0.05308720661470621</v>
@@ -26697,13 +26697,13 @@
         <v>0.2217585321759947</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.083</v>
+        <v>0.095</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1203</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>0.06033981010628367</v>
@@ -26778,10 +26778,10 @@
         <v>0.075</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0664</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08840000000000001</v>
+        <v>0.0878</v>
       </c>
       <c r="I7" t="n">
         <v>0.1786447864444997</v>
@@ -26853,13 +26853,13 @@
         <v>0.3330018847718493</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0593</v>
+        <v>0.0764</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0789</v>
+        <v>0.1027</v>
       </c>
       <c r="I8" t="n">
         <v>0.4052953928661263</v>
@@ -26931,13 +26931,13 @@
         <v>0.3886235454611984</v>
       </c>
       <c r="F9" t="n">
-        <v>0.075</v>
+        <v>0.095</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0655</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0837</v>
+        <v>0.1074</v>
       </c>
       <c r="I9" t="n">
         <v>0.3513623899595416</v>
@@ -27009,13 +27009,13 @@
         <v>0.4442452217586296</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0643</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0801</v>
+        <v>0.1134</v>
       </c>
       <c r="I10" t="n">
         <v>0.2124743513071527</v>
@@ -27087,13 +27087,13 @@
         <v>0.4998369259372334</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0731</v>
+        <v>0.1051</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0977</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
         <v>0.296270375714628</v>
@@ -27165,13 +27165,13 @@
         <v>0.5554586022352945</v>
       </c>
       <c r="F12" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0644</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0864</v>
+        <v>0.1201</v>
       </c>
       <c r="I12" t="n">
         <v>0.217848282725774</v>
@@ -27243,13 +27243,13 @@
         <v>0.6110802785328597</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0614</v>
+        <v>0.079</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07820000000000001</v>
+        <v>0.168</v>
       </c>
       <c r="I13" t="n">
         <v>0.2011307180236583</v>
@@ -27321,13 +27321,13 @@
         <v>0.6666153375070971</v>
       </c>
       <c r="F14" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1174</v>
+        <v>0.1321</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1707</v>
+        <v>0.2</v>
       </c>
       <c r="I14" t="n">
         <v>0.1974843184809938</v>
@@ -27399,13 +27399,13 @@
         <v>0.72223701380546</v>
       </c>
       <c r="F15" t="n">
-        <v>0.11</v>
+        <v>0.165</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09329999999999999</v>
+        <v>0.123</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1304</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
         <v>0.2498065073745404</v>
@@ -27476,9 +27476,15 @@
       <c r="E16" t="n">
         <v>0.7778586901033077</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1528</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I16" t="n">
         <v>0.3600175192227885</v>
       </c>
@@ -27549,13 +27555,13 @@
         <v>0.8334474863416218</v>
       </c>
       <c r="F17" t="n">
-        <v>0.105</v>
+        <v>0.17</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08989999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1261</v>
+        <v>0.2</v>
       </c>
       <c r="I17" t="n">
         <v>0.4138311740643862</v>
@@ -27627,13 +27633,13 @@
         <v>0.8890691626399213</v>
       </c>
       <c r="F18" t="n">
-        <v>0.115</v>
+        <v>0.155</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0992</v>
+        <v>0.1092</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1377</v>
+        <v>0.2</v>
       </c>
       <c r="I18" t="n">
         <v>0.3548516916919262</v>
@@ -27705,13 +27711,13 @@
         <v>0.9443783237020136</v>
       </c>
       <c r="F19" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1206</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1899</v>
+        <v>0.1957</v>
       </c>
       <c r="I19" t="n">
         <v>0.4265872674497795</v>
@@ -27783,13 +27789,13 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1038</v>
+        <v>0.1049</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1811</v>
+        <v>0.2</v>
       </c>
       <c r="I20" t="n">
         <v>0.3685163240613126</v>

--- a/data/nzd0175/nzd0175.xlsx
+++ b/data/nzd0175/nzd0175.xlsx
@@ -583,7 +583,7 @@
         <v>336.72</v>
       </c>
       <c r="M2" t="n">
-        <v>346.73</v>
+        <v>346.52</v>
       </c>
       <c r="N2" t="n">
         <v>361.87</v>
@@ -646,7 +646,7 @@
         <v>324.83</v>
       </c>
       <c r="M3" t="n">
-        <v>343.46</v>
+        <v>343.75</v>
       </c>
       <c r="N3" t="n">
         <v>357.96</v>
@@ -715,7 +715,7 @@
         <v>326.72</v>
       </c>
       <c r="M4" t="n">
-        <v>340.54</v>
+        <v>340.31</v>
       </c>
       <c r="N4" t="n">
         <v>357.37</v>
@@ -784,7 +784,7 @@
         <v>329.41</v>
       </c>
       <c r="M5" t="n">
-        <v>337.32</v>
+        <v>337.34</v>
       </c>
       <c r="N5" t="n">
         <v>355.73</v>
@@ -853,7 +853,7 @@
         <v>322.05</v>
       </c>
       <c r="M6" t="n">
-        <v>338.87</v>
+        <v>339.02</v>
       </c>
       <c r="N6" t="n">
         <v>355.86</v>
@@ -922,7 +922,7 @@
         <v>328.45</v>
       </c>
       <c r="M7" t="n">
-        <v>332.28</v>
+        <v>332.47</v>
       </c>
       <c r="N7" t="n">
         <v>357.57</v>
@@ -991,7 +991,7 @@
         <v>322.77</v>
       </c>
       <c r="M8" t="n">
-        <v>337.12</v>
+        <v>337.4</v>
       </c>
       <c r="N8" t="n">
         <v>356.06</v>
@@ -1060,7 +1060,7 @@
         <v>310.05</v>
       </c>
       <c r="M9" t="n">
-        <v>327.5</v>
+        <v>327.28</v>
       </c>
       <c r="N9" t="n">
         <v>331.93</v>
@@ -1129,7 +1129,7 @@
         <v>304.95</v>
       </c>
       <c r="M10" t="n">
-        <v>310.1</v>
+        <v>309.87</v>
       </c>
       <c r="N10" t="n">
         <v>327.5</v>
@@ -1198,7 +1198,7 @@
         <v>315.91</v>
       </c>
       <c r="M11" t="n">
-        <v>327.17</v>
+        <v>327.25</v>
       </c>
       <c r="N11" t="n">
         <v>351.67</v>
@@ -1267,7 +1267,7 @@
         <v>337.75</v>
       </c>
       <c r="M12" t="n">
-        <v>355.76</v>
+        <v>355.8</v>
       </c>
       <c r="N12" t="n">
         <v>363.04</v>
@@ -1336,7 +1336,7 @@
         <v>324.59</v>
       </c>
       <c r="M13" t="n">
-        <v>334.66</v>
+        <v>334.82</v>
       </c>
       <c r="N13" t="n">
         <v>352.83</v>
@@ -1405,7 +1405,7 @@
         <v>312.77</v>
       </c>
       <c r="M14" t="n">
-        <v>318.49</v>
+        <v>318.02</v>
       </c>
       <c r="N14" t="n">
         <v>337.76</v>
@@ -1474,7 +1474,7 @@
         <v>291.22</v>
       </c>
       <c r="M15" t="n">
-        <v>294.23</v>
+        <v>293.91</v>
       </c>
       <c r="N15" t="n">
         <v>307.62</v>
@@ -1543,7 +1543,7 @@
         <v>331.65</v>
       </c>
       <c r="M16" t="n">
-        <v>340.51</v>
+        <v>340.63</v>
       </c>
       <c r="N16" t="n">
         <v>354.91</v>
@@ -1612,7 +1612,7 @@
         <v>324.32</v>
       </c>
       <c r="M17" t="n">
-        <v>327.15</v>
+        <v>326.89</v>
       </c>
       <c r="N17" t="n">
         <v>347.6</v>
@@ -1681,7 +1681,7 @@
         <v>333.67</v>
       </c>
       <c r="M18" t="n">
-        <v>338.37</v>
+        <v>338.5</v>
       </c>
       <c r="N18" t="n">
         <v>354.77</v>
@@ -1750,7 +1750,7 @@
         <v>327.35</v>
       </c>
       <c r="M19" t="n">
-        <v>344.28</v>
+        <v>344.41</v>
       </c>
       <c r="N19" t="n">
         <v>355.71</v>
@@ -1884,7 +1884,7 @@
         <v>333.56</v>
       </c>
       <c r="M21" t="n">
-        <v>338.59</v>
+        <v>338.47</v>
       </c>
       <c r="N21" t="n">
         <v>356.38</v>
@@ -1951,7 +1951,7 @@
         <v>303.07</v>
       </c>
       <c r="M22" t="n">
-        <v>314.7</v>
+        <v>314.98</v>
       </c>
       <c r="N22" t="n">
         <v>340.87</v>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>347.32</v>
+        <v>347.41</v>
       </c>
       <c r="N23" t="n">
         <v>357.52</v>
@@ -2085,7 +2085,7 @@
         <v>337.54</v>
       </c>
       <c r="M24" t="n">
-        <v>343.84</v>
+        <v>344.05</v>
       </c>
       <c r="N24" t="n">
         <v>367.57</v>
@@ -2150,7 +2150,7 @@
         <v>321.32</v>
       </c>
       <c r="M25" t="n">
-        <v>322.95</v>
+        <v>322.6</v>
       </c>
       <c r="N25" t="n">
         <v>331.36</v>
@@ -2217,7 +2217,7 @@
         <v>328.46</v>
       </c>
       <c r="M26" t="n">
-        <v>340.7</v>
+        <v>340.96</v>
       </c>
       <c r="N26" t="n">
         <v>358.31</v>
@@ -2286,7 +2286,7 @@
         <v>326.13</v>
       </c>
       <c r="M27" t="n">
-        <v>338.48</v>
+        <v>338.44</v>
       </c>
       <c r="N27" t="n">
         <v>355.7</v>
@@ -2461,7 +2461,7 @@
         <v>326.3</v>
       </c>
       <c r="M30" t="n">
-        <v>330.91</v>
+        <v>330.76</v>
       </c>
       <c r="N30" t="n">
         <v>347.8</v>
@@ -2522,7 +2522,7 @@
         <v>311.46</v>
       </c>
       <c r="M31" t="n">
-        <v>299.44</v>
+        <v>299.56</v>
       </c>
       <c r="N31" t="n">
         <v>328.45</v>
@@ -2573,7 +2573,7 @@
         <v>312.19</v>
       </c>
       <c r="M32" t="n">
-        <v>317.31</v>
+        <v>316.93</v>
       </c>
       <c r="N32" t="n">
         <v>334.54</v>
@@ -2626,7 +2626,7 @@
         <v>330.76</v>
       </c>
       <c r="M33" t="n">
-        <v>339</v>
+        <v>338.7</v>
       </c>
       <c r="N33" t="n">
         <v>358.71</v>
@@ -2695,7 +2695,7 @@
         <v>341.29</v>
       </c>
       <c r="M34" t="n">
-        <v>345.95</v>
+        <v>346.15</v>
       </c>
       <c r="N34" t="n">
         <v>366.31</v>
@@ -2803,7 +2803,7 @@
         <v>318.33</v>
       </c>
       <c r="M36" t="n">
-        <v>333.78</v>
+        <v>333.83</v>
       </c>
       <c r="N36" t="n">
         <v>350.34</v>
@@ -2870,7 +2870,7 @@
         <v>328.05</v>
       </c>
       <c r="M37" t="n">
-        <v>339.66</v>
+        <v>339.84</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2935,7 +2935,7 @@
         <v>332.24</v>
       </c>
       <c r="M38" t="n">
-        <v>339.3</v>
+        <v>339.14</v>
       </c>
       <c r="N38" t="n">
         <v>354.19</v>
@@ -3000,7 +3000,7 @@
         <v>332.36</v>
       </c>
       <c r="M39" t="n">
-        <v>344.2</v>
+        <v>344.37</v>
       </c>
       <c r="N39" t="n">
         <v>358.44</v>
@@ -3104,7 +3104,7 @@
         <v>330.36</v>
       </c>
       <c r="M41" t="n">
-        <v>339.43</v>
+        <v>339.21</v>
       </c>
       <c r="N41" t="n">
         <v>346.9</v>
@@ -3173,7 +3173,7 @@
         <v>339.17</v>
       </c>
       <c r="M42" t="n">
-        <v>345.59</v>
+        <v>345.42</v>
       </c>
       <c r="N42" t="n">
         <v>359.44</v>
@@ -3236,7 +3236,7 @@
         <v>323.23</v>
       </c>
       <c r="M43" t="n">
-        <v>333.9</v>
+        <v>333.83</v>
       </c>
       <c r="N43" t="n">
         <v>349.15</v>
@@ -3301,7 +3301,7 @@
         <v>321.01</v>
       </c>
       <c r="M44" t="n">
-        <v>342.01</v>
+        <v>342.33</v>
       </c>
       <c r="N44" t="n">
         <v>357.94</v>
@@ -3370,7 +3370,7 @@
         <v>344.06</v>
       </c>
       <c r="M45" t="n">
-        <v>348.72</v>
+        <v>348.41</v>
       </c>
       <c r="N45" t="n">
         <v>381.86</v>
@@ -3437,7 +3437,7 @@
         <v>312.93</v>
       </c>
       <c r="M46" t="n">
-        <v>329.3</v>
+        <v>329.31</v>
       </c>
       <c r="N46" t="n">
         <v>343.23</v>
@@ -3571,7 +3571,7 @@
         <v>336.85</v>
       </c>
       <c r="M48" t="n">
-        <v>346.08</v>
+        <v>346.15</v>
       </c>
       <c r="N48" t="n">
         <v>356.98</v>
@@ -3636,7 +3636,7 @@
         <v>322.28</v>
       </c>
       <c r="M49" t="n">
-        <v>338.51</v>
+        <v>338.16</v>
       </c>
       <c r="N49" t="n">
         <v>342.72</v>
@@ -3699,7 +3699,7 @@
         <v>317.7</v>
       </c>
       <c r="M50" t="n">
-        <v>332.44</v>
+        <v>332.16</v>
       </c>
       <c r="N50" t="n">
         <v>342.68</v>
@@ -3764,7 +3764,7 @@
         <v>330.24</v>
       </c>
       <c r="M51" t="n">
-        <v>338.97</v>
+        <v>339.18</v>
       </c>
       <c r="N51" t="n">
         <v>355.78</v>
@@ -3833,7 +3833,7 @@
         <v>327.65</v>
       </c>
       <c r="M52" t="n">
-        <v>336.41</v>
+        <v>336.46</v>
       </c>
       <c r="N52" t="n">
         <v>358.88</v>
@@ -3898,7 +3898,7 @@
         <v>334.91</v>
       </c>
       <c r="M53" t="n">
-        <v>341.02</v>
+        <v>341.19</v>
       </c>
       <c r="N53" t="n">
         <v>363.24</v>
@@ -3967,7 +3967,7 @@
         <v>350.6</v>
       </c>
       <c r="M54" t="n">
-        <v>360.66</v>
+        <v>360.49</v>
       </c>
       <c r="N54" t="n">
         <v>374.54</v>
@@ -4016,7 +4016,7 @@
         <v>313.08</v>
       </c>
       <c r="M55" t="n">
-        <v>303.7</v>
+        <v>303.39</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="n">
@@ -4069,7 +4069,7 @@
         <v>332.09</v>
       </c>
       <c r="M56" t="n">
-        <v>331.46</v>
+        <v>331.63</v>
       </c>
       <c r="N56" t="n">
         <v>348.91</v>
@@ -4130,7 +4130,7 @@
         <v>326.89</v>
       </c>
       <c r="M57" t="n">
-        <v>339.54</v>
+        <v>339.66</v>
       </c>
       <c r="N57" t="n">
         <v>350.61</v>
@@ -4195,7 +4195,7 @@
         <v>345.48</v>
       </c>
       <c r="M58" t="n">
-        <v>359.19</v>
+        <v>359.37</v>
       </c>
       <c r="N58" t="n">
         <v>350.73</v>
@@ -4260,7 +4260,7 @@
         <v>313.41</v>
       </c>
       <c r="M59" t="n">
-        <v>328.8</v>
+        <v>329.03</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -4325,7 +4325,7 @@
         <v>317.46</v>
       </c>
       <c r="M60" t="n">
-        <v>331.38</v>
+        <v>331.16</v>
       </c>
       <c r="N60" t="n">
         <v>337.42</v>
@@ -4394,7 +4394,7 @@
         <v>340.26</v>
       </c>
       <c r="M61" t="n">
-        <v>349.89</v>
+        <v>350.1</v>
       </c>
       <c r="N61" t="n">
         <v>356.37</v>
@@ -4459,7 +4459,7 @@
         <v>326.07</v>
       </c>
       <c r="M62" t="n">
-        <v>330.94</v>
+        <v>331.08</v>
       </c>
       <c r="N62" t="n">
         <v>351.98</v>
@@ -4522,7 +4522,7 @@
         <v>331.99</v>
       </c>
       <c r="M63" t="n">
-        <v>340.16</v>
+        <v>340</v>
       </c>
       <c r="N63" t="n">
         <v>354.29</v>
@@ -4587,7 +4587,7 @@
         <v>337.87</v>
       </c>
       <c r="M64" t="n">
-        <v>345.98</v>
+        <v>346.17</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -4650,7 +4650,7 @@
         <v>332.47</v>
       </c>
       <c r="M65" t="n">
-        <v>344.94</v>
+        <v>344.65</v>
       </c>
       <c r="N65" t="n">
         <v>353.87</v>
@@ -4717,7 +4717,7 @@
         <v>321.53</v>
       </c>
       <c r="M66" t="n">
-        <v>328.32</v>
+        <v>328.65</v>
       </c>
       <c r="N66" t="n">
         <v>352.69</v>
@@ -4780,7 +4780,7 @@
         <v>325.14</v>
       </c>
       <c r="M67" t="n">
-        <v>330.39</v>
+        <v>330.53</v>
       </c>
       <c r="N67" t="n">
         <v>353.53</v>
@@ -4843,7 +4843,7 @@
         <v>317.63</v>
       </c>
       <c r="M68" t="n">
-        <v>331.12</v>
+        <v>331</v>
       </c>
       <c r="N68" t="n">
         <v>341.72</v>
@@ -4976,7 +4976,7 @@
         <v>323.19</v>
       </c>
       <c r="M71" t="n">
-        <v>333.64</v>
+        <v>333.7</v>
       </c>
       <c r="N71" t="n">
         <v>344.3</v>
@@ -5102,7 +5102,7 @@
         <v>331.59</v>
       </c>
       <c r="M73" t="n">
-        <v>339.67</v>
+        <v>339.35</v>
       </c>
       <c r="N73" t="n">
         <v>352.73</v>
@@ -5167,7 +5167,7 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>341.17</v>
+        <v>340.95</v>
       </c>
       <c r="N74" t="n">
         <v>353.51</v>
@@ -5232,7 +5232,7 @@
         <v>334.16</v>
       </c>
       <c r="M75" t="n">
-        <v>344.68</v>
+        <v>344.47</v>
       </c>
       <c r="N75" t="n">
         <v>363.8</v>
@@ -5336,7 +5336,7 @@
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>331.43</v>
+        <v>331.54</v>
       </c>
       <c r="N77" t="n">
         <v>343.57</v>
@@ -5395,7 +5395,7 @@
         <v>323.24</v>
       </c>
       <c r="M78" t="n">
-        <v>335.86</v>
+        <v>335.49</v>
       </c>
       <c r="N78" t="n">
         <v>338.35</v>
@@ -5580,7 +5580,7 @@
         <v>309.8</v>
       </c>
       <c r="M81" t="n">
-        <v>315.32</v>
+        <v>315.03</v>
       </c>
       <c r="N81" t="n">
         <v>328.12</v>
@@ -5641,7 +5641,7 @@
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>334.01</v>
+        <v>334.36</v>
       </c>
       <c r="N82" t="n">
         <v>355.47</v>
@@ -5708,7 +5708,7 @@
         <v>315.57</v>
       </c>
       <c r="M83" t="n">
-        <v>329.43</v>
+        <v>329.53</v>
       </c>
       <c r="N83" t="n">
         <v>347.77</v>
@@ -5773,7 +5773,7 @@
         <v>321.03</v>
       </c>
       <c r="M84" t="n">
-        <v>330.59</v>
+        <v>330.87</v>
       </c>
       <c r="N84" t="n">
         <v>345.29</v>
@@ -5842,7 +5842,7 @@
         <v>324.4</v>
       </c>
       <c r="M85" t="n">
-        <v>338.31</v>
+        <v>338.39</v>
       </c>
       <c r="N85" t="n">
         <v>352.42</v>
@@ -5899,7 +5899,7 @@
         <v>329.58</v>
       </c>
       <c r="M86" t="n">
-        <v>340.24</v>
+        <v>339.97</v>
       </c>
       <c r="N86" t="n">
         <v>356.86</v>
@@ -5962,7 +5962,7 @@
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>333.49</v>
+        <v>333.7</v>
       </c>
       <c r="N87" t="n">
         <v>351.41</v>
@@ -6027,7 +6027,7 @@
         <v>313.74</v>
       </c>
       <c r="M88" t="n">
-        <v>331.31</v>
+        <v>331.44</v>
       </c>
       <c r="N88" t="n">
         <v>347.69</v>
@@ -6088,7 +6088,7 @@
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>302.39</v>
+        <v>302.26</v>
       </c>
       <c r="N89" t="n">
         <v>323</v>
@@ -6153,7 +6153,7 @@
         <v>298.5</v>
       </c>
       <c r="M90" t="n">
-        <v>305.42</v>
+        <v>305.24</v>
       </c>
       <c r="N90" t="n">
         <v>318.12</v>
@@ -6222,7 +6222,7 @@
         <v>331.2</v>
       </c>
       <c r="M91" t="n">
-        <v>347.14</v>
+        <v>347.23</v>
       </c>
       <c r="N91" t="n">
         <v>361.39</v>
@@ -6287,7 +6287,7 @@
         <v>317.25</v>
       </c>
       <c r="M92" t="n">
-        <v>325.44</v>
+        <v>325.1</v>
       </c>
       <c r="N92" t="n">
         <v>335.61</v>
@@ -6417,7 +6417,7 @@
         <v>331.35</v>
       </c>
       <c r="M94" t="n">
-        <v>338.74</v>
+        <v>338.83</v>
       </c>
       <c r="N94" t="n">
         <v>359.08</v>
@@ -6482,7 +6482,7 @@
         <v>316.61</v>
       </c>
       <c r="M95" t="n">
-        <v>328.29</v>
+        <v>328.28</v>
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
@@ -6543,7 +6543,7 @@
         <v>330.18</v>
       </c>
       <c r="M96" t="n">
-        <v>346.49</v>
+        <v>346.81</v>
       </c>
       <c r="N96" t="n">
         <v>357.25</v>
@@ -6671,7 +6671,7 @@
         <v>323.69</v>
       </c>
       <c r="M98" t="n">
-        <v>340.12</v>
+        <v>340.29</v>
       </c>
       <c r="N98" t="n">
         <v>353.41</v>
@@ -6736,7 +6736,7 @@
         <v>325.69</v>
       </c>
       <c r="M99" t="n">
-        <v>333.77</v>
+        <v>333.86</v>
       </c>
       <c r="N99" t="n">
         <v>353.68</v>
@@ -6801,7 +6801,7 @@
         <v>345.7</v>
       </c>
       <c r="M100" t="n">
-        <v>353.14</v>
+        <v>352.98</v>
       </c>
       <c r="N100" t="n">
         <v>366.05</v>
@@ -6864,7 +6864,7 @@
         <v>346.33</v>
       </c>
       <c r="M101" t="n">
-        <v>350.38</v>
+        <v>350.14</v>
       </c>
       <c r="N101" t="n">
         <v>359.43</v>
@@ -6921,7 +6921,7 @@
         <v>337.79</v>
       </c>
       <c r="M102" t="n">
-        <v>344.22</v>
+        <v>343.96</v>
       </c>
       <c r="N102" t="n">
         <v>359.23</v>
@@ -6988,7 +6988,7 @@
         <v>345.24</v>
       </c>
       <c r="M103" t="n">
-        <v>351.05</v>
+        <v>350.74</v>
       </c>
       <c r="N103" t="n">
         <v>357.15</v>
@@ -7053,7 +7053,7 @@
         <v>326.11</v>
       </c>
       <c r="M104" t="n">
-        <v>330.79</v>
+        <v>330.93</v>
       </c>
       <c r="N104" t="n">
         <v>350.16</v>
@@ -7114,7 +7114,7 @@
         <v>317.63</v>
       </c>
       <c r="M105" t="n">
-        <v>327.24</v>
+        <v>327.23</v>
       </c>
       <c r="N105" t="n">
         <v>339.01</v>
@@ -7179,7 +7179,7 @@
         <v>321.15</v>
       </c>
       <c r="M106" t="n">
-        <v>321.19</v>
+        <v>320.91</v>
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -7244,7 +7244,7 @@
         <v>328.01</v>
       </c>
       <c r="M107" t="n">
-        <v>339.31</v>
+        <v>339.57</v>
       </c>
       <c r="N107" t="n">
         <v>355.11</v>
@@ -7313,7 +7313,7 @@
         <v>325.12</v>
       </c>
       <c r="M108" t="n">
-        <v>338.43</v>
+        <v>338.65</v>
       </c>
       <c r="N108" t="n">
         <v>353.96</v>
@@ -7382,7 +7382,7 @@
         <v>335.3</v>
       </c>
       <c r="M109" t="n">
-        <v>351.24</v>
+        <v>351.33</v>
       </c>
       <c r="N109" t="n">
         <v>362.79</v>
@@ -7449,7 +7449,7 @@
         <v>321.3</v>
       </c>
       <c r="M110" t="n">
-        <v>332.17</v>
+        <v>332.19</v>
       </c>
       <c r="N110" t="n">
         <v>344.9</v>
@@ -7514,7 +7514,7 @@
         <v>310.36</v>
       </c>
       <c r="M111" t="n">
-        <v>321.7</v>
+        <v>321.94</v>
       </c>
       <c r="N111" t="n">
         <v>341.98</v>
@@ -7581,7 +7581,7 @@
         <v>323.48</v>
       </c>
       <c r="M112" t="n">
-        <v>334.59</v>
+        <v>334.44</v>
       </c>
       <c r="N112" t="n">
         <v>353.99</v>
@@ -7691,7 +7691,7 @@
         <v>299.85</v>
       </c>
       <c r="M114" t="n">
-        <v>319.36</v>
+        <v>319.51</v>
       </c>
       <c r="N114" t="n">
         <v>338.14</v>
@@ -7748,7 +7748,7 @@
         <v>331.41</v>
       </c>
       <c r="M115" t="n">
-        <v>344.03</v>
+        <v>343.65</v>
       </c>
       <c r="N115" t="n">
         <v>360.28</v>
@@ -7809,7 +7809,7 @@
         <v>319.39</v>
       </c>
       <c r="M116" t="n">
-        <v>332.09</v>
+        <v>332.12</v>
       </c>
       <c r="N116" t="n">
         <v>348.45</v>
@@ -7872,7 +7872,7 @@
         <v>321.7</v>
       </c>
       <c r="M117" t="n">
-        <v>324.65</v>
+        <v>324.93</v>
       </c>
       <c r="N117" t="n">
         <v>342.48</v>
@@ -7982,7 +7982,7 @@
         <v>332.14</v>
       </c>
       <c r="M119" t="n">
-        <v>356.48</v>
+        <v>356.29</v>
       </c>
       <c r="N119" t="n">
         <v>361.86</v>
@@ -8037,7 +8037,7 @@
         <v>332.97</v>
       </c>
       <c r="M120" t="n">
-        <v>358.23</v>
+        <v>358.46</v>
       </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
@@ -8088,7 +8088,7 @@
         <v>327.53</v>
       </c>
       <c r="M121" t="n">
-        <v>341.84</v>
+        <v>342.09</v>
       </c>
       <c r="N121" t="n">
         <v>352.35</v>
@@ -8273,7 +8273,7 @@
         <v>318.95</v>
       </c>
       <c r="M124" t="n">
-        <v>336.05</v>
+        <v>336.2</v>
       </c>
       <c r="N124" t="n">
         <v>353.82</v>
@@ -8403,7 +8403,7 @@
         <v>338.19</v>
       </c>
       <c r="M126" t="n">
-        <v>348.11</v>
+        <v>347.75</v>
       </c>
       <c r="N126" t="n">
         <v>363.31</v>
@@ -8521,7 +8521,7 @@
         <v>333.83</v>
       </c>
       <c r="M128" t="n">
-        <v>344.47</v>
+        <v>344.73</v>
       </c>
       <c r="N128" t="n">
         <v>357.86</v>
@@ -8578,7 +8578,7 @@
         <v>337.76</v>
       </c>
       <c r="M129" t="n">
-        <v>350.94</v>
+        <v>350.95</v>
       </c>
       <c r="N129" t="n">
         <v>360.47</v>
@@ -8645,7 +8645,7 @@
         <v>337.17</v>
       </c>
       <c r="M130" t="n">
-        <v>343.13</v>
+        <v>343.11</v>
       </c>
       <c r="N130" t="n">
         <v>361.87</v>
@@ -8700,7 +8700,7 @@
         <v>338.39</v>
       </c>
       <c r="M131" t="n">
-        <v>341.98</v>
+        <v>341.97</v>
       </c>
       <c r="N131" t="n">
         <v>352.7</v>
@@ -8836,7 +8836,7 @@
         <v>329.95</v>
       </c>
       <c r="M133" t="n">
-        <v>339</v>
+        <v>339.35</v>
       </c>
       <c r="N133" t="n">
         <v>357.79</v>
@@ -8901,7 +8901,7 @@
         <v>333.44</v>
       </c>
       <c r="M134" t="n">
-        <v>342.98</v>
+        <v>342.62</v>
       </c>
       <c r="N134" t="n">
         <v>355.87</v>
@@ -8966,7 +8966,7 @@
         <v>335.88</v>
       </c>
       <c r="M135" t="n">
-        <v>336.34</v>
+        <v>336.6</v>
       </c>
       <c r="N135" t="n">
         <v>360.45</v>
@@ -9035,7 +9035,7 @@
         <v>347.72</v>
       </c>
       <c r="M136" t="n">
-        <v>341.05</v>
+        <v>340.87</v>
       </c>
       <c r="N136" t="n">
         <v>359.12</v>
@@ -9102,7 +9102,7 @@
         <v>327.24</v>
       </c>
       <c r="M137" t="n">
-        <v>344.21</v>
+        <v>344.5</v>
       </c>
       <c r="N137" t="n">
         <v>358.03</v>
@@ -9167,7 +9167,7 @@
         <v>315.09</v>
       </c>
       <c r="M138" t="n">
-        <v>332.16</v>
+        <v>331.82</v>
       </c>
       <c r="N138" t="n">
         <v>338.21</v>
@@ -9232,7 +9232,7 @@
         <v>303.6</v>
       </c>
       <c r="M139" t="n">
-        <v>311.45</v>
+        <v>311.1</v>
       </c>
       <c r="N139" t="n">
         <v>319.48</v>
@@ -9295,7 +9295,7 @@
         <v>317.33</v>
       </c>
       <c r="M140" t="n">
-        <v>333.15</v>
+        <v>333.34</v>
       </c>
       <c r="N140" t="n">
         <v>355.2</v>
@@ -9364,7 +9364,7 @@
         <v>326.09</v>
       </c>
       <c r="M141" t="n">
-        <v>331.43</v>
+        <v>331.72</v>
       </c>
       <c r="N141" t="n">
         <v>353.57</v>
@@ -9429,7 +9429,7 @@
         <v>328.3</v>
       </c>
       <c r="M142" t="n">
-        <v>340.36</v>
+        <v>339.97</v>
       </c>
       <c r="N142" t="n">
         <v>344.57</v>
@@ -9496,7 +9496,7 @@
         <v>334.47</v>
       </c>
       <c r="M143" t="n">
-        <v>334.87</v>
+        <v>335.08</v>
       </c>
       <c r="N143" t="n">
         <v>356.33</v>
@@ -9563,7 +9563,7 @@
         <v>318.58</v>
       </c>
       <c r="M144" t="n">
-        <v>330.29</v>
+        <v>330.2</v>
       </c>
       <c r="N144" t="n">
         <v>342.87</v>
@@ -9628,7 +9628,7 @@
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>332.64</v>
+        <v>332.65</v>
       </c>
       <c r="N145" t="n">
         <v>347.63</v>
@@ -9697,7 +9697,7 @@
         <v>335.48</v>
       </c>
       <c r="M146" t="n">
-        <v>343.93</v>
+        <v>343.78</v>
       </c>
       <c r="N146" t="n">
         <v>360.96</v>
@@ -9760,7 +9760,7 @@
         <v>317.12</v>
       </c>
       <c r="M147" t="n">
-        <v>331.63</v>
+        <v>331.79</v>
       </c>
       <c r="N147" t="n">
         <v>347.64</v>
@@ -9825,7 +9825,7 @@
         <v>342.4</v>
       </c>
       <c r="M148" t="n">
-        <v>346.07</v>
+        <v>345.86</v>
       </c>
       <c r="N148" t="n">
         <v>360.81</v>
@@ -9888,7 +9888,7 @@
         <v>317.69</v>
       </c>
       <c r="M149" t="n">
-        <v>333.07</v>
+        <v>333.01</v>
       </c>
       <c r="N149" t="n">
         <v>342.26</v>
@@ -10022,7 +10022,7 @@
         <v>328.75</v>
       </c>
       <c r="M151" t="n">
-        <v>339.32</v>
+        <v>339.58</v>
       </c>
       <c r="N151" t="n">
         <v>356.14</v>
@@ -10091,7 +10091,7 @@
         <v>327.46</v>
       </c>
       <c r="M152" t="n">
-        <v>330.76</v>
+        <v>331</v>
       </c>
       <c r="N152" t="n">
         <v>354.65</v>
@@ -10160,7 +10160,7 @@
         <v>337.73</v>
       </c>
       <c r="M153" t="n">
-        <v>339.18</v>
+        <v>338.96</v>
       </c>
       <c r="N153" t="n">
         <v>352.53</v>
@@ -10280,7 +10280,7 @@
         <v>335.82</v>
       </c>
       <c r="M155" t="n">
-        <v>340.62</v>
+        <v>340.83</v>
       </c>
       <c r="N155" t="n">
         <v>360.13</v>
@@ -10349,7 +10349,7 @@
         <v>310.13</v>
       </c>
       <c r="M156" t="n">
-        <v>319.72</v>
+        <v>320.01</v>
       </c>
       <c r="N156" t="n">
         <v>351.23</v>
@@ -10404,7 +10404,7 @@
         <v>309.37</v>
       </c>
       <c r="M157" t="n">
-        <v>319.83</v>
+        <v>319.43</v>
       </c>
       <c r="N157" t="n">
         <v>327.45</v>
@@ -10469,7 +10469,7 @@
         <v>319.74</v>
       </c>
       <c r="M158" t="n">
-        <v>329.97</v>
+        <v>329.77</v>
       </c>
       <c r="N158" t="n">
         <v>358.33</v>
@@ -10536,7 +10536,7 @@
         <v>319.49</v>
       </c>
       <c r="M159" t="n">
-        <v>333.46</v>
+        <v>333.65</v>
       </c>
       <c r="N159" t="n">
         <v>347.45</v>
@@ -10605,7 +10605,7 @@
         <v>327.61</v>
       </c>
       <c r="M160" t="n">
-        <v>339.75</v>
+        <v>339.56</v>
       </c>
       <c r="N160" t="n">
         <v>360.11</v>
@@ -10784,7 +10784,7 @@
         <v>346.55</v>
       </c>
       <c r="M163" t="n">
-        <v>344.59</v>
+        <v>344.43</v>
       </c>
       <c r="N163" t="n">
         <v>361.34</v>
@@ -10849,7 +10849,7 @@
         <v>312.63</v>
       </c>
       <c r="M164" t="n">
-        <v>328.64</v>
+        <v>328.57</v>
       </c>
       <c r="N164" t="n">
         <v>344.47</v>
@@ -10918,7 +10918,7 @@
         <v>336.65</v>
       </c>
       <c r="M165" t="n">
-        <v>339.22</v>
+        <v>339.24</v>
       </c>
       <c r="N165" t="n">
         <v>357.35</v>
@@ -10985,7 +10985,7 @@
         <v>337.92</v>
       </c>
       <c r="M166" t="n">
-        <v>347.54</v>
+        <v>347.27</v>
       </c>
       <c r="N166" t="n">
         <v>357.86</v>
@@ -11048,7 +11048,7 @@
         <v>331.5</v>
       </c>
       <c r="M167" t="n">
-        <v>345.81</v>
+        <v>346.06</v>
       </c>
       <c r="N167" t="n">
         <v>354.4</v>
@@ -11113,7 +11113,7 @@
         <v>333.11</v>
       </c>
       <c r="M168" t="n">
-        <v>338.52</v>
+        <v>338.81</v>
       </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
@@ -11174,7 +11174,7 @@
         <v>323.63</v>
       </c>
       <c r="M169" t="n">
-        <v>330.34</v>
+        <v>330.51</v>
       </c>
       <c r="N169" t="n">
         <v>342.7</v>
@@ -11243,7 +11243,7 @@
         <v>331.08</v>
       </c>
       <c r="M170" t="n">
-        <v>340.24</v>
+        <v>340.46</v>
       </c>
       <c r="N170" t="n">
         <v>359.51</v>
@@ -11308,7 +11308,7 @@
         <v>340.82</v>
       </c>
       <c r="M171" t="n">
-        <v>353.35</v>
+        <v>353.32</v>
       </c>
       <c r="N171" t="n">
         <v>362.57</v>
@@ -11373,7 +11373,7 @@
         <v>341.47</v>
       </c>
       <c r="M172" t="n">
-        <v>340.19</v>
+        <v>340.23</v>
       </c>
       <c r="N172" t="n">
         <v>362.21</v>
@@ -11438,7 +11438,7 @@
         <v>328.03</v>
       </c>
       <c r="M173" t="n">
-        <v>344.01</v>
+        <v>344.36</v>
       </c>
       <c r="N173" t="n">
         <v>355.49</v>
@@ -11501,7 +11501,7 @@
         <v>325.74</v>
       </c>
       <c r="M174" t="n">
-        <v>326.94</v>
+        <v>327.23</v>
       </c>
       <c r="N174" t="n">
         <v>349.64</v>
@@ -11570,7 +11570,7 @@
         <v>346.81</v>
       </c>
       <c r="M175" t="n">
-        <v>344.57</v>
+        <v>344.23</v>
       </c>
       <c r="N175" t="n">
         <v>360.08</v>
@@ -11635,7 +11635,7 @@
         <v>336.01</v>
       </c>
       <c r="M176" t="n">
-        <v>338.92</v>
+        <v>339.18</v>
       </c>
       <c r="N176" t="n">
         <v>356.48</v>
@@ -11755,7 +11755,7 @@
         <v>306.73</v>
       </c>
       <c r="M178" t="n">
-        <v>338.38</v>
+        <v>338.27</v>
       </c>
       <c r="N178" t="n">
         <v>357.89</v>
@@ -11814,7 +11814,7 @@
         <v>340.21</v>
       </c>
       <c r="M179" t="n">
-        <v>331.41</v>
+        <v>331.47</v>
       </c>
       <c r="N179" t="n">
         <v>355.65</v>
@@ -11879,7 +11879,7 @@
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
-        <v>339.61</v>
+        <v>339.37</v>
       </c>
       <c r="N180" t="n">
         <v>348.45</v>
@@ -11948,7 +11948,7 @@
         <v>333.44</v>
       </c>
       <c r="M181" t="n">
-        <v>339.74</v>
+        <v>340.02</v>
       </c>
       <c r="N181" t="n">
         <v>357.34</v>
@@ -12082,7 +12082,7 @@
         <v>331.74</v>
       </c>
       <c r="M183" t="n">
-        <v>342.93</v>
+        <v>342.65</v>
       </c>
       <c r="N183" t="n">
         <v>357.93</v>
@@ -12149,7 +12149,7 @@
         <v>323.27</v>
       </c>
       <c r="M184" t="n">
-        <v>328.39</v>
+        <v>328.67</v>
       </c>
       <c r="N184" t="n">
         <v>350.9</v>
@@ -12214,7 +12214,7 @@
         <v>334.26</v>
       </c>
       <c r="M185" t="n">
-        <v>342.01</v>
+        <v>341.59</v>
       </c>
       <c r="N185" t="n">
         <v>358.22</v>
@@ -12283,7 +12283,7 @@
         <v>353.36</v>
       </c>
       <c r="M186" t="n">
-        <v>351.53</v>
+        <v>351.13</v>
       </c>
       <c r="N186" t="n">
         <v>364.19</v>
@@ -12348,7 +12348,7 @@
         <v>313.01</v>
       </c>
       <c r="M187" t="n">
-        <v>327.41</v>
+        <v>327.6</v>
       </c>
       <c r="N187" t="n">
         <v>342.58</v>
@@ -12407,7 +12407,7 @@
         <v>324.58</v>
       </c>
       <c r="M188" t="n">
-        <v>332.27</v>
+        <v>332.36</v>
       </c>
       <c r="N188" t="n">
         <v>354.14</v>
@@ -12472,7 +12472,7 @@
         <v>344.91</v>
       </c>
       <c r="M189" t="n">
-        <v>341.9</v>
+        <v>341.83</v>
       </c>
       <c r="N189" t="n">
         <v>360.58</v>
@@ -12537,7 +12537,7 @@
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
-        <v>337.02</v>
+        <v>336.85</v>
       </c>
       <c r="N190" t="n">
         <v>353.61</v>
@@ -12639,7 +12639,7 @@
         <v>334.41</v>
       </c>
       <c r="M192" t="n">
-        <v>344.29</v>
+        <v>343.9</v>
       </c>
       <c r="N192" t="n">
         <v>356.6</v>
@@ -12694,7 +12694,7 @@
         <v>337.88</v>
       </c>
       <c r="M193" t="n">
-        <v>338.49</v>
+        <v>338.7</v>
       </c>
       <c r="N193" t="n">
         <v>358.22</v>
@@ -12763,7 +12763,7 @@
         <v>336.02</v>
       </c>
       <c r="M194" t="n">
-        <v>351.95</v>
+        <v>352.25</v>
       </c>
       <c r="N194" t="n">
         <v>358.6</v>
@@ -12832,7 +12832,7 @@
         <v>323.86</v>
       </c>
       <c r="M195" t="n">
-        <v>339</v>
+        <v>338.82</v>
       </c>
       <c r="N195" t="n">
         <v>358.99</v>
@@ -12964,7 +12964,7 @@
         <v>333.02</v>
       </c>
       <c r="M197" t="n">
-        <v>340.77</v>
+        <v>340.57</v>
       </c>
       <c r="N197" t="n">
         <v>354.77</v>
@@ -13029,7 +13029,7 @@
         <v>334.61</v>
       </c>
       <c r="M198" t="n">
-        <v>338.65</v>
+        <v>338.92</v>
       </c>
       <c r="N198" t="n">
         <v>356.25</v>
@@ -13133,7 +13133,7 @@
         <v>334.16</v>
       </c>
       <c r="M200" t="n">
-        <v>343.74</v>
+        <v>343.61</v>
       </c>
       <c r="N200" t="n">
         <v>359</v>
@@ -13196,7 +13196,7 @@
         <v>306.38</v>
       </c>
       <c r="M201" t="n">
-        <v>322.99</v>
+        <v>322.84</v>
       </c>
       <c r="N201" t="n">
         <v>329.97</v>
@@ -13255,7 +13255,7 @@
         <v>333.62</v>
       </c>
       <c r="M202" t="n">
-        <v>342.53</v>
+        <v>342.09</v>
       </c>
       <c r="N202" t="n">
         <v>352.63</v>
@@ -13318,7 +13318,7 @@
         <v>330.35</v>
       </c>
       <c r="M203" t="n">
-        <v>338.04</v>
+        <v>337.96</v>
       </c>
       <c r="N203" t="n">
         <v>352.3</v>
@@ -13375,7 +13375,7 @@
         <v>323.25</v>
       </c>
       <c r="M204" t="n">
-        <v>332.73</v>
+        <v>332.92</v>
       </c>
       <c r="N204" t="n">
         <v>349.6</v>
@@ -13501,7 +13501,7 @@
         <v>324.1</v>
       </c>
       <c r="M206" t="n">
-        <v>337.22</v>
+        <v>337.05</v>
       </c>
       <c r="N206" t="n">
         <v>345.98</v>
@@ -13562,7 +13562,7 @@
         <v>337.84</v>
       </c>
       <c r="M207" t="n">
-        <v>346.39</v>
+        <v>346.18</v>
       </c>
       <c r="N207" t="n">
         <v>358.53</v>
@@ -13629,7 +13629,7 @@
         <v>335.3</v>
       </c>
       <c r="M208" t="n">
-        <v>355.25</v>
+        <v>355.56</v>
       </c>
       <c r="N208" t="n">
         <v>372.55</v>
@@ -13694,7 +13694,7 @@
         <v>320.3</v>
       </c>
       <c r="M209" t="n">
-        <v>332.76</v>
+        <v>332.46</v>
       </c>
       <c r="N209" t="n">
         <v>345.53</v>
@@ -13757,7 +13757,7 @@
         <v>338.06</v>
       </c>
       <c r="M210" t="n">
-        <v>341.99</v>
+        <v>341.62</v>
       </c>
       <c r="N210" t="n">
         <v>358.47</v>
@@ -13824,7 +13824,7 @@
         <v>339.62</v>
       </c>
       <c r="M211" t="n">
-        <v>342.68</v>
+        <v>342.91</v>
       </c>
       <c r="N211" t="n">
         <v>362.61</v>
@@ -13893,7 +13893,7 @@
         <v>325.88</v>
       </c>
       <c r="M212" t="n">
-        <v>335.37</v>
+        <v>335.36</v>
       </c>
       <c r="N212" t="n">
         <v>356.05</v>
@@ -13960,7 +13960,7 @@
         <v>336.26</v>
       </c>
       <c r="M213" t="n">
-        <v>350.18</v>
+        <v>350.19</v>
       </c>
       <c r="N213" t="n">
         <v>360.09</v>
@@ -14092,7 +14092,7 @@
         <v>327.73</v>
       </c>
       <c r="M215" t="n">
-        <v>338.54</v>
+        <v>338.15</v>
       </c>
       <c r="N215" t="n">
         <v>357.77</v>
@@ -14157,7 +14157,7 @@
         <v>329.3</v>
       </c>
       <c r="M216" t="n">
-        <v>331.74</v>
+        <v>331.99</v>
       </c>
       <c r="N216" t="n">
         <v>352.68</v>
@@ -14224,7 +14224,7 @@
         <v>322.12</v>
       </c>
       <c r="M217" t="n">
-        <v>332.3</v>
+        <v>332</v>
       </c>
       <c r="N217" t="n">
         <v>345.11</v>
@@ -14291,7 +14291,7 @@
         <v>318.61</v>
       </c>
       <c r="M218" t="n">
-        <v>330.83</v>
+        <v>331.09</v>
       </c>
       <c r="N218" t="n">
         <v>350.45</v>
@@ -14354,7 +14354,7 @@
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
-        <v>340.94</v>
+        <v>340.99</v>
       </c>
       <c r="N219" t="n">
         <v>357.75</v>
@@ -14423,7 +14423,7 @@
         <v>342</v>
       </c>
       <c r="M220" t="n">
-        <v>347.69</v>
+        <v>347.81</v>
       </c>
       <c r="N220" t="n">
         <v>362.91</v>
@@ -14492,7 +14492,7 @@
         <v>336.24</v>
       </c>
       <c r="M221" t="n">
-        <v>341.71</v>
+        <v>341.94</v>
       </c>
       <c r="N221" t="n">
         <v>358.17</v>
@@ -14557,7 +14557,7 @@
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
-        <v>341.1</v>
+        <v>341.05</v>
       </c>
       <c r="N222" t="n">
         <v>354.47</v>
@@ -14626,7 +14626,7 @@
         <v>340.36</v>
       </c>
       <c r="M223" t="n">
-        <v>348.84</v>
+        <v>348.56</v>
       </c>
       <c r="N223" t="n">
         <v>360.42</v>
@@ -14693,7 +14693,7 @@
         <v>324.36</v>
       </c>
       <c r="M224" t="n">
-        <v>338.53</v>
+        <v>338.77</v>
       </c>
       <c r="N224" t="n">
         <v>352.39</v>
@@ -14758,7 +14758,7 @@
         <v>321.32</v>
       </c>
       <c r="M225" t="n">
-        <v>334.31</v>
+        <v>334.47</v>
       </c>
       <c r="N225" t="n">
         <v>348.75</v>
@@ -14825,7 +14825,7 @@
       </c>
       <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
-        <v>328.41</v>
+        <v>328.42</v>
       </c>
       <c r="N226" t="n">
         <v>345.08</v>
@@ -14894,7 +14894,7 @@
         <v>335.55</v>
       </c>
       <c r="M227" t="n">
-        <v>344.84</v>
+        <v>344.76</v>
       </c>
       <c r="N227" t="n">
         <v>359.86</v>
@@ -14961,7 +14961,7 @@
         <v>331.9</v>
       </c>
       <c r="M228" t="n">
-        <v>341.56</v>
+        <v>341.35</v>
       </c>
       <c r="N228" t="n">
         <v>353.22</v>
@@ -15018,7 +15018,7 @@
         <v>324.19</v>
       </c>
       <c r="M229" t="n">
-        <v>330.41</v>
+        <v>330.73</v>
       </c>
       <c r="N229" t="n">
         <v>361.36</v>
@@ -15081,7 +15081,7 @@
         <v>336.31</v>
       </c>
       <c r="M230" t="n">
-        <v>341.84</v>
+        <v>341.53</v>
       </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
@@ -15146,7 +15146,7 @@
         <v>342.18</v>
       </c>
       <c r="M231" t="n">
-        <v>358.99</v>
+        <v>359.27</v>
       </c>
       <c r="N231" t="n">
         <v>364.84</v>
@@ -15337,7 +15337,7 @@
         <v>344.79</v>
       </c>
       <c r="M234" t="n">
-        <v>359.74</v>
+        <v>359.71</v>
       </c>
       <c r="N234" t="n">
         <v>373.44</v>
@@ -15449,7 +15449,7 @@
         <v>331.71</v>
       </c>
       <c r="M236" t="n">
-        <v>342.27</v>
+        <v>342.58</v>
       </c>
       <c r="N236" t="n">
         <v>360.55</v>
@@ -15516,7 +15516,7 @@
         <v>343.72</v>
       </c>
       <c r="M237" t="n">
-        <v>335.79</v>
+        <v>335.52</v>
       </c>
       <c r="N237" t="n">
         <v>350.92</v>
@@ -15581,7 +15581,7 @@
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
-        <v>327.15</v>
+        <v>326.89</v>
       </c>
       <c r="N238" t="n">
         <v>337.86</v>
@@ -15650,7 +15650,7 @@
         <v>335.44</v>
       </c>
       <c r="M239" t="n">
-        <v>334.59</v>
+        <v>334.74</v>
       </c>
       <c r="N239" t="n">
         <v>357.26</v>
@@ -15719,7 +15719,7 @@
         <v>325.89</v>
       </c>
       <c r="M240" t="n">
-        <v>339.78</v>
+        <v>340.06</v>
       </c>
       <c r="N240" t="n">
         <v>354.27</v>
@@ -15788,7 +15788,7 @@
         <v>333.22</v>
       </c>
       <c r="M241" t="n">
-        <v>333.68</v>
+        <v>333.89</v>
       </c>
       <c r="N241" t="n">
         <v>358.35</v>
@@ -15855,7 +15855,7 @@
         <v>332.56</v>
       </c>
       <c r="M242" t="n">
-        <v>348.06</v>
+        <v>347.88</v>
       </c>
       <c r="N242" t="n">
         <v>361.51</v>
@@ -15922,7 +15922,7 @@
         <v>328.68</v>
       </c>
       <c r="M243" t="n">
-        <v>340.28</v>
+        <v>340.13</v>
       </c>
       <c r="N243" t="n">
         <v>357.61</v>
@@ -15987,7 +15987,7 @@
         <v>329.38</v>
       </c>
       <c r="M244" t="n">
-        <v>336.49</v>
+        <v>336.53</v>
       </c>
       <c r="N244" t="n">
         <v>353.53</v>
@@ -16054,7 +16054,7 @@
         <v>327.62</v>
       </c>
       <c r="M245" t="n">
-        <v>342.97</v>
+        <v>342.71</v>
       </c>
       <c r="N245" t="n">
         <v>360.15</v>
@@ -16117,7 +16117,7 @@
         <v>323.32</v>
       </c>
       <c r="M246" t="n">
-        <v>332.66</v>
+        <v>332.35</v>
       </c>
       <c r="N246" t="n">
         <v>342.97</v>
@@ -16249,7 +16249,7 @@
         <v>325.39</v>
       </c>
       <c r="M248" t="n">
-        <v>341.66</v>
+        <v>341.35</v>
       </c>
       <c r="N248" t="n">
         <v>361</v>
@@ -16371,7 +16371,7 @@
         <v>327.17</v>
       </c>
       <c r="M250" t="n">
-        <v>337.29</v>
+        <v>337.43</v>
       </c>
       <c r="N250" t="n">
         <v>357.17</v>
@@ -16434,7 +16434,7 @@
         <v>327.12</v>
       </c>
       <c r="M251" t="n">
-        <v>336.32</v>
+        <v>336.64</v>
       </c>
       <c r="N251" t="n">
         <v>358.22</v>
@@ -16501,7 +16501,7 @@
         <v>343.86</v>
       </c>
       <c r="M252" t="n">
-        <v>346.13</v>
+        <v>345.71</v>
       </c>
       <c r="N252" t="n">
         <v>362.6</v>
@@ -16566,7 +16566,7 @@
         <v>319.24</v>
       </c>
       <c r="M253" t="n">
-        <v>332.79</v>
+        <v>332.45</v>
       </c>
       <c r="N253" t="n">
         <v>339.88</v>
@@ -16635,7 +16635,7 @@
         <v>338.56</v>
       </c>
       <c r="M254" t="n">
-        <v>340.33</v>
+        <v>340.17</v>
       </c>
       <c r="N254" t="n">
         <v>354.04</v>
@@ -16702,7 +16702,7 @@
         <v>322.05</v>
       </c>
       <c r="M255" t="n">
-        <v>338</v>
+        <v>338.11</v>
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
@@ -16767,7 +16767,7 @@
         <v>316.98</v>
       </c>
       <c r="M256" t="n">
-        <v>336.78</v>
+        <v>337</v>
       </c>
       <c r="N256" t="n">
         <v>348.55</v>
@@ -16836,7 +16836,7 @@
         <v>325.77</v>
       </c>
       <c r="M257" t="n">
-        <v>336.86</v>
+        <v>336.45</v>
       </c>
       <c r="N257" t="n">
         <v>342.02</v>
@@ -16905,7 +16905,7 @@
         <v>340.91</v>
       </c>
       <c r="M258" t="n">
-        <v>352.21</v>
+        <v>352.34</v>
       </c>
       <c r="N258" t="n">
         <v>361.81</v>
@@ -16972,7 +16972,7 @@
         <v>343.79</v>
       </c>
       <c r="M259" t="n">
-        <v>339.25</v>
+        <v>339.19</v>
       </c>
       <c r="N259" t="n">
         <v>358.98</v>
@@ -17039,7 +17039,7 @@
         <v>344.47</v>
       </c>
       <c r="M260" t="n">
-        <v>358.81</v>
+        <v>358.78</v>
       </c>
       <c r="N260" t="n">
         <v>364.38</v>
@@ -17108,7 +17108,7 @@
         <v>332.83</v>
       </c>
       <c r="M261" t="n">
-        <v>343.52</v>
+        <v>343.21</v>
       </c>
       <c r="N261" t="n">
         <v>360.38</v>
@@ -17177,7 +17177,7 @@
         <v>320.19</v>
       </c>
       <c r="M262" t="n">
-        <v>332.44</v>
+        <v>332.65</v>
       </c>
       <c r="N262" t="n">
         <v>353.24</v>
@@ -17246,7 +17246,7 @@
         <v>313.34</v>
       </c>
       <c r="M263" t="n">
-        <v>326.23</v>
+        <v>325.88</v>
       </c>
       <c r="N263" t="n">
         <v>332.55</v>
@@ -17315,7 +17315,7 @@
         <v>316.95</v>
       </c>
       <c r="M264" t="n">
-        <v>335.21</v>
+        <v>335.24</v>
       </c>
       <c r="N264" t="n">
         <v>356.13</v>
@@ -17384,7 +17384,7 @@
         <v>311.56</v>
       </c>
       <c r="M265" t="n">
-        <v>325.78</v>
+        <v>325.84</v>
       </c>
       <c r="N265" t="n">
         <v>342.09</v>
@@ -17516,7 +17516,7 @@
         <v>312.96</v>
       </c>
       <c r="M267" t="n">
-        <v>324.09</v>
+        <v>323.92</v>
       </c>
       <c r="N267" t="n">
         <v>334.67</v>
@@ -17585,7 +17585,7 @@
         <v>312.74</v>
       </c>
       <c r="M268" t="n">
-        <v>328.6</v>
+        <v>328.77</v>
       </c>
       <c r="N268" t="n">
         <v>342.02</v>
@@ -17654,7 +17654,7 @@
         <v>315.15</v>
       </c>
       <c r="M269" t="n">
-        <v>331.12</v>
+        <v>331.19</v>
       </c>
       <c r="N269" t="n">
         <v>340.24</v>
@@ -17723,7 +17723,7 @@
         <v>327.78</v>
       </c>
       <c r="M270" t="n">
-        <v>336.2</v>
+        <v>336.44</v>
       </c>
       <c r="N270" t="n">
         <v>354.32</v>
@@ -17845,7 +17845,7 @@
         <v>313.13</v>
       </c>
       <c r="M272" t="n">
-        <v>326.2</v>
+        <v>326.23</v>
       </c>
       <c r="N272" t="n">
         <v>347.61</v>
@@ -17914,7 +17914,7 @@
         <v>340.57</v>
       </c>
       <c r="M273" t="n">
-        <v>353.04</v>
+        <v>352.94</v>
       </c>
       <c r="N273" t="n">
         <v>362.24</v>
@@ -18022,7 +18022,7 @@
         <v>342.72</v>
       </c>
       <c r="M275" t="n">
-        <v>341.39</v>
+        <v>341.13</v>
       </c>
       <c r="N275" t="n">
         <v>358.06</v>
@@ -18091,7 +18091,7 @@
         <v>315.66</v>
       </c>
       <c r="M276" t="n">
-        <v>332.29</v>
+        <v>332.62</v>
       </c>
       <c r="N276" t="n">
         <v>353.24</v>
@@ -18150,7 +18150,7 @@
         <v>316.7</v>
       </c>
       <c r="M277" t="n">
-        <v>331.19</v>
+        <v>331.07</v>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr"/>
@@ -18213,7 +18213,7 @@
         <v>323.03</v>
       </c>
       <c r="M278" t="n">
-        <v>330.82</v>
+        <v>330.66</v>
       </c>
       <c r="N278" t="n">
         <v>341.1</v>
@@ -18282,7 +18282,7 @@
         <v>331.68</v>
       </c>
       <c r="M279" t="n">
-        <v>332.68</v>
+        <v>332.91</v>
       </c>
       <c r="N279" t="n">
         <v>356.11</v>
@@ -18398,7 +18398,7 @@
         <v>300.63</v>
       </c>
       <c r="M281" t="n">
-        <v>319.02</v>
+        <v>319.24</v>
       </c>
       <c r="N281" t="n">
         <v>330.54</v>
@@ -18461,7 +18461,7 @@
         <v>319.89</v>
       </c>
       <c r="M282" t="n">
-        <v>329.48</v>
+        <v>329.71</v>
       </c>
       <c r="N282" t="n">
         <v>338.23</v>
@@ -18530,7 +18530,7 @@
         <v>310.72</v>
       </c>
       <c r="M283" t="n">
-        <v>315.05</v>
+        <v>315.07</v>
       </c>
       <c r="N283" t="n">
         <v>336.79</v>
@@ -18593,7 +18593,7 @@
         <v>315.23</v>
       </c>
       <c r="M284" t="n">
-        <v>331.94</v>
+        <v>331.95</v>
       </c>
       <c r="N284" t="n">
         <v>338.15</v>
@@ -18658,7 +18658,7 @@
         <v>332.2</v>
       </c>
       <c r="M285" t="n">
-        <v>340.42</v>
+        <v>340.27</v>
       </c>
       <c r="N285" t="n">
         <v>357.36</v>
@@ -18727,7 +18727,7 @@
         <v>323.53</v>
       </c>
       <c r="M286" t="n">
-        <v>339.48</v>
+        <v>339.32</v>
       </c>
       <c r="N286" t="n">
         <v>356.92</v>
@@ -18788,7 +18788,7 @@
         <v>325.15</v>
       </c>
       <c r="M287" t="n">
-        <v>333.12</v>
+        <v>333.32</v>
       </c>
       <c r="N287" t="n">
         <v>356.02</v>
@@ -18851,7 +18851,7 @@
         <v>322.41</v>
       </c>
       <c r="M288" t="n">
-        <v>333.08</v>
+        <v>333.2</v>
       </c>
       <c r="N288" t="n">
         <v>353.59</v>
@@ -18912,7 +18912,7 @@
         <v>328.3</v>
       </c>
       <c r="M289" t="n">
-        <v>337.87</v>
+        <v>337.71</v>
       </c>
       <c r="N289" t="n">
         <v>337.57</v>
@@ -18981,7 +18981,7 @@
         <v>313.29</v>
       </c>
       <c r="M290" t="n">
-        <v>332.33</v>
+        <v>332.02</v>
       </c>
       <c r="N290" t="n">
         <v>333.08</v>
@@ -19073,7 +19073,7 @@
         <v>320.94</v>
       </c>
       <c r="M292" t="n">
-        <v>317.47</v>
+        <v>317.72</v>
       </c>
       <c r="N292" t="n">
         <v>346.98</v>
@@ -19136,7 +19136,7 @@
         <v>308.79</v>
       </c>
       <c r="M293" t="n">
-        <v>329.69</v>
+        <v>329.54</v>
       </c>
       <c r="N293" t="n">
         <v>340.48</v>
@@ -19197,7 +19197,7 @@
         <v>332.65</v>
       </c>
       <c r="M294" t="n">
-        <v>343.36</v>
+        <v>343.62</v>
       </c>
       <c r="N294" t="n">
         <v>359.65</v>
@@ -19299,7 +19299,7 @@
         <v>330.37</v>
       </c>
       <c r="M296" t="n">
-        <v>339.17</v>
+        <v>339.1</v>
       </c>
       <c r="N296" t="n">
         <v>347.61</v>
@@ -19368,7 +19368,7 @@
         <v>320.93</v>
       </c>
       <c r="M297" t="n">
-        <v>338.49</v>
+        <v>338.48</v>
       </c>
       <c r="N297" t="n">
         <v>355.63</v>
@@ -19437,7 +19437,7 @@
         <v>334.48</v>
       </c>
       <c r="M298" t="n">
-        <v>338.71</v>
+        <v>338.97</v>
       </c>
       <c r="N298" t="n">
         <v>354.09</v>
@@ -19506,7 +19506,7 @@
         <v>331.76</v>
       </c>
       <c r="M299" t="n">
-        <v>343.94</v>
+        <v>343.55</v>
       </c>
       <c r="N299" t="n">
         <v>347.8</v>
@@ -19575,7 +19575,7 @@
         <v>329.08</v>
       </c>
       <c r="M300" t="n">
-        <v>342.73</v>
+        <v>342.48</v>
       </c>
       <c r="N300" t="n">
         <v>355.45</v>
@@ -19697,7 +19697,7 @@
         <v>336.23</v>
       </c>
       <c r="M302" t="n">
-        <v>339.36</v>
+        <v>339.23</v>
       </c>
       <c r="N302" t="n">
         <v>358.07</v>
@@ -19752,7 +19752,7 @@
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
-        <v>349.63</v>
+        <v>349.37</v>
       </c>
       <c r="N303" t="n">
         <v>361.19</v>
@@ -19813,7 +19813,7 @@
         <v>337.22</v>
       </c>
       <c r="M304" t="n">
-        <v>355.31</v>
+        <v>355.57</v>
       </c>
       <c r="N304" t="n">
         <v>362.54</v>
@@ -19882,7 +19882,7 @@
         <v>327.6</v>
       </c>
       <c r="M305" t="n">
-        <v>338.42</v>
+        <v>338.56</v>
       </c>
       <c r="N305" t="n">
         <v>350.08</v>
@@ -19951,7 +19951,7 @@
         <v>333.1</v>
       </c>
       <c r="M306" t="n">
-        <v>344.11</v>
+        <v>343.92</v>
       </c>
       <c r="N306" t="n">
         <v>359.54</v>
@@ -20020,7 +20020,7 @@
         <v>323.94</v>
       </c>
       <c r="M307" t="n">
-        <v>328.14</v>
+        <v>328.38</v>
       </c>
       <c r="N307" t="n">
         <v>343.57</v>
@@ -20089,7 +20089,7 @@
         <v>320.04</v>
       </c>
       <c r="M308" t="n">
-        <v>330.61</v>
+        <v>330.75</v>
       </c>
       <c r="N308" t="n">
         <v>340.75</v>
@@ -20156,7 +20156,7 @@
         <v>327.36</v>
       </c>
       <c r="M309" t="n">
-        <v>338.78</v>
+        <v>338.62</v>
       </c>
       <c r="N309" t="n">
         <v>355.37</v>
@@ -20217,7 +20217,7 @@
         <v>312.46</v>
       </c>
       <c r="M310" t="n">
-        <v>333.56</v>
+        <v>333.61</v>
       </c>
       <c r="N310" t="n">
         <v>354.88</v>
@@ -20337,7 +20337,7 @@
         <v>328.51</v>
       </c>
       <c r="M312" t="n">
-        <v>336.36</v>
+        <v>336.15</v>
       </c>
       <c r="N312" t="n">
         <v>349.09</v>
@@ -20406,7 +20406,7 @@
         <v>310.67</v>
       </c>
       <c r="M313" t="n">
-        <v>324.24</v>
+        <v>323.92</v>
       </c>
       <c r="N313" t="n">
         <v>336.48</v>
@@ -20475,7 +20475,7 @@
         <v>335.13</v>
       </c>
       <c r="M314" t="n">
-        <v>336.87</v>
+        <v>337.12</v>
       </c>
       <c r="N314" t="n">
         <v>358.5</v>
@@ -20544,7 +20544,7 @@
         <v>348.66</v>
       </c>
       <c r="M315" t="n">
-        <v>347.38</v>
+        <v>347.23</v>
       </c>
       <c r="N315" t="n">
         <v>363.87</v>
@@ -20613,7 +20613,7 @@
         <v>345.96</v>
       </c>
       <c r="M316" t="n">
-        <v>344.63</v>
+        <v>344.51</v>
       </c>
       <c r="N316" t="n">
         <v>361.3</v>
@@ -20672,7 +20672,7 @@
         <v>324.41</v>
       </c>
       <c r="M317" t="n">
-        <v>336.06</v>
+        <v>335.91</v>
       </c>
       <c r="N317" t="n">
         <v>351.85</v>
@@ -20741,7 +20741,7 @@
         <v>335.94</v>
       </c>
       <c r="M318" t="n">
-        <v>337.27</v>
+        <v>337.53</v>
       </c>
       <c r="N318" t="n">
         <v>360.23</v>
@@ -20810,7 +20810,7 @@
         <v>332.95</v>
       </c>
       <c r="M319" t="n">
-        <v>341.85</v>
+        <v>341.54</v>
       </c>
       <c r="N319" t="n">
         <v>348.32</v>
@@ -20930,7 +20930,7 @@
         <v>323.61</v>
       </c>
       <c r="M321" t="n">
-        <v>337.58</v>
+        <v>337.8</v>
       </c>
       <c r="N321" t="n">
         <v>358.11</v>
@@ -20999,7 +20999,7 @@
         <v>323.54</v>
       </c>
       <c r="M322" t="n">
-        <v>338.31</v>
+        <v>338.21</v>
       </c>
       <c r="N322" t="n">
         <v>353.62</v>
@@ -21068,7 +21068,7 @@
         <v>331.57</v>
       </c>
       <c r="M323" t="n">
-        <v>344.38</v>
+        <v>344.3</v>
       </c>
       <c r="N323" t="n">
         <v>359.41</v>
@@ -21129,7 +21129,7 @@
         <v>335.99</v>
       </c>
       <c r="M324" t="n">
-        <v>348.93</v>
+        <v>349.19</v>
       </c>
       <c r="N324" t="n">
         <v>360.67</v>
@@ -21198,7 +21198,7 @@
         <v>334.14</v>
       </c>
       <c r="M325" t="n">
-        <v>345.61</v>
+        <v>345.87</v>
       </c>
       <c r="N325" t="n">
         <v>359.85</v>
@@ -21306,7 +21306,7 @@
         <v>345.86</v>
       </c>
       <c r="M327" t="n">
-        <v>340.12</v>
+        <v>339.98</v>
       </c>
       <c r="N327" t="n">
         <v>362.22</v>
@@ -21375,7 +21375,7 @@
         <v>338.63</v>
       </c>
       <c r="M328" t="n">
-        <v>353.38</v>
+        <v>353.54</v>
       </c>
       <c r="N328" t="n">
         <v>365.85</v>
@@ -21444,7 +21444,7 @@
         <v>335.51</v>
       </c>
       <c r="M329" t="n">
-        <v>352.95</v>
+        <v>353.16</v>
       </c>
       <c r="N329" t="n">
         <v>357.07</v>
@@ -21513,7 +21513,7 @@
         <v>320.82</v>
       </c>
       <c r="M330" t="n">
-        <v>335.52</v>
+        <v>335.17</v>
       </c>
       <c r="N330" t="n">
         <v>348.79</v>
@@ -21582,7 +21582,7 @@
         <v>327.73</v>
       </c>
       <c r="M331" t="n">
-        <v>345.07</v>
+        <v>345.33</v>
       </c>
       <c r="N331" t="n">
         <v>356.23</v>
@@ -21651,7 +21651,7 @@
         <v>344.86</v>
       </c>
       <c r="M332" t="n">
-        <v>360.03</v>
+        <v>359.83</v>
       </c>
       <c r="N332" t="n">
         <v>360.88</v>
@@ -21720,7 +21720,7 @@
         <v>341.67</v>
       </c>
       <c r="M333" t="n">
-        <v>343.12</v>
+        <v>342.99</v>
       </c>
       <c r="N333" t="n">
         <v>362.54</v>
@@ -21789,7 +21789,7 @@
         <v>319.19</v>
       </c>
       <c r="M334" t="n">
-        <v>332.47</v>
+        <v>332.46</v>
       </c>
       <c r="N334" t="n">
         <v>352.18</v>
@@ -21858,7 +21858,7 @@
         <v>329.84</v>
       </c>
       <c r="M335" t="n">
-        <v>346.12</v>
+        <v>346.28</v>
       </c>
       <c r="N335" t="n">
         <v>356.42</v>
@@ -21927,7 +21927,7 @@
         <v>325.36</v>
       </c>
       <c r="M336" t="n">
-        <v>338.3</v>
+        <v>338.04</v>
       </c>
       <c r="N336" t="n">
         <v>358.45</v>
@@ -21996,7 +21996,7 @@
         <v>323.51</v>
       </c>
       <c r="M337" t="n">
-        <v>334.1</v>
+        <v>333.97</v>
       </c>
       <c r="N337" t="n">
         <v>351.46</v>
@@ -22065,7 +22065,7 @@
         <v>319.02</v>
       </c>
       <c r="M338" t="n">
-        <v>323.95</v>
+        <v>323.88</v>
       </c>
       <c r="N338" t="n">
         <v>350.67</v>
@@ -22134,7 +22134,7 @@
         <v>325.01</v>
       </c>
       <c r="M339" t="n">
-        <v>339.46</v>
+        <v>339.32</v>
       </c>
       <c r="N339" t="n">
         <v>351.74</v>
@@ -22203,7 +22203,7 @@
         <v>332.91</v>
       </c>
       <c r="M340" t="n">
-        <v>345.74</v>
+        <v>345.42</v>
       </c>
       <c r="N340" t="n">
         <v>361.43</v>
@@ -22272,7 +22272,7 @@
         <v>335.67</v>
       </c>
       <c r="M341" t="n">
-        <v>350.64</v>
+        <v>350.92</v>
       </c>
       <c r="N341" t="n">
         <v>360.99</v>
@@ -22341,7 +22341,7 @@
         <v>342.7</v>
       </c>
       <c r="M342" t="n">
-        <v>347.13</v>
+        <v>347.49</v>
       </c>
       <c r="N342" t="n">
         <v>365.14</v>
@@ -22410,7 +22410,7 @@
         <v>326.76</v>
       </c>
       <c r="M343" t="n">
-        <v>336.46</v>
+        <v>336.54</v>
       </c>
       <c r="N343" t="n">
         <v>354.81</v>
@@ -22479,7 +22479,7 @@
         <v>322.28</v>
       </c>
       <c r="M344" t="n">
-        <v>336.07</v>
+        <v>335.97</v>
       </c>
       <c r="N344" t="n">
         <v>348.72</v>
@@ -22548,7 +22548,7 @@
         <v>327.6</v>
       </c>
       <c r="M345" t="n">
-        <v>337.49</v>
+        <v>337.74</v>
       </c>
       <c r="N345" t="n">
         <v>357.25</v>
@@ -22609,7 +22609,7 @@
         <v>331.08</v>
       </c>
       <c r="M346" t="n">
-        <v>341.39</v>
+        <v>341.14</v>
       </c>
       <c r="N346" t="n">
         <v>350.49</v>
@@ -22674,7 +22674,7 @@
         <v>337.92</v>
       </c>
       <c r="M347" t="n">
-        <v>352.15</v>
+        <v>352.02</v>
       </c>
       <c r="N347" t="n">
         <v>359.76</v>
@@ -27323,7 +27323,7 @@
         <v>0.1693</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2066917555170267</v>
+        <v>0.2063657984393018</v>
       </c>
       <c r="J13" t="n">
         <v>346</v>
@@ -27332,19 +27332,19 @@
         <v>300</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02333113722043922</v>
+        <v>0.02321392555165813</v>
       </c>
       <c r="M13" t="n">
-        <v>7.395209102769365</v>
+        <v>7.377922332067956</v>
       </c>
       <c r="N13" t="n">
-        <v>97.39021107757937</v>
+        <v>97.58518312711671</v>
       </c>
       <c r="O13" t="n">
-        <v>9.868647884972864</v>
+        <v>9.87852130266047</v>
       </c>
       <c r="P13" t="n">
-        <v>334.1669412050903</v>
+        <v>334.1603150918924</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28106,7 +28106,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-36.79917191050928,175.72384569201387</t>
+          <t>-36.799171414905494,175.7238434218793</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -28201,7 +28201,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-36.79916419324538,175.72381034277893</t>
+          <t>-36.7991648776515,175.7238134777261</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -28308,7 +28308,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-36.79915730197918,175.72377877710673</t>
+          <t>-36.7991567591736,175.72377629076973</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -28415,7 +28415,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-36.799149702696184,175.72374396839197</t>
+          <t>-36.799149749896735,175.72374418459515</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -28522,7 +28522,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-36.79915336073744,175.72376072413897</t>
+          <t>-36.79915371474131,175.72376234566298</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -28629,7 +28629,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-36.79913780814518,175.72368948519895</t>
+          <t>-36.799138256551345,175.72369153912857</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -28736,7 +28736,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-36.79914923069068,175.7237418063602</t>
+          <t>-36.79914989149837,175.7237448332047</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -28843,7 +28843,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-36.799126527178245,175.72363781266105</t>
+          <t>-36.799126007969996,175.72363543442745</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -28950,7 +28950,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-36.79908546237521,175.72344971609206</t>
+          <t>-36.79908491956254,175.7234472297593</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -29057,7 +29057,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-36.79912574836585,175.72363424531065</t>
+          <t>-36.79912593716887,175.72363511012284</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -29164,7 +29164,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-36.79919322142951,175.72394330782478</t>
+          <t>-36.799193315829854,175.7239437402316</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -29271,7 +29271,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-36.79914342501971,175.72371521337152</t>
+          <t>-36.7991438026245,175.7237169429967</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -29378,7 +29378,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-36.79910526320067,175.72354041320784</t>
+          <t>-36.79910415397871,175.72353533243862</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -29485,7 +29485,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-36.799048008175625,175.72327815920903</t>
+          <t>-36.79904725295283,175.7232746999666</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -29592,7 +29592,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-36.79915723117846,175.7237784528019</t>
+          <t>-36.79915751438135,175.7237797500212</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -29699,7 +29699,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-36.7991257011651,175.7236340291076</t>
+          <t>-36.79912508755527,175.7236312184679</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -29806,7 +29806,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-36.7991521807244,175.72375531905914</t>
+          <t>-36.79915248752781,175.72375672437988</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -29913,7 +29913,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-36.79916612846243,175.72381920711246</t>
+          <t>-36.79916643526507,175.72382061243366</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -30119,7 +30119,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>-36.799152699930175,175.72375769729425</t>
+          <t>-36.79915241672703,175.7237564000751</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -30222,7 +30222,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-36.799096318617295,175.72349944275334</t>
+          <t>-36.799096979431354,175.72350246959402</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -30321,7 +30321,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-36.799173302919655,175.72385207001108</t>
+          <t>-36.79917351532121,175.72385304292592</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -30428,7 +30428,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-36.799165090053364,175.72381445064076</t>
+          <t>-36.79916558565772,175.72381672077495</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -30527,7 +30527,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-36.79911578899784,175.72358862647155</t>
+          <t>-36.79911496298309,175.72358484291902</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -30630,7 +30630,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>-36.79915767958303,175.72378050673245</t>
+          <t>-36.79915829318925,175.7237833173743</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -30737,7 +30737,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>-36.79915244032729,175.72375650817668</t>
+          <t>-36.799152345926245,175.7237560757703</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -30994,7 +30994,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-36.7991345748997,175.72367467528605</t>
+          <t>-36.7991342208946,175.7236730537628</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -31085,7 +31085,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-36.79906030413188,175.72333448000884</t>
+          <t>-36.799060587339774,175.72333577722517</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -31156,7 +31156,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-36.79910247834514,175.72352765723429</t>
+          <t>-36.79910158152696,175.72352354937857</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -31231,7 +31231,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-36.7991536675408,175.72376212945974</t>
+          <t>-36.79915295953304,175.72375888641182</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -31338,7 +31338,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>-36.799170069695016,175.72383726008567</t>
+          <t>-36.799170541698736,175.72383942211852</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -31492,7 +31492,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-36.79914134819281,175.72370570043336</t>
+          <t>-36.799141466194364,175.7237062409412</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -31595,7 +31595,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-36.79915522515754,175.7237692641654</t>
+          <t>-36.79915564996203,175.72377120999428</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -31694,7 +31694,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-36.79915437554847,175.72376537250776</t>
+          <t>-36.79915399794439,175.72376364288215</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -31793,7 +31793,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>-36.799165939660796,175.7238183422994</t>
+          <t>-36.799166340864254,175.72382018002713</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -31939,7 +31939,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>-36.799154682351755,175.72376677782856</t>
+          <t>-36.79915416314618,175.72376439959334</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -32046,7 +32046,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-36.79916922008823,175.72383336842663</t>
+          <t>-36.799168818884986,175.72383153069876</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -32141,7 +32141,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-36.79914163139652,175.7237069976522</t>
+          <t>-36.799141466194364,175.7237062409412</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -32240,7 +32240,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-36.799160771213586,175.72379466804378</t>
+          <t>-36.79916152642078,175.72379812729557</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -32347,7 +32347,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>-36.799176606942865,175.7238672042426</t>
+          <t>-36.799175875337895,175.72386385309122</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -32450,7 +32450,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>-36.79913077524381,175.7236572709373</t>
+          <t>-36.799130798844175,175.72365737903883</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -32656,7 +32656,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>-36.79917037649742,175.72383866540702</t>
+          <t>-36.799170541698736,175.72383942211852</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -32755,7 +32755,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>-36.79915251112808,175.72375683248148</t>
+          <t>-36.79915168511885,175.72375304892566</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -32850,7 +32850,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>-36.79913818575037,175.7236912148239</t>
+          <t>-36.79913752494128,175.72368818798026</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -32949,7 +32949,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>-36.79915359674003,175.72376180515494</t>
+          <t>-36.799154092345404,175.72376407528856</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -33056,7 +33056,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>-36.79914755507083,175.72373413114764</t>
+          <t>-36.799147673072234,175.7237346716556</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -33155,7 +33155,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>-36.79915843479066,175.72378396598398</t>
+          <t>-36.799158835994675,175.72378580371137</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -33262,7 +33262,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>-36.79920478546022,175.72399627766535</t>
+          <t>-36.799204384259546,175.72399443993595</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -33329,7 +33329,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>-36.79907035800277,175.7233805311933</t>
+          <t>-36.79906962638368,175.7233771800504</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -33404,7 +33404,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>-36.79913587291819,175.7236806208714</t>
+          <t>-36.79913627412384,175.72368245859778</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -33495,7 +33495,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>-36.799154941954534,175.72376796694618</t>
+          <t>-36.79915522515754,175.7237692641654</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -33594,7 +33594,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>-36.79920131625355,175.72398038671164</t>
+          <t>-36.79920174105449,175.72398233254265</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -33693,7 +33693,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>-36.79912959522593,175.72365186586035</t>
+          <t>-36.79913013803418,175.72365435219572</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -33792,7 +33792,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>-36.79913568411553,175.72367975605894</t>
+          <t>-36.79913516490815,175.7236773778248</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -33899,7 +33899,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>-36.799179368160736,175.72387985213697</t>
+          <t>-36.7991798637638,175.72388212227196</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -33998,7 +33998,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>-36.79913464570072,175.72367499959068</t>
+          <t>-36.79913497610546,175.7236765130124</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -34093,7 +34093,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>-36.79915640516994,175.72377466924564</t>
+          <t>-36.799156027566,175.72377293961995</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -34192,7 +34192,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>-36.799170140495576,175.7238375843906</t>
+          <t>-36.7991705888991,175.7238396383218</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -34287,7 +34287,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>-36.79916768607564,175.72382634182023</t>
+          <t>-36.799167001669886,175.72382320687282</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -34390,7 +34390,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>-36.799128462408525,175.72364667698668</t>
+          <t>-36.79912924122052,175.72365024433734</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -34485,7 +34485,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>-36.799133347681945,175.72366905400554</t>
+          <t>-36.79913367808675,175.72367056742718</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -34580,7 +34580,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>-36.79913507050679,175.7236769454186</t>
+          <t>-36.79913478730276,175.72367564820001</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -34753,7 +34753,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>-36.79914101778847,175.72370418701144</t>
+          <t>-36.79914115939034,175.72370483562082</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -34943,7 +34943,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>-36.799155248757785,175.72376937226701</t>
+          <t>-36.799154493549736,175.72376591301577</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -35042,7 +35042,7 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>-36.799158788794195,175.72378558750816</t>
+          <t>-36.799158269589,175.72378320927268</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -35141,7 +35141,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>-36.79916707247049,175.72382353117774</t>
+          <t>-36.79916657686628,175.72382126104344</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -35287,7 +35287,7 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>-36.79913580211719,175.72368029656673</t>
+          <t>-36.79913606172086,175.7236814856838</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -35374,7 +35374,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-36.79914625705509,175.72372818556067</t>
+          <t>-36.79914538384433,175.72372418580227</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -35651,7 +35651,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>-36.799097781848296,175.72350614504347</t>
+          <t>-36.799097097433844,175.7235030101013</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -35742,7 +35742,7 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>-36.79914189099991,175.72370818676941</t>
+          <t>-36.79914271701061,175.72371197032436</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -35845,7 +35845,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>-36.79913108204843,175.72365867625732</t>
+          <t>-36.79913131805196,175.72365975727274</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -35944,7 +35944,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>-36.799133819688805,175.72367121603648</t>
+          <t>-36.799134480498346,175.72367424287984</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -36051,7 +36051,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>-36.79915203912281,175.72375467044958</t>
+          <t>-36.79915222792493,175.72375553526234</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -36134,7 +36134,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>-36.7991565939719,175.7237755340585</t>
+          <t>-36.799155956765254,175.72377261531514</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -36229,7 +36229,7 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>-36.79914066378378,175.72370256548794</t>
+          <t>-36.79914115939034,175.72370483562082</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -36328,7 +36328,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>-36.79913551891319,175.7236789993481</t>
+          <t>-36.79913582571752,175.72368040466827</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -36419,7 +36419,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>-36.79906726632142,175.7233663699124</t>
+          <t>-36.79906695951326,175.7233649645945</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -36518,7 +36518,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>-36.79907441730694,175.72339912463238</t>
+          <t>-36.799073992496176,175.72339717880732</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -36625,7 +36625,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>-36.79917287811652,175.72385012418138</t>
+          <t>-36.799173090518096,175.72385109709623</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -36724,7 +36724,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>-36.79912166549916,175.72361554374731</t>
+          <t>-36.79912086308569,175.7236118682958</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -36922,7 +36922,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>-36.79915305393407,175.7237593188182</t>
+          <t>-36.79915326633641,175.7237602917326</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -37021,7 +37021,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>-36.79912839160744,175.72364635268207</t>
+          <t>-36.79912836800706,175.72364624458052</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
@@ -37112,7 +37112,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>-36.799171344104955,175.72384309757436</t>
+          <t>-36.79917209931071,175.72384655682703</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -37306,7 +37306,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>-36.79915631076895,175.7237742368392</t>
+          <t>-36.79915671197312,175.72377607456653</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -37405,7 +37405,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>-36.799141324592505,175.7237055923318</t>
+          <t>-36.799141536995286,175.7237065652459</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -37504,7 +37504,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>-36.79918703820314,175.7239149851813</t>
+          <t>-36.799186660601286,175.72391325555435</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -37599,7 +37599,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>-36.7991805245678,175.72388514911864</t>
+          <t>-36.79917995816437,175.72388255467862</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -37682,7 +37682,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>-36.799165986861205,175.72381855850267</t>
+          <t>-36.79916537325585,175.7238157478603</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -37785,7 +37785,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>-36.799182105777085,175.72389239193052</t>
+          <t>-36.79918137417286,175.72388904077872</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -37884,7 +37884,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>-36.79913429169563,175.72367337806745</t>
+          <t>-36.79913462210039,175.72367489148917</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -37975,7 +37975,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>-36.79912591356849,175.72363500202133</t>
+          <t>-36.79912588996812,175.72363489391978</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -38074,7 +38074,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>-36.79911163532243,175.72356960060822</t>
+          <t>-36.79911097451015,175.72356657376648</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
@@ -38173,7 +38173,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>-36.799154399148726,175.72376548060936</t>
+          <t>-36.799155012755286,175.723768291251</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -38280,7 +38280,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>-36.79915232232598,175.72375596766872</t>
+          <t>-36.799152841531736,175.72375834590383</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -38387,7 +38387,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>-36.799182554179644,175.7238944458623</t>
+          <t>-36.799182766580834,175.72389541877737</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -38490,7 +38490,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>-36.799137548541616,175.72368829608183</t>
+          <t>-36.799137595742266,175.72368851228492</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -38589,7 +38589,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>-36.7991128389446,175.7235751137843</t>
+          <t>-36.79911340535496,175.7235777082202</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -38692,7 +38692,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>-36.79914325981758,175.72371445666053</t>
+          <t>-36.79914290581304,175.72371283513692</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -38850,7 +38850,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>-36.79910731644071,175.72354981803636</t>
+          <t>-36.79910767044754,175.7235514395586</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -38933,7 +38933,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>-36.799165538457295,175.72381650457172</t>
+          <t>-36.79916464164939,175.7238123967098</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -39024,7 +39024,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>-36.79913735973899,175.72368743126935</t>
+          <t>-36.79913743053997,175.72368775557402</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -39119,7 +39119,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>-36.7991198010677,175.7236070037277</t>
+          <t>-36.79912046187892,175.72361003057006</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -39277,7 +39277,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>-36.79919492063554,175.72395109114737</t>
+          <t>-36.799194472234,175.723949037215</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -39356,7 +39356,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>-36.799199050648035,175.72397000894668</t>
+          <t>-36.79919959344944,175.72397249528615</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
@@ -39427,7 +39427,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>-36.79916037000973,175.7237928303163</t>
+          <t>-36.7991609600154,175.7237955328567</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -39704,7 +39704,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>-36.799146705460544,175.7237302394907</t>
+          <t>-36.799147059464836,175.72373186101441</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -39902,7 +39902,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>-36.799175167333,175.72386061004156</t>
+          <t>-36.799174317726994,175.72385671838205</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -40076,7 +40076,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>-36.79916657686628,175.72382126104344</t>
+          <t>-36.799167190471486,175.7238240716859</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -40159,7 +40159,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>-36.7991818461756,175.72389120281215</t>
+          <t>-36.79918186977573,175.7238913109138</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -40262,7 +40262,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>-36.79916341443834,175.7238067754253</t>
+          <t>-36.7991633672379,175.72380655922206</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -40341,7 +40341,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>-36.79916070041292,175.72379434373894</t>
+          <t>-36.79916067681268,175.7237942356373</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -40551,7 +40551,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>-36.7991536675408,175.72376212945974</t>
+          <t>-36.799154493549736,175.72376591301577</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -40650,7 +40650,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>-36.79916306043509,175.72380515390094</t>
+          <t>-36.79916221082723,175.72380126224255</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -40749,7 +40749,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>-36.79914738986883,175.7237333744366</t>
+          <t>-36.79914800347618,175.72373618507774</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -40856,7 +40856,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>-36.799158505591365,175.72378429028882</t>
+          <t>-36.7991580807871,175.72378234445983</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -40959,7 +40959,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>-36.79916596326099,175.72381845040104</t>
+          <t>-36.79916664766687,175.72382158534836</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -41058,7 +41058,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>-36.79913752494128,175.72368818798026</t>
+          <t>-36.79913672253012,175.7236845125273</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -41157,7 +41157,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>-36.799088648448475,175.7234643097848</t>
+          <t>-36.79908782242966,175.7234605262347</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -41252,7 +41252,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>-36.799139861373085,175.72369889003474</t>
+          <t>-36.79914030977908,175.72370094396447</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -41359,7 +41359,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>-36.79913580211719,175.72368029656673</t>
+          <t>-36.79913648652682,175.72368343151177</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -41458,7 +41458,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>-36.79915687717482,175.72377683127777</t>
+          <t>-36.799155956765254,175.72377261531514</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -41561,7 +41561,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>-36.799143920625994,175.72371748350457</t>
+          <t>-36.799144416232245,175.72371975363762</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -41664,7 +41664,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>-36.7991331116785,175.72366797299009</t>
+          <t>-36.79913289927539,175.72366700007618</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -41763,7 +41763,7 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>-36.79913865775682,175.72369337685507</t>
+          <t>-36.79913868135715,175.72369348495664</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -41870,7 +41870,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>-36.79916530245523,175.7238154235554</t>
+          <t>-36.79916494845211,175.72381380203097</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -41965,7 +41965,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>-36.79913627412384,175.72368245859778</t>
+          <t>-36.79913665172914,175.72368418822268</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -42064,7 +42064,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>-36.79917035289725,175.72383855730536</t>
+          <t>-36.79916985729334,175.72383628717088</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -42159,7 +42159,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>-36.799139672570554,175.72369802522223</t>
+          <t>-36.79913953096865,175.72369737661288</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -42365,7 +42365,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>-36.79915442274897,175.72376558871093</t>
+          <t>-36.799155036355536,175.7237683993526</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -42472,7 +42472,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>-36.7991342208946,175.7236730537628</t>
+          <t>-36.79913478730276,175.72367564820001</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -42579,7 +42579,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>-36.799154092345404,175.72376407528856</t>
+          <t>-36.79915357313976,175.72376169705336</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -42757,7 +42757,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>-36.79915749078112,175.72377964191958</t>
+          <t>-36.79915798638614,175.72378191205337</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -42864,7 +42864,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>-36.79910816605705,175.7235537096897</t>
+          <t>-36.79910885047012,175.72355684463267</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -42943,7 +42943,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>-36.79910842566202,175.723554898806</t>
+          <t>-36.7991074816439,175.72355057474675</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
@@ -43042,7 +43042,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>-36.799132356467396,175.72366451374063</t>
+          <t>-36.799131884460394,175.72366235170975</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -43145,7 +43145,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>-36.799140592982845,175.72370224118325</t>
+          <t>-36.79914104138878,175.72370429511298</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -43252,7 +43252,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>-36.79915543755978,175.72377023707986</t>
+          <t>-36.79915498915503,175.7237681831494</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -43517,7 +43517,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>-36.799166860068695,175.72382255826307</t>
+          <t>-36.79916648246547,175.72382082863695</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -43616,7 +43616,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>-36.799129217620155,175.7236501362358</t>
+          <t>-36.79912905241763,175.72364937952506</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -43723,7 +43723,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>-36.79915418674642,175.72376450769497</t>
+          <t>-36.799154233946936,175.72376472389814</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -43826,7 +43826,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>-36.79917382212343,175.72385444824738</t>
+          <t>-36.79917318491879,175.72385152950284</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -43921,7 +43921,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>-36.799169739292395,175.7238357466627</t>
+          <t>-36.79917032929706,175.72383844920373</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -44020,7 +44020,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>-36.799152534728336,175.72375694058306</t>
+          <t>-36.799153219135896,175.72376007552938</t>
         </is>
       </c>
       <c r="N168" t="inlineStr"/>
@@ -44111,7 +44111,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>-36.79913322968022,175.72366851349778</t>
+          <t>-36.79913363088607,175.7236703512241</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -44218,7 +44218,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>-36.7991565939719,175.7237755340585</t>
+          <t>-36.799157113177245,175.72377791229385</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -44317,7 +44317,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>-36.7991875338055,175.72391725531668</t>
+          <t>-36.799187463005154,175.72391693101164</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -44416,7 +44416,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>-36.799156475970676,175.72377499355045</t>
+          <t>-36.79915657037165,175.7237754259569</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
@@ -44515,7 +44515,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>-36.79916549125688,175.72381628836843</t>
+          <t>-36.79916631726405,175.7238200719255</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
@@ -44610,7 +44610,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>-36.79912520555717,175.72363175897553</t>
+          <t>-36.79912588996812,175.72363489391978</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
@@ -44717,7 +44717,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>-36.799166812868286,175.72382234205978</t>
+          <t>-36.7991660104614,175.7238186666043</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
@@ -44816,7 +44816,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>-36.79915347873874,175.72376126464695</t>
+          <t>-36.799154092345404,175.72376407528856</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
@@ -44994,7 +44994,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>-36.79915220432467,175.72375542716074</t>
+          <t>-36.799151944721764,175.7237542380432</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -45081,7 +45081,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>-36.79913575491653,175.7236800803636</t>
+          <t>-36.799135896518514,175.72368072897294</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -45180,7 +45180,7 @@
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr">
         <is>
-          <t>-36.79915510715629,175.7237687236574</t>
+          <t>-36.79915454075024,175.72376612921894</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -45287,7 +45287,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>-36.799155413959525,175.72377012897823</t>
+          <t>-36.799156074766486,175.72377315582315</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -45493,7 +45493,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>-36.79916294243401,175.72380461339284</t>
+          <t>-36.79916228162789,175.7238015865474</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -45596,7 +45596,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>-36.799128627611076,175.72364743369738</t>
+          <t>-36.79912928842124,175.7236504605404</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
@@ -45695,7 +45695,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>-36.799160771213586,175.72379466804378</t>
+          <t>-36.799159780003976,175.7237901277759</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
@@ -45802,7 +45802,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>-36.79918323858347,175.72389758081087</t>
+          <t>-36.79918229457817,175.7238932567439</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -45901,7 +45901,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>-36.79912631477488,175.7236368397473</t>
+          <t>-36.79912676318197,175.72363889367634</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
@@ -45988,7 +45988,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>-36.79913778454487,175.7236893770974</t>
+          <t>-36.79913799694779,175.72369035001142</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -46087,7 +46087,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>-36.7991605116111,175.723793478926</t>
+          <t>-36.799160346409494,175.72379272221468</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -46186,7 +46186,7 @@
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr">
         <is>
-          <t>-36.79914899468791,175.72374072534433</t>
+          <t>-36.79914859348319,175.72373888761737</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
@@ -46328,7 +46328,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>-36.79916615206262,175.7238193152141</t>
+          <t>-36.79916523165461,175.72381509925052</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
@@ -46407,7 +46407,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>-36.79915246392755,175.72375661627828</t>
+          <t>-36.79915295953304,175.72375888641182</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
@@ -46514,7 +46514,7 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>-36.79918422978884,175.72390212108124</t>
+          <t>-36.799184937792575,175.7239053641316</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
@@ -46621,7 +46621,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>-36.7991536675408,175.72376212945974</t>
+          <t>-36.799153242736146,175.72376018363096</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
@@ -46823,7 +46823,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>-36.799157844784716,175.72378126344373</t>
+          <t>-36.79915737277991,175.72377910141154</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
@@ -46922,7 +46922,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>-36.799152841531736,175.72375834590383</t>
+          <t>-36.79915347873874,175.72376126464695</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
@@ -47068,7 +47068,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>-36.79916485405128,175.72381336962448</t>
+          <t>-36.79916454724855,175.7238119643033</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
@@ -47163,7 +47163,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>-36.799115883399516,175.72358905887754</t>
+          <t>-36.79911552939322,175.72358743735504</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
@@ -47250,7 +47250,7 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>-36.799161998425234,175.72380028932795</t>
+          <t>-36.7991609600154,175.7237955328567</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
@@ -47345,7 +47345,7 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>-36.799151401915644,175.72375175170652</t>
+          <t>-36.79915121311351,175.72375088689378</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
@@ -47428,7 +47428,7 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>-36.79913887015972,175.72369434976912</t>
+          <t>-36.79913931856578,175.7236964036988</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
@@ -47618,7 +47618,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>-36.799149466693436,175.7237428873761</t>
+          <t>-36.799149065488734,175.7237410496491</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
@@ -47709,7 +47709,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>-36.799171108103145,175.72384201655794</t>
+          <t>-36.799170612499296,175.72383974642344</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
@@ -47812,7 +47812,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>-36.79919201782492,175.72393779463815</t>
+          <t>-36.799192749427746,175.72394114579077</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
@@ -47911,7 +47911,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>-36.79913894096068,175.7236946740738</t>
+          <t>-36.79913823295102,175.72369143102702</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -48006,7 +48006,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>-36.79916072401314,175.72379445184055</t>
+          <t>-36.799159850804664,175.72379045208078</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
@@ -48109,7 +48109,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>-36.799162352428546,175.72380191085227</t>
+          <t>-36.79916289523357,175.72380439718958</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
@@ -48216,7 +48216,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>-36.7991451006408,175.72372288858332</t>
+          <t>-36.799145077040514,175.72372278048175</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -48319,7 +48319,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>-36.79918005256496,175.7238829870853</t>
+          <t>-36.7991800761651,175.72388309518695</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
@@ -48521,7 +48521,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>-36.79915258192886,175.72375715678626</t>
+          <t>-36.79915166151857,175.72375294082406</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -48620,7 +48620,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>-36.79913653372748,175.7236836477149</t>
+          <t>-36.799137123735726,175.7236863502538</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
@@ -48723,7 +48723,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>-36.79913785534584,175.72368970140207</t>
+          <t>-36.79913714733605,175.72368645835533</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
@@ -48826,7 +48826,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>-36.79913438609699,175.72367381047366</t>
+          <t>-36.79913499970579,175.72367662111395</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
@@ -48921,7 +48921,7 @@
       <c r="L219" t="inlineStr"/>
       <c r="M219" t="inlineStr">
         <is>
-          <t>-36.799158245988764,175.72378310117108</t>
+          <t>-36.799158363989946,175.72378364167915</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
@@ -49028,7 +49028,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>-36.79917417612597,175.72385606977215</t>
+          <t>-36.799174459328,175.72385736699195</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
@@ -49135,7 +49135,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>-36.79916006320674,175.72379142499528</t>
+          <t>-36.799160606012,175.72379391133248</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
@@ -49234,7 +49234,7 @@
       <c r="L222" t="inlineStr"/>
       <c r="M222" t="inlineStr">
         <is>
-          <t>-36.799158623592554,175.72378483079686</t>
+          <t>-36.799158505591365,175.72378429028882</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
@@ -49341,7 +49341,7 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>-36.79917689014476,175.7238685014625</t>
+          <t>-36.79917622934032,175.72386547461605</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
@@ -49444,7 +49444,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>-36.79915255832859,175.7237570486847</t>
+          <t>-36.799153124734865,175.723759643123</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
@@ -49543,7 +49543,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>-36.79914259900909,175.72371142981652</t>
+          <t>-36.79914297661396,175.72371315944164</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
@@ -49646,7 +49646,7 @@
       <c r="L226" t="inlineStr"/>
       <c r="M226" t="inlineStr">
         <is>
-          <t>-36.79912867481181,175.72364764990047</t>
+          <t>-36.79912869841217,175.72364775800202</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
@@ -49753,7 +49753,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>-36.79916745007366,175.72382526080386</t>
+          <t>-36.79916726127208,175.72382439599082</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
@@ -49856,7 +49856,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>-36.799159709203295,175.72378980347108</t>
+          <t>-36.799159213598415,175.72378753333717</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
@@ -49939,7 +49939,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>-36.79913339488263,175.72366927020863</t>
+          <t>-36.799134150093586,175.72367272945814</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -50034,7 +50034,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>-36.79916037000973,175.7237928303163</t>
+          <t>-36.79915963840259,175.72378947916621</t>
         </is>
       </c>
       <c r="N230" t="inlineStr"/>
@@ -50133,7 +50133,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>-36.799200844252475,175.7239782246772</t>
+          <t>-36.799201505053965,175.72398125152543</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
@@ -50422,7 +50422,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>-36.799202614256316,175.72398633230642</t>
+          <t>-36.79920254345617,175.72398600800125</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -50584,7 +50584,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>-36.79916138481944,175.72379747868587</t>
+          <t>-36.79916211642636,175.72380082983608</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
@@ -50687,7 +50687,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>-36.79914609185307,175.72372742884963</t>
+          <t>-36.7991454546452,175.723724510107</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -50786,7 +50786,7 @@
       <c r="L238" t="inlineStr"/>
       <c r="M238" t="inlineStr">
         <is>
-          <t>-36.7991257011651,175.7236340291076</t>
+          <t>-36.79912508755527,175.7236312184679</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -50893,7 +50893,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>-36.79914325981758,175.72371445666053</t>
+          <t>-36.799143613822096,175.7237160781841</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -51000,7 +51000,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>-36.799155508360535,175.72377056138464</t>
+          <t>-36.79915616916749,175.7237735882296</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -51107,7 +51107,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>-36.799141112189716,175.72370461941767</t>
+          <t>-36.79914160779622,175.72370688955058</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -51210,7 +51210,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>-36.79917504933217,175.7238600695333</t>
+          <t>-36.799174624529165,175.72385812370354</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
@@ -51313,7 +51313,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>-36.79915668837288,175.72377596646493</t>
+          <t>-36.79915633436921,175.72377434494084</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -51412,7 +51412,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>-36.799147743873085,175.72373499596034</t>
+          <t>-36.79914783827422,175.72373542836667</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
@@ -51515,7 +51515,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>-36.799163036834884,175.7238050457993</t>
+          <t>-36.799162423229205,175.72380223515714</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
@@ -51610,7 +51610,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>-36.79913870495747,175.72369359305821</t>
+          <t>-36.79913797334746,175.72369024190985</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
@@ -51812,7 +51812,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>-36.79915994520559,175.72379088448724</t>
+          <t>-36.799159213598415,175.72378753333717</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -51994,7 +51994,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>-36.799149631895354,175.72374364408722</t>
+          <t>-36.79914996229918,175.72374515750948</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
@@ -52089,7 +52089,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>-36.79914734266827,175.7237331582334</t>
+          <t>-36.79914809787731,175.7237366174841</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
@@ -52192,7 +52192,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>-36.79917049449837,175.72383920591523</t>
+          <t>-36.79916950329052,175.7238346656463</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
@@ -52291,7 +52291,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>-36.799139011761646,175.7236949983785</t>
+          <t>-36.7991382093507,175.72369132292545</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
@@ -52398,7 +52398,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>-36.79915680637409,175.72377650697294</t>
+          <t>-36.79915642877019,175.72377477734724</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -52501,7 +52501,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>-36.79915130751458,175.72375131930016</t>
+          <t>-36.79915156711752,175.72375250841768</t>
         </is>
       </c>
       <c r="N255" t="inlineStr"/>
@@ -52600,7 +52600,7 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>-36.79914842828124,175.72373813090627</t>
+          <t>-36.79914894748736,175.72374050914118</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
@@ -52707,7 +52707,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>-36.79914861708346,175.72373899571895</t>
+          <t>-36.79914764947196,175.723734563554</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
@@ -52814,7 +52814,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>-36.79918484339208,175.7239049317249</t>
+          <t>-36.79918515019368,175.7239063370467</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -52917,7 +52917,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>-36.799154257547194,175.72376483199974</t>
+          <t>-36.799154115945676,175.72376418339016</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
@@ -53020,7 +53020,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>-36.79920041945148,175.7239762788463</t>
+          <t>-36.79920034865131,175.72397595454112</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -53127,7 +53127,7 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>-36.79916433484665,175.7238109913887</t>
+          <t>-36.799163603240046,175.72380764023828</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
@@ -53234,7 +53234,7 @@
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>-36.79913818575037,175.7236912148239</t>
+          <t>-36.79913868135715,175.72369348495664</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
@@ -53341,7 +53341,7 @@
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>-36.799123529929986,175.72362408376733</t>
+          <t>-36.79912270391642,175.72362030021412</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
@@ -53448,7 +53448,7 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>-36.79914472303609,175.7237211589581</t>
+          <t>-36.79914479383699,175.72372148326284</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
@@ -53555,7 +53555,7 @@
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>-36.799122467912504,175.72361921919895</t>
+          <t>-36.79912260951485,175.72361986780805</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
@@ -53757,7 +53757,7 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>-36.79911847944501,175.72360095004314</t>
+          <t>-36.79911807823805,175.7235991123175</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
@@ -53864,7 +53864,7 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>-36.79912912321871,175.72364970382964</t>
+          <t>-36.79912952442484,175.72365154155577</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
@@ -53971,7 +53971,7 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>-36.79913507050679,175.7236769454186</t>
+          <t>-36.799135235709166,175.72367770212946</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
@@ -54078,7 +54078,7 @@
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>-36.799147059464836,175.72373186101441</t>
+          <t>-36.79914762587167,175.72373445545242</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
@@ -54260,7 +54260,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>-36.79912345912883,175.72362375946278</t>
+          <t>-36.799123529929986,175.72362408376733</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
@@ -54367,7 +54367,7 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>-36.79918680220198,175.72391390416445</t>
+          <t>-36.79918656620081,175.7239128231476</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
@@ -54521,7 +54521,7 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>-36.799159307999346,175.72378796574364</t>
+          <t>-36.799158694393256,175.7237851551017</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
@@ -54628,7 +54628,7 @@
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>-36.79913783174552,175.72368959330052</t>
+          <t>-36.79913861055618,175.72369316065198</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
@@ -54715,7 +54715,7 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>-36.799135235709166,175.72367770212946</t>
+          <t>-36.79913495250512,175.72367640491086</t>
         </is>
       </c>
       <c r="N277" t="inlineStr"/>
@@ -54810,7 +54810,7 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>-36.799134362496645,175.7236737023721</t>
+          <t>-36.79913398489119,175.72367197274733</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
@@ -54917,7 +54917,7 @@
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>-36.79913875215811,175.72369380926133</t>
+          <t>-36.79913929496547,175.72369629559722</t>
         </is>
       </c>
       <c r="N279" t="inlineStr">
@@ -55087,7 +55087,7 @@
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>-36.799106514025155,175.7235461425861</t>
+          <t>-36.799107033235245,175.7235485208186</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
@@ -55182,7 +55182,7 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>-36.799131200050205,175.72365921676504</t>
+          <t>-36.79913174285829,175.7236617031005</t>
         </is>
       </c>
       <c r="N282" t="inlineStr">
@@ -55289,7 +55289,7 @@
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>-36.79909714463485,175.7235032263042</t>
+          <t>-36.79909719183584,175.7235034425071</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
@@ -55384,7 +55384,7 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>-36.799137005734075,175.723685809746</t>
+          <t>-36.79913702933441,175.72368591784755</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
@@ -55483,7 +55483,7 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>-36.79915701877628,175.72377747988742</t>
+          <t>-36.79915666477263,175.72377585836333</t>
         </is>
       </c>
       <c r="N285" t="inlineStr">
@@ -55590,7 +55590,7 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>-36.799154800353016,175.72376731833657</t>
+          <t>-36.79915442274897,175.72376558871093</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
@@ -55681,7 +55681,7 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>-36.79913979057214,175.72369856573005</t>
+          <t>-36.799140262578454,175.72370072776133</t>
         </is>
       </c>
       <c r="N287" t="inlineStr">
@@ -55776,7 +55776,7 @@
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>-36.799139696170876,175.72369813332378</t>
+          <t>-36.799139979374665,175.72369943054255</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
@@ -55867,7 +55867,7 @@
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>-36.7991510007111,175.72374991397945</t>
+          <t>-36.79915062310678,175.723748184354</t>
         </is>
       </c>
       <c r="N289" t="inlineStr">
@@ -55974,7 +55974,7 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>-36.79913792614682,175.72369002570673</t>
+          <t>-36.79913719453671,175.72368667455845</t>
         </is>
       </c>
       <c r="N290" t="inlineStr">
@@ -56096,7 +56096,7 @@
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>-36.79910285595275,175.72352938685776</t>
+          <t>-36.79910344596459,175.7235320893945</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
@@ -56191,7 +56191,7 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>-36.79913169565759,175.7236614868974</t>
+          <t>-36.79913134165232,175.7236598653743</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
@@ -56282,7 +56282,7 @@
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>-36.799163957243245,175.72380926176265</t>
+          <t>-36.79916457084877,175.72381207240494</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
@@ -56424,7 +56424,7 @@
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>-36.799154068745146,175.72376396718693</t>
+          <t>-36.799153903543356,175.72376321047577</t>
         </is>
       </c>
       <c r="N296" t="inlineStr">
@@ -56531,7 +56531,7 @@
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>-36.79915246392755,175.72375661627828</t>
+          <t>-36.79915244032729,175.72375650817668</t>
         </is>
       </c>
       <c r="N297" t="inlineStr">
@@ -56638,7 +56638,7 @@
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>-36.7991529831333,175.72375899451342</t>
+          <t>-36.79915359674003,175.72376180515494</t>
         </is>
       </c>
       <c r="N298" t="inlineStr">
@@ -56745,7 +56745,7 @@
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>-36.799165326055444,175.723815531657</t>
+          <t>-36.79916440564729,175.72381131569355</t>
         </is>
       </c>
       <c r="N299" t="inlineStr">
@@ -56852,7 +56852,7 @@
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>-36.79916247042964,175.72380245136037</t>
+          <t>-36.799161880424116,175.72379974881986</t>
         </is>
       </c>
       <c r="N300" t="inlineStr">
@@ -57034,7 +57034,7 @@
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>-36.79915451714998,175.72376602111734</t>
+          <t>-36.799154210346686,175.72376461579654</t>
         </is>
       </c>
       <c r="N302" t="inlineStr">
@@ -57113,7 +57113,7 @@
       <c r="L303" t="inlineStr"/>
       <c r="M303" t="inlineStr">
         <is>
-          <t>-36.79917875455688,175.72387704149372</t>
+          <t>-36.79917814095297,175.72387423085047</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
@@ -57204,7 +57204,7 @@
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>-36.79919215942548,175.72393844324833</t>
+          <t>-36.79919277302782,175.7239412538925</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
@@ -57311,7 +57311,7 @@
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>-36.79915229872571,175.72375585956712</t>
+          <t>-36.79915262912938,175.72375737298947</t>
         </is>
       </c>
       <c r="N305" t="inlineStr">
@@ -57418,7 +57418,7 @@
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>-36.799165727258945,175.72381736938476</t>
+          <t>-36.79916527885502,175.72381531545378</t>
         </is>
       </c>
       <c r="N306" t="inlineStr">
@@ -57525,7 +57525,7 @@
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>-36.799128037601925,175.72364473115906</t>
+          <t>-36.79912860401071,175.72364732559586</t>
         </is>
       </c>
       <c r="N307" t="inlineStr">
@@ -57632,7 +57632,7 @@
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>-36.799133866889484,175.72367143223957</t>
+          <t>-36.799134197294265,175.72367294566124</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
@@ -57735,7 +57735,7 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>-36.799153148335115,175.72375975122458</t>
+          <t>-36.799152770730956,175.72375802159902</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
@@ -57826,7 +57826,7 @@
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>-36.799140828985976,175.7237033221989</t>
+          <t>-36.799140946987535,175.7237038627067</t>
         </is>
       </c>
       <c r="N310" t="inlineStr">
@@ -58004,7 +58004,7 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>-36.79914743706941,175.72373359063974</t>
+          <t>-36.79914694146341,175.72373132050652</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
@@ -58111,7 +58111,7 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>-36.79911883345111,175.72360257156575</t>
+          <t>-36.79911807823805,175.7235991123175</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
@@ -58218,7 +58218,7 @@
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>-36.79914864068374,175.72373910382055</t>
+          <t>-36.79914923069068,175.7237418063602</t>
         </is>
       </c>
       <c r="N314" t="inlineStr">
@@ -58325,7 +58325,7 @@
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>-36.79917344452069,175.72385271862098</t>
+          <t>-36.799173090518096,175.72385109709623</t>
         </is>
       </c>
       <c r="N315" t="inlineStr">
@@ -58432,7 +58432,7 @@
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>-36.799166954469484,175.72382299066956</t>
+          <t>-36.79916667126707,175.72382169345</t>
         </is>
       </c>
       <c r="N316" t="inlineStr">
@@ -58519,7 +58519,7 @@
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>-36.799146729060844,175.7237303475923</t>
+          <t>-36.79914637505654,175.72372872606857</t>
         </is>
       </c>
       <c r="N317" t="inlineStr">
@@ -58626,7 +58626,7 @@
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>-36.79914958469481,175.72374342788405</t>
+          <t>-36.799150198301916,175.72374623852537</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
@@ -58733,7 +58733,7 @@
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>-36.79916039360995,175.72379293841792</t>
+          <t>-36.799159662002836,175.72378958726785</t>
         </is>
       </c>
       <c r="N319" t="inlineStr">
@@ -58911,7 +58911,7 @@
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>-36.799150316303276,175.72374677903332</t>
+          <t>-36.799150835509224,175.72374915726832</t>
         </is>
       </c>
       <c r="N321" t="inlineStr">
@@ -59018,7 +59018,7 @@
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>-36.79915203912281,175.72375467044958</t>
+          <t>-36.79915180312018,175.7237535894336</t>
         </is>
       </c>
       <c r="N322" t="inlineStr">
@@ -59125,7 +59125,7 @@
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>-36.799166364464455,175.72382028812876</t>
+          <t>-36.79916617566282,175.72381942331572</t>
         </is>
       </c>
       <c r="N323" t="inlineStr">
@@ -59216,7 +59216,7 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>-36.799177102546174,175.7238694743774</t>
+          <t>-36.79917771615021,175.72387228502058</t>
         </is>
       </c>
       <c r="N324" t="inlineStr">
@@ -59323,7 +59323,7 @@
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>-36.79916926728862,175.72383358462992</t>
+          <t>-36.79916988089352,175.72383639527254</t>
         </is>
       </c>
       <c r="N325" t="inlineStr">
@@ -59477,7 +59477,7 @@
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>-36.79915631076895,175.7237742368392</t>
+          <t>-36.79915598036551,175.72377272341674</t>
         </is>
       </c>
       <c r="N327" t="inlineStr">
@@ -59584,7 +59584,7 @@
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>-36.799187604605834,175.72391757962174</t>
+          <t>-36.799187982207606,175.72391930924874</t>
         </is>
       </c>
       <c r="N328" t="inlineStr">
@@ -59691,7 +59691,7 @@
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>-36.79918658980095,175.7239129312493</t>
+          <t>-36.79918708540335,175.72391520138467</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
@@ -59798,7 +59798,7 @@
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>-36.7991454546452,175.723724510107</t>
+          <t>-36.799144628634906,175.7237207265518</t>
         </is>
       </c>
       <c r="N330" t="inlineStr">
@@ -59905,7 +59905,7 @@
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>-36.799167992878196,175.72382774714148</t>
+          <t>-36.79916860648325,175.72383055778405</t>
         </is>
       </c>
       <c r="N331" t="inlineStr">
@@ -60012,7 +60012,7 @@
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>-36.79920329865762,175.72398946725647</t>
+          <t>-36.799202826656725,175.72398730522195</t>
         </is>
       </c>
       <c r="N332" t="inlineStr">
@@ -60119,7 +60119,7 @@
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>-36.79916339083812,175.7238066673237</t>
+          <t>-36.79916308403531,175.72380526200257</t>
         </is>
       </c>
       <c r="N333" t="inlineStr">
@@ -60226,7 +60226,7 @@
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>-36.799138256551345,175.72369153912857</t>
+          <t>-36.79913823295102,175.72369143102702</t>
         </is>
       </c>
       <c r="N334" t="inlineStr">
@@ -60333,7 +60333,7 @@
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>-36.799170470898176,175.7238390978136</t>
+          <t>-36.799170848501134,175.72384082743986</t>
         </is>
       </c>
       <c r="N335" t="inlineStr">
@@ -60440,7 +60440,7 @@
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>-36.79915201552256,175.72375456234798</t>
+          <t>-36.799151401915644,175.72375175170652</t>
         </is>
       </c>
       <c r="N336" t="inlineStr">
@@ -60547,7 +60547,7 @@
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>-36.79914210340269,175.72370915968352</t>
+          <t>-36.79914179659868,175.72370775436315</t>
         </is>
       </c>
       <c r="N337" t="inlineStr">
@@ -60654,7 +60654,7 @@
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>-36.79911814903929,175.723599436622</t>
+          <t>-36.79911798383642,175.72359867991148</t>
         </is>
       </c>
       <c r="N338" t="inlineStr">
@@ -60761,7 +60761,7 @@
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>-36.799154753152514,175.7237671021334</t>
+          <t>-36.79915442274897,175.72376558871093</t>
         </is>
       </c>
       <c r="N339" t="inlineStr">
@@ -60868,7 +60868,7 @@
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>-36.799169574091074,175.7238349899512</t>
+          <t>-36.799168818884986,175.72383153069876</t>
         </is>
       </c>
       <c r="N340" t="inlineStr">
@@ -60975,7 +60975,7 @@
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>-36.799181138171456,175.72388795976204</t>
+          <t>-36.79918179897533,175.7238909866088</t>
         </is>
       </c>
       <c r="N341" t="inlineStr">
@@ -61082,7 +61082,7 @@
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>-36.79917285451636,175.72385001607975</t>
+          <t>-36.79917370412258,175.7238539077391</t>
         </is>
       </c>
       <c r="N342" t="inlineStr">
@@ -61189,7 +61189,7 @@
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>-36.799147673072234,175.7237346716556</t>
+          <t>-36.799147861874495,175.72373553646824</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
@@ -61296,7 +61296,7 @@
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>-36.799146752661116,175.72373045569387</t>
+          <t>-36.799146516658254,175.72372937467807</t>
         </is>
       </c>
       <c r="N344" t="inlineStr">
@@ -61403,7 +61403,7 @@
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>-36.79915010390083,175.723745806119</t>
+          <t>-36.799150693907606,175.7237485086588</t>
         </is>
       </c>
       <c r="N345" t="inlineStr">
@@ -61494,7 +61494,7 @@
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>-36.799159307999346,175.72378796574364</t>
+          <t>-36.79915871799349,175.7237852632033</t>
         </is>
       </c>
       <c r="N346" t="inlineStr">
@@ -61593,7 +61593,7 @@
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>-36.79918470179134,175.72390428311482</t>
+          <t>-36.79918439498972,175.723902877793</t>
         </is>
       </c>
       <c r="N347" t="inlineStr">
